--- a/FOMC2_coef.xlsx
+++ b/FOMC2_coef.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.0002602379543591229</v>
+        <v>-0.001305048304585534</v>
       </c>
       <c r="C2">
-        <v>0.001305801912485149</v>
+        <v>-0.0013466204634194</v>
       </c>
       <c r="D2">
-        <v>9.611954469656066e-06</v>
+        <v>3.223435489908641e-06</v>
       </c>
       <c r="E2">
-        <v>0.000486430039043112</v>
+        <v>-0.0002225171194823669</v>
       </c>
       <c r="F2">
-        <v>-2.814879916201654e-05</v>
+        <v>-0.0002284005090800848</v>
       </c>
       <c r="G2">
-        <v>1.720072529166826e-07</v>
+        <v>1.012287465087653e-06</v>
       </c>
       <c r="H2">
-        <v>0.03282128717988135</v>
+        <v>0.0367555669442613</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0002290901637559809</v>
+        <v>-0.001152887661594026</v>
       </c>
       <c r="C3">
-        <v>-0.0006955454276541032</v>
+        <v>-0.001038524868878571</v>
       </c>
       <c r="D3">
-        <v>8.329859011619982e-06</v>
+        <v>9.906270507511708e-07</v>
       </c>
       <c r="E3">
-        <v>0.0005663149513222693</v>
+        <v>-0.0002147248050527843</v>
       </c>
       <c r="F3">
-        <v>-5.898386776144189e-05</v>
+        <v>-1.158580646491985e-05</v>
       </c>
       <c r="G3">
-        <v>-1.019625501541235e-07</v>
+        <v>7.978751602896142e-08</v>
       </c>
       <c r="H3">
-        <v>0.03388560038995603</v>
+        <v>0.03464733082043166</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0007066477312939056</v>
+        <v>-0.0004536974649057236</v>
       </c>
       <c r="C4">
-        <v>6.429635264827954e-05</v>
+        <v>-0.0003685147240592025</v>
       </c>
       <c r="D4">
-        <v>-4.590774186888419e-06</v>
+        <v>2.022048417613608e-06</v>
       </c>
       <c r="E4">
-        <v>-0.0005338732781999533</v>
+        <v>-0.0001876680605574881</v>
       </c>
       <c r="F4">
-        <v>-0.0001083944889530156</v>
+        <v>-0.0001951936926619561</v>
       </c>
       <c r="G4">
-        <v>3.12822880898814e-07</v>
+        <v>6.384119331737219e-07</v>
       </c>
       <c r="H4">
-        <v>0.03573608186504919</v>
+        <v>0.03564130501802117</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.0001474790493435521</v>
+        <v>8.935505612857374e-05</v>
       </c>
       <c r="C5">
-        <v>-0.0007406410852065215</v>
+        <v>-0.000285492279558352</v>
       </c>
       <c r="D5">
-        <v>-1.452670860563992e-06</v>
+        <v>4.023022407472409e-06</v>
       </c>
       <c r="E5">
-        <v>-0.0004202586199743633</v>
+        <v>0.000970322504309739</v>
       </c>
       <c r="F5">
-        <v>-0.0001288985487135711</v>
+        <v>9.055180996031531e-05</v>
       </c>
       <c r="G5">
-        <v>2.865730694694739e-07</v>
+        <v>-8.451390850933815e-07</v>
       </c>
       <c r="H5">
-        <v>0.03526802911555386</v>
+        <v>0.03237093319187453</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0004009696403610421</v>
+        <v>-0.000382017269833934</v>
       </c>
       <c r="C6">
-        <v>-0.0002439272341618166</v>
+        <v>0.0003797305480310684</v>
       </c>
       <c r="D6">
-        <v>-1.477369306045063e-06</v>
+        <v>-6.56884311412194e-06</v>
       </c>
       <c r="E6">
-        <v>0.0006612858197360717</v>
+        <v>-0.0008531033324983874</v>
       </c>
       <c r="F6">
-        <v>-0.0001727607304187041</v>
+        <v>2.744015904416607e-05</v>
       </c>
       <c r="G6">
-        <v>2.314013191129347e-07</v>
+        <v>1.970032904636305e-07</v>
       </c>
       <c r="H6">
-        <v>0.03597689726063749</v>
+        <v>0.0343027813999386</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.001550285492014055</v>
+        <v>-7.915144516764012e-05</v>
       </c>
       <c r="C7">
-        <v>0.0005094418294791113</v>
+        <v>-0.0005078118649481436</v>
       </c>
       <c r="D7">
-        <v>-5.283592198337862e-06</v>
+        <v>4.798606518766492e-06</v>
       </c>
       <c r="E7">
-        <v>0.0004085774622959552</v>
+        <v>3.10251752399307e-05</v>
       </c>
       <c r="F7">
-        <v>0.0002265427764403638</v>
+        <v>-7.001690891195633e-05</v>
       </c>
       <c r="G7">
-        <v>5.732572550593128e-07</v>
+        <v>1.410821121228354e-06</v>
       </c>
       <c r="H7">
-        <v>0.03189713619216741</v>
+        <v>0.03320607964049063</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-7.94512258835982e-05</v>
+        <v>-0.001014390711175945</v>
       </c>
       <c r="C8">
-        <v>-0.0007985738141929614</v>
+        <v>0.0002822685609399047</v>
       </c>
       <c r="D8">
-        <v>6.783894748339826e-06</v>
+        <v>-3.61059045404616e-06</v>
       </c>
       <c r="E8">
-        <v>-0.0008195389234459012</v>
+        <v>-0.0005311819887236779</v>
       </c>
       <c r="F8">
-        <v>-0.0001588578942275764</v>
+        <v>-0.0002054364921121181</v>
       </c>
       <c r="G8">
-        <v>5.870188451034663e-07</v>
+        <v>1.123046561710161e-06</v>
       </c>
       <c r="H8">
-        <v>0.03482059979265047</v>
+        <v>0.03659917950682195</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.0001295163452949446</v>
+        <v>-0.0005250919505015049</v>
       </c>
       <c r="C9">
-        <v>-0.001174698844400844</v>
+        <v>-0.0009561680676955391</v>
       </c>
       <c r="D9">
-        <v>6.708922482081487e-07</v>
+        <v>-1.879312433116954e-06</v>
       </c>
       <c r="E9">
-        <v>-1.260404629015166e-05</v>
+        <v>0.0007172199611583836</v>
       </c>
       <c r="F9">
-        <v>-8.156194941542558e-07</v>
+        <v>-0.0001413252468710215</v>
       </c>
       <c r="G9">
-        <v>5.339572472355153e-07</v>
+        <v>8.817309580508176e-07</v>
       </c>
       <c r="H9">
-        <v>0.03314779781383544</v>
+        <v>0.03534116680576409</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.000171700768339892</v>
+        <v>-0.0006131994626483229</v>
       </c>
       <c r="C10">
-        <v>-0.0006447284452685937</v>
+        <v>-0.0004863219144020593</v>
       </c>
       <c r="D10">
-        <v>1.020110222204932e-05</v>
+        <v>-6.025958520390459e-06</v>
       </c>
       <c r="E10">
-        <v>-0.0009619175280662258</v>
+        <v>-2.655588021598099e-05</v>
       </c>
       <c r="F10">
-        <v>-7.532927914781078e-05</v>
+        <v>5.521115295355672e-05</v>
       </c>
       <c r="G10">
-        <v>-3.556178921661469e-07</v>
+        <v>-2.784152578115011e-07</v>
       </c>
       <c r="H10">
-        <v>0.03405621638483306</v>
+        <v>0.0341604526300558</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.0008335958922739018</v>
+        <v>-0.0006298999672259943</v>
       </c>
       <c r="C11">
-        <v>-2.707655403984266e-05</v>
+        <v>-0.0002012847272126362</v>
       </c>
       <c r="D11">
-        <v>-1.079649442469359e-05</v>
+        <v>3.140899607986819e-06</v>
       </c>
       <c r="E11">
-        <v>0.0006533855087853917</v>
+        <v>0.0002409225655827692</v>
       </c>
       <c r="F11">
-        <v>0.0001065412628578443</v>
+        <v>-0.0001370688859825427</v>
       </c>
       <c r="G11">
-        <v>6.576367788411605e-07</v>
+        <v>8.896459460706954e-07</v>
       </c>
       <c r="H11">
-        <v>0.03291380362922064</v>
+        <v>0.03486014855079832</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.0005405862875583162</v>
+        <v>-0.0002570147998302479</v>
       </c>
       <c r="C12">
-        <v>-0.00064565526028441</v>
+        <v>-0.0009621655663554073</v>
       </c>
       <c r="D12">
-        <v>-7.223847249063084e-08</v>
+        <v>4.98478024775616e-06</v>
       </c>
       <c r="E12">
-        <v>-5.592166885784108e-05</v>
+        <v>-0.0001473001542679798</v>
       </c>
       <c r="F12">
-        <v>0.0001590656479756568</v>
+        <v>-0.0003137470272471537</v>
       </c>
       <c r="G12">
-        <v>7.899907802336965e-07</v>
+        <v>5.086647567185672e-07</v>
       </c>
       <c r="H12">
-        <v>0.03160580485457352</v>
+        <v>0.03701992753310977</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.0007505547821626346</v>
+        <v>-0.0008077418558663572</v>
       </c>
       <c r="C13">
-        <v>-0.0005105412570456093</v>
+        <v>-0.0006778856851094695</v>
       </c>
       <c r="D13">
-        <v>-1.275551832810976e-05</v>
+        <v>-1.388497726910556e-06</v>
       </c>
       <c r="E13">
-        <v>0.0002406566180359442</v>
+        <v>0.0001863958204159667</v>
       </c>
       <c r="F13">
-        <v>-0.0001822180119345984</v>
+        <v>0.0001112963302924202</v>
       </c>
       <c r="G13">
-        <v>-5.724317655154633e-08</v>
+        <v>5.559491400947923e-07</v>
       </c>
       <c r="H13">
-        <v>0.03779142293665963</v>
+        <v>0.03305664721732271</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.707734642954423e-05</v>
+        <v>-0.0004335933815430614</v>
       </c>
       <c r="C14">
-        <v>0.0003338380484397279</v>
+        <v>0.0009374688205885683</v>
       </c>
       <c r="D14">
-        <v>1.541032970743679e-06</v>
+        <v>-1.86041990492011e-06</v>
       </c>
       <c r="E14">
-        <v>0.001075568408810405</v>
+        <v>-0.0006496653612507244</v>
       </c>
       <c r="F14">
-        <v>-6.228648813726438e-05</v>
+        <v>-9.501530855552244e-05</v>
       </c>
       <c r="G14">
-        <v>-5.080223459633819e-07</v>
+        <v>8.542141697616066e-07</v>
       </c>
       <c r="H14">
-        <v>0.03426661151767597</v>
+        <v>0.03473757477421231</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.0005289429050500654</v>
+        <v>-0.001039234058524276</v>
       </c>
       <c r="C15">
-        <v>-0.0007186352801387347</v>
+        <v>0.0003444684863354652</v>
       </c>
       <c r="D15">
-        <v>4.554341623233328e-07</v>
+        <v>-2.738373838156906e-07</v>
       </c>
       <c r="E15">
-        <v>-0.0003000219818876798</v>
+        <v>-0.0001865452680901852</v>
       </c>
       <c r="F15">
-        <v>-0.0001132326214387985</v>
+        <v>-0.0001455354098194176</v>
       </c>
       <c r="G15">
-        <v>-1.879929249597551e-07</v>
+        <v>1.284078477598224e-06</v>
       </c>
       <c r="H15">
-        <v>0.03556295371818986</v>
+        <v>0.03519788690856133</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0005481438983315516</v>
+        <v>-0.0004275062925055465</v>
       </c>
       <c r="C16">
-        <v>-0.0001913423983530445</v>
+        <v>-0.0004959612610469207</v>
       </c>
       <c r="D16">
-        <v>4.087971803069e-06</v>
+        <v>-1.790700371664531e-07</v>
       </c>
       <c r="E16">
-        <v>-0.0005264437964973105</v>
+        <v>-0.0004791964992821307</v>
       </c>
       <c r="F16">
-        <v>0.0001163712487115058</v>
+        <v>-0.0001210495900303669</v>
       </c>
       <c r="G16">
-        <v>7.442978336708267e-07</v>
+        <v>3.646368817836102e-07</v>
       </c>
       <c r="H16">
-        <v>0.03177139123948239</v>
+        <v>0.03526249086498769</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.0005719561612847921</v>
+        <v>-0.0006486663907961064</v>
       </c>
       <c r="C17">
-        <v>0.0001798522554676582</v>
+        <v>0.0002861864662361003</v>
       </c>
       <c r="D17">
-        <v>3.691732825157678e-06</v>
+        <v>2.007360910926725e-06</v>
       </c>
       <c r="E17">
-        <v>-9.136935713140171e-05</v>
+        <v>1.534260571142004e-06</v>
       </c>
       <c r="F17">
-        <v>-6.705038730086844e-05</v>
+        <v>-0.0001458236412355643</v>
       </c>
       <c r="G17">
-        <v>8.375363497649432e-07</v>
+        <v>8.957528022837811e-07</v>
       </c>
       <c r="H17">
-        <v>0.03411804198452675</v>
+        <v>0.03511573070726302</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.001196072362831706</v>
+        <v>-0.0004744328482209643</v>
       </c>
       <c r="C18">
-        <v>0.0006585119112875273</v>
+        <v>0.0005714419497371284</v>
       </c>
       <c r="D18">
-        <v>-9.452547178193082e-06</v>
+        <v>2.087196814976094e-06</v>
       </c>
       <c r="E18">
-        <v>-0.0003292833753656167</v>
+        <v>0.0002801897427276469</v>
       </c>
       <c r="F18">
-        <v>-2.645668422682326e-05</v>
+        <v>0.0001611539431730344</v>
       </c>
       <c r="G18">
-        <v>1.179036578017121e-06</v>
+        <v>3.943473112343708e-07</v>
       </c>
       <c r="H18">
-        <v>0.03499096620629955</v>
+        <v>0.0309957868658418</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.0002907414117611761</v>
+        <v>-0.0008889204078885828</v>
       </c>
       <c r="C19">
-        <v>-1.677606229933835e-05</v>
+        <v>0.0006374319974767324</v>
       </c>
       <c r="D19">
-        <v>-8.228040476884505e-06</v>
+        <v>-4.575178960166054e-06</v>
       </c>
       <c r="E19">
-        <v>-0.0003136920404252126</v>
+        <v>-0.0004352773417242509</v>
       </c>
       <c r="F19">
-        <v>-7.858582874469596e-05</v>
+        <v>-1.228238411935407e-05</v>
       </c>
       <c r="G19">
-        <v>4.361475817598191e-07</v>
+        <v>7.640094541952657e-07</v>
       </c>
       <c r="H19">
-        <v>0.03551296762312748</v>
+        <v>0.03425662382785177</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.0002361380290343174</v>
+        <v>-0.0007159349867924564</v>
       </c>
       <c r="C20">
-        <v>0.000221904962744746</v>
+        <v>0.001073810705069784</v>
       </c>
       <c r="D20">
-        <v>3.987803694035266e-06</v>
+        <v>-8.24235433834177e-06</v>
       </c>
       <c r="E20">
-        <v>0.0002284782769976512</v>
+        <v>-0.0002361072966670166</v>
       </c>
       <c r="F20">
-        <v>-0.0002766780832429308</v>
+        <v>7.416038760842423e-05</v>
       </c>
       <c r="G20">
-        <v>-2.293253243334731e-07</v>
+        <v>6.899285546877437e-07</v>
       </c>
       <c r="H20">
-        <v>0.03692627745092338</v>
+        <v>0.03311576206640333</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.0001278324862874144</v>
+        <v>-0.0004345706716070387</v>
       </c>
       <c r="C21">
-        <v>-0.0007518938647128061</v>
+        <v>-0.0008032250768180304</v>
       </c>
       <c r="D21">
-        <v>2.274597409884604e-07</v>
+        <v>-8.69925483149839e-07</v>
       </c>
       <c r="E21">
-        <v>-0.0005799469382166758</v>
+        <v>6.491508953532579e-05</v>
       </c>
       <c r="F21">
-        <v>-0.0001828525502390873</v>
+        <v>7.516628135012022e-05</v>
       </c>
       <c r="G21">
-        <v>-5.049534030555297e-09</v>
+        <v>3.463216973655434e-07</v>
       </c>
       <c r="H21">
-        <v>0.03598265503893654</v>
+        <v>0.03284352524668808</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.001165664936617096</v>
+        <v>-0.00128231980039151</v>
       </c>
       <c r="C22">
-        <v>0.0007402630537196365</v>
+        <v>0.0002183240821574581</v>
       </c>
       <c r="D22">
-        <v>3.682641775529565e-06</v>
+        <v>-5.368966085400295e-06</v>
       </c>
       <c r="E22">
-        <v>-0.0004324210401787237</v>
+        <v>-0.000355712614590508</v>
       </c>
       <c r="F22">
-        <v>-9.631607717787449e-05</v>
+        <v>0.0002420868782264923</v>
       </c>
       <c r="G22">
-        <v>8.065347733768056e-07</v>
+        <v>6.63910885715463e-07</v>
       </c>
       <c r="H22">
-        <v>0.03489237978901406</v>
+        <v>0.03142728135798557</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.0008179745188709089</v>
+        <v>-0.0007592614099931729</v>
       </c>
       <c r="C23">
-        <v>-0.0003983755129686347</v>
+        <v>-5.506796058459451e-05</v>
       </c>
       <c r="D23">
-        <v>-7.260845852251354e-06</v>
+        <v>-4.477902670345892e-06</v>
       </c>
       <c r="E23">
-        <v>-0.0001280373469139361</v>
+        <v>0.000325404103381239</v>
       </c>
       <c r="F23">
-        <v>-0.0002342279642842449</v>
+        <v>-8.807278992450186e-05</v>
       </c>
       <c r="G23">
-        <v>-2.50179227153373e-08</v>
+        <v>5.233404066318548e-07</v>
       </c>
       <c r="H23">
-        <v>0.03768810178717359</v>
+        <v>0.0352893444452866</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0003501325422146776</v>
+        <v>-0.0008415556559555506</v>
       </c>
       <c r="C24">
-        <v>0.0004416305107683992</v>
+        <v>-0.0008252633539143238</v>
       </c>
       <c r="D24">
-        <v>-1.384298879428148e-06</v>
+        <v>-4.346973076730482e-06</v>
       </c>
       <c r="E24">
-        <v>0.0001422934078621554</v>
+        <v>-8.675892571459107e-05</v>
       </c>
       <c r="F24">
-        <v>-0.000207596666494433</v>
+        <v>-5.507257622663225e-05</v>
       </c>
       <c r="G24">
-        <v>-4.177962723094437e-07</v>
+        <v>1.300848198179324e-06</v>
       </c>
       <c r="H24">
-        <v>0.03631616155780801</v>
+        <v>0.03468488585442844</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.001050170481046555</v>
+        <v>-0.000441555455545777</v>
       </c>
       <c r="C25">
-        <v>0.001124931575926324</v>
+        <v>-0.0004321470095886986</v>
       </c>
       <c r="D25">
-        <v>-8.562647913728674e-06</v>
+        <v>-5.16320283727982e-06</v>
       </c>
       <c r="E25">
-        <v>-5.54542079142066e-05</v>
+        <v>0.0001412574445055458</v>
       </c>
       <c r="F25">
-        <v>-4.63434322193306e-05</v>
+        <v>-0.0001813280974580613</v>
       </c>
       <c r="G25">
-        <v>9.655283451767077e-07</v>
+        <v>1.409043247601039e-06</v>
       </c>
       <c r="H25">
-        <v>0.03508388234382917</v>
+        <v>0.03583916508471101</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.0008516878864205974</v>
+        <v>-0.001060170831959268</v>
       </c>
       <c r="C26">
-        <v>0.0004378399789074186</v>
+        <v>0.0009596253865502603</v>
       </c>
       <c r="D26">
-        <v>2.464471729315497e-06</v>
+        <v>-1.043333722658206e-05</v>
       </c>
       <c r="E26">
-        <v>0.0003144910030163615</v>
+        <v>-6.953400519930236e-06</v>
       </c>
       <c r="F26">
-        <v>8.639479073724169e-05</v>
+        <v>0.0003006189862262238</v>
       </c>
       <c r="G26">
-        <v>2.591308113665517e-07</v>
+        <v>-8.374761193143254e-07</v>
       </c>
       <c r="H26">
-        <v>0.03258827154368975</v>
+        <v>0.0319638597959088</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.0005476331306659807</v>
+        <v>-0.0004631078819946218</v>
       </c>
       <c r="C27">
-        <v>0.001109624717846278</v>
+        <v>-0.000134611485531503</v>
       </c>
       <c r="D27">
-        <v>-1.123453058920115e-05</v>
+        <v>1.650704560381073e-06</v>
       </c>
       <c r="E27">
-        <v>1.572379919587141e-06</v>
+        <v>-0.0006947180050083171</v>
       </c>
       <c r="F27">
-        <v>0.0002991761474596345</v>
+        <v>-0.0003225505477179824</v>
       </c>
       <c r="G27">
-        <v>1.527429491760072e-07</v>
+        <v>8.705926766160876e-07</v>
       </c>
       <c r="H27">
-        <v>0.03090616066400914</v>
+        <v>0.03744298743770144</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.0008216379160527767</v>
+        <v>-0.001063949575348672</v>
       </c>
       <c r="C28">
-        <v>-5.4157352459668e-05</v>
+        <v>-0.0001951341838213577</v>
       </c>
       <c r="D28">
-        <v>7.200275415410429e-07</v>
+        <v>-9.940787729674119e-06</v>
       </c>
       <c r="E28">
-        <v>-0.0001781773203446031</v>
+        <v>0.0001490250799520525</v>
       </c>
       <c r="F28">
-        <v>-0.0001529001729774859</v>
+        <v>0.0001748396810467439</v>
       </c>
       <c r="G28">
-        <v>7.733756102639786e-07</v>
+        <v>2.935634854039412e-07</v>
       </c>
       <c r="H28">
-        <v>0.03569917234103324</v>
+        <v>0.03298778250784186</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.0009193023720764706</v>
+        <v>-0.00066036300071989</v>
       </c>
       <c r="C29">
-        <v>-0.0004055284209261243</v>
+        <v>0.001092406490596524</v>
       </c>
       <c r="D29">
-        <v>-2.07869067949171e-06</v>
+        <v>-1.372177006786137e-05</v>
       </c>
       <c r="E29">
-        <v>-4.209800292830079e-05</v>
+        <v>-0.0006941103891927244</v>
       </c>
       <c r="F29">
-        <v>-0.0001369918563909656</v>
+        <v>9.639514537695769e-05</v>
       </c>
       <c r="G29">
-        <v>7.912302108792022e-07</v>
+        <v>-3.760615574611568e-07</v>
       </c>
       <c r="H29">
-        <v>0.03566895813218142</v>
+        <v>0.03466320138202576</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.0004050010029378139</v>
+        <v>-0.0009562152266173818</v>
       </c>
       <c r="C30">
-        <v>-0.0003405430258796511</v>
+        <v>0.001059935989324585</v>
       </c>
       <c r="D30">
-        <v>-5.319674880082194e-06</v>
+        <v>-8.852667163820523e-06</v>
       </c>
       <c r="E30">
-        <v>0.000669945248840613</v>
+        <v>-0.000141919493839425</v>
       </c>
       <c r="F30">
-        <v>5.484329837295097e-05</v>
+        <v>-0.0001668368058399098</v>
       </c>
       <c r="G30">
-        <v>-1.28913296165947e-07</v>
+        <v>7.811168629258763e-07</v>
       </c>
       <c r="H30">
-        <v>0.03360449584450009</v>
+        <v>0.03687293437173997</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.0007237025113641417</v>
+        <v>-0.000952313372505282</v>
       </c>
       <c r="C31">
-        <v>-0.0004267977752253306</v>
+        <v>1.438113760904671e-05</v>
       </c>
       <c r="D31">
-        <v>-2.164823720426178e-06</v>
+        <v>-2.331521464803128e-06</v>
       </c>
       <c r="E31">
-        <v>9.691791117178578e-05</v>
+        <v>-0.0007411236331657904</v>
       </c>
       <c r="F31">
-        <v>9.232164042939417e-05</v>
+        <v>-0.0001145130847430413</v>
       </c>
       <c r="G31">
-        <v>9.149730893822404e-07</v>
+        <v>6.328644704922498e-07</v>
       </c>
       <c r="H31">
-        <v>0.03243419834402136</v>
+        <v>0.03546345303136132</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0004405931575758078</v>
+        <v>-0.0005633061770478204</v>
       </c>
       <c r="C32">
-        <v>-0.0005867791395465827</v>
+        <v>-7.805575113606898e-05</v>
       </c>
       <c r="D32">
-        <v>1.726828014661683e-06</v>
+        <v>-1.619669486205183e-06</v>
       </c>
       <c r="E32">
-        <v>1.354927662271938e-05</v>
+        <v>-0.0006451845313855814</v>
       </c>
       <c r="F32">
-        <v>-0.0002635445389319025</v>
+        <v>-0.0002355953252618644</v>
       </c>
       <c r="G32">
-        <v>6.454843870721547e-08</v>
+        <v>6.021705338458557e-07</v>
       </c>
       <c r="H32">
-        <v>0.03658875937037695</v>
+        <v>0.03668557111153481</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.0005411692648006781</v>
+        <v>-0.0007367105725126395</v>
       </c>
       <c r="C33">
-        <v>0.0004539231333408626</v>
+        <v>0.00027438086763703</v>
       </c>
       <c r="D33">
-        <v>-2.074385006210677e-07</v>
+        <v>-3.464888657625967e-06</v>
       </c>
       <c r="E33">
-        <v>-2.349572129929298e-05</v>
+        <v>-0.0002520126213790622</v>
       </c>
       <c r="F33">
-        <v>-0.0001480792139603145</v>
+        <v>-0.0001093913420394431</v>
       </c>
       <c r="G33">
-        <v>1.034527442875985e-06</v>
+        <v>1.973750326040337e-07</v>
       </c>
       <c r="H33">
-        <v>0.03481198844723255</v>
+        <v>0.03578301946090786</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.000374714547541176</v>
+        <v>0.0005474891504191593</v>
       </c>
       <c r="C34">
-        <v>-0.0006645782319213572</v>
+        <v>-7.841319367935928e-05</v>
       </c>
       <c r="D34">
-        <v>-1.493608552529143e-06</v>
+        <v>1.204184506969681e-06</v>
       </c>
       <c r="E34">
-        <v>7.278826969981528e-06</v>
+        <v>-0.0007434553825687237</v>
       </c>
       <c r="F34">
-        <v>-0.0002098357553274027</v>
+        <v>-0.0001469236734618687</v>
       </c>
       <c r="G34">
-        <v>8.025330463839691e-07</v>
+        <v>4.450734754910333e-08</v>
       </c>
       <c r="H34">
-        <v>0.03589142365004602</v>
+        <v>0.03473118013654083</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.001675146294031402</v>
+        <v>-0.0005982065427525716</v>
       </c>
       <c r="C35">
-        <v>-0.0008466313509282281</v>
+        <v>-0.0009292646280953099</v>
       </c>
       <c r="D35">
-        <v>-4.838863642486236e-06</v>
+        <v>-3.393853653059309e-06</v>
       </c>
       <c r="E35">
-        <v>-0.000103582772652721</v>
+        <v>-0.0001985271895859723</v>
       </c>
       <c r="F35">
-        <v>0.0001216519864765001</v>
+        <v>-0.0001669939457390712</v>
       </c>
       <c r="G35">
-        <v>3.401284071972974e-07</v>
+        <v>3.973951447032427e-07</v>
       </c>
       <c r="H35">
-        <v>0.03371112721955095</v>
+        <v>0.03597571347725999</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.0007968668822829227</v>
+        <v>-0.0002473385780438135</v>
       </c>
       <c r="C36">
-        <v>-0.001703912370335672</v>
+        <v>0.0009556368239608201</v>
       </c>
       <c r="D36">
-        <v>-5.633364711567467e-06</v>
+        <v>-4.09446303080052e-06</v>
       </c>
       <c r="E36">
-        <v>-0.0007500006178644512</v>
+        <v>-9.929768064313726e-05</v>
       </c>
       <c r="F36">
-        <v>-0.0001524905452195619</v>
+        <v>-0.0003373911967304215</v>
       </c>
       <c r="G36">
-        <v>9.534491423417704e-07</v>
+        <v>6.968680015665824e-07</v>
       </c>
       <c r="H36">
-        <v>0.03651668060995458</v>
+        <v>0.03807682767899869</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.000617359964524515</v>
+        <v>0.0003887272930590919</v>
       </c>
       <c r="C37">
-        <v>-0.0002780639624686049</v>
+        <v>4.645391012659704e-05</v>
       </c>
       <c r="D37">
-        <v>-9.683118223854531e-06</v>
+        <v>-1.29317841124716e-06</v>
       </c>
       <c r="E37">
-        <v>0.0002657164678175027</v>
+        <v>0.0005225605243647756</v>
       </c>
       <c r="F37">
-        <v>3.657559296958788e-05</v>
+        <v>-0.0001893835245759019</v>
       </c>
       <c r="G37">
-        <v>4.030884103321234e-07</v>
+        <v>5.396374538349222e-07</v>
       </c>
       <c r="H37">
-        <v>0.03410560064095729</v>
+        <v>0.03547509797128076</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.0001162211198777272</v>
+        <v>-0.0005441746189944747</v>
       </c>
       <c r="C38">
-        <v>0.0006309165896527587</v>
+        <v>0.0002291257728715902</v>
       </c>
       <c r="D38">
-        <v>9.649366478204144e-07</v>
+        <v>-6.452215614999232e-06</v>
       </c>
       <c r="E38">
-        <v>0.0003060800632497217</v>
+        <v>0.0007383435646656118</v>
       </c>
       <c r="F38">
-        <v>-0.0002216652173842861</v>
+        <v>-0.0003133882676339431</v>
       </c>
       <c r="G38">
-        <v>-2.219706455792527e-09</v>
+        <v>1.660310619864962e-06</v>
       </c>
       <c r="H38">
-        <v>0.03669582013898191</v>
+        <v>0.03681636009796022</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.0003783104330238041</v>
+        <v>-0.0003206116737964342</v>
       </c>
       <c r="C39">
-        <v>0.000558561276686177</v>
+        <v>-0.00126077390883536</v>
       </c>
       <c r="D39">
-        <v>4.240803349333563e-06</v>
+        <v>1.193265548206773e-06</v>
       </c>
       <c r="E39">
-        <v>0.0004981450738719556</v>
+        <v>-0.0001965253232731369</v>
       </c>
       <c r="F39">
-        <v>8.103848025087235e-05</v>
+        <v>-0.0001465946882069899</v>
       </c>
       <c r="G39">
-        <v>5.648264691132177e-07</v>
+        <v>-3.034840026626037e-07</v>
       </c>
       <c r="H39">
-        <v>0.0321691343152299</v>
+        <v>0.03591530433826092</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.0005372689862880634</v>
+        <v>-0.0005587859567151368</v>
       </c>
       <c r="C40">
-        <v>-0.001051209339216379</v>
+        <v>7.7330988060743e-05</v>
       </c>
       <c r="D40">
-        <v>3.421898745093584e-06</v>
+        <v>-1.405489746615279e-06</v>
       </c>
       <c r="E40">
-        <v>0.0003284451003608031</v>
+        <v>0.000345234084520904</v>
       </c>
       <c r="F40">
-        <v>-0.0003358936405507152</v>
+        <v>0.0002713446601034007</v>
       </c>
       <c r="G40">
-        <v>9.957094354500592e-07</v>
+        <v>-1.082339929473608e-07</v>
       </c>
       <c r="H40">
-        <v>0.03731207451409312</v>
+        <v>0.03036014512743176</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.0004592631923661921</v>
+        <v>-0.001128933856292524</v>
       </c>
       <c r="C41">
-        <v>0.0001330183788533145</v>
+        <v>-3.577183900876544e-05</v>
       </c>
       <c r="D41">
-        <v>-1.969515310057663e-06</v>
+        <v>-1.141564099130973e-05</v>
       </c>
       <c r="E41">
-        <v>0.000132978513006296</v>
+        <v>0.0003624171976553854</v>
       </c>
       <c r="F41">
-        <v>-0.0001280205124597202</v>
+        <v>8.739646363710939e-05</v>
       </c>
       <c r="G41">
-        <v>3.356690130452008e-07</v>
+        <v>-3.688890436160904e-07</v>
       </c>
       <c r="H41">
-        <v>0.03554716314424366</v>
+        <v>0.03461149977659009</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.0001540441754416711</v>
+        <v>-0.001134752214934082</v>
       </c>
       <c r="C42">
-        <v>-0.0006152986227897858</v>
+        <v>0.0007194966997792038</v>
       </c>
       <c r="D42">
-        <v>-3.252393494055252e-06</v>
+        <v>-8.231221641662644e-06</v>
       </c>
       <c r="E42">
-        <v>2.335950313379909e-05</v>
+        <v>-0.0001017984087255466</v>
       </c>
       <c r="F42">
-        <v>-0.0004170445214191474</v>
+        <v>0.000172652575340203</v>
       </c>
       <c r="G42">
-        <v>4.311172707563955e-08</v>
+        <v>-7.911452705756826e-08</v>
       </c>
       <c r="H42">
-        <v>0.03957916802755232</v>
+        <v>0.03296094889136648</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.0005169675604455538</v>
+        <v>-0.001169341176589125</v>
       </c>
       <c r="C43">
-        <v>-0.001528763907438528</v>
+        <v>0.000475579842505396</v>
       </c>
       <c r="D43">
-        <v>-4.439733910761455e-06</v>
+        <v>-3.677509915824786e-06</v>
       </c>
       <c r="E43">
-        <v>-0.0003574080908876967</v>
+        <v>-0.000757739976342816</v>
       </c>
       <c r="F43">
-        <v>-0.0001416704266724103</v>
+        <v>4.575026054666243e-05</v>
       </c>
       <c r="G43">
-        <v>1.020080865449566e-06</v>
+        <v>8.35573951043159e-07</v>
       </c>
       <c r="H43">
-        <v>0.03575333160955103</v>
+        <v>0.03381146111036223</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.0008176505167800949</v>
+        <v>-0.001306768679362843</v>
       </c>
       <c r="C44">
-        <v>0.0008327020238425118</v>
+        <v>0.0007420328870700937</v>
       </c>
       <c r="D44">
-        <v>-7.35372643778944e-06</v>
+        <v>-2.251289296949041e-06</v>
       </c>
       <c r="E44">
-        <v>-2.180352611379222e-05</v>
+        <v>-0.0003506051566717003</v>
       </c>
       <c r="F44">
-        <v>5.380798396434182e-05</v>
+        <v>0.0001280725567615534</v>
       </c>
       <c r="G44">
-        <v>6.999110754831968e-07</v>
+        <v>6.491715443427955e-07</v>
       </c>
       <c r="H44">
-        <v>0.03384287868460186</v>
+        <v>0.03268073399095023</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0003331041314342748</v>
+        <v>0.0004327440394337385</v>
       </c>
       <c r="C45">
-        <v>-0.0009613787902497406</v>
+        <v>-0.0005494143321300298</v>
       </c>
       <c r="D45">
-        <v>-2.316256921573313e-06</v>
+        <v>-2.349682033355416e-06</v>
       </c>
       <c r="E45">
-        <v>-0.000364176281988416</v>
+        <v>-0.0008290357133336722</v>
       </c>
       <c r="F45">
-        <v>-0.0004166089800330608</v>
+        <v>-0.0001615729901421208</v>
       </c>
       <c r="G45">
-        <v>5.314428750745252e-07</v>
+        <v>6.373211159398126e-07</v>
       </c>
       <c r="H45">
-        <v>0.03871259176455833</v>
+        <v>0.03548330443641828</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.0007653413544125741</v>
+        <v>-0.0008094377909867848</v>
       </c>
       <c r="C46">
-        <v>-0.001195376781686604</v>
+        <v>-0.0001926274704587589</v>
       </c>
       <c r="D46">
-        <v>-2.379052647737254e-06</v>
+        <v>-4.95546251522142e-06</v>
       </c>
       <c r="E46">
-        <v>0.0001266244318757874</v>
+        <v>5.538910976106426e-06</v>
       </c>
       <c r="F46">
-        <v>0.0002587119157662156</v>
+        <v>1.707449885258094e-05</v>
       </c>
       <c r="G46">
-        <v>-4.772623599047616e-07</v>
+        <v>5.036731851472257e-07</v>
       </c>
       <c r="H46">
-        <v>0.0313238490104813</v>
+        <v>0.03433336848327199</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.0008165506781351731</v>
+        <v>-0.0002740389301284043</v>
       </c>
       <c r="C47">
-        <v>-0.000555890371040828</v>
+        <v>-1.077055209515324e-05</v>
       </c>
       <c r="D47">
-        <v>-1.372315841718093e-05</v>
+        <v>2.981669914282749e-06</v>
       </c>
       <c r="E47">
-        <v>0.0003242389637470693</v>
+        <v>-0.0001454721115424946</v>
       </c>
       <c r="F47">
-        <v>5.458404731189658e-05</v>
+        <v>-0.0004444596173409118</v>
       </c>
       <c r="G47">
-        <v>6.00843467634473e-07</v>
+        <v>7.256278321885841e-07</v>
       </c>
       <c r="H47">
-        <v>0.03415277844423836</v>
+        <v>0.03878648983751036</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.0006911438771573597</v>
+        <v>9.735845509902929e-05</v>
       </c>
       <c r="C48">
-        <v>0.0008186432961370027</v>
+        <v>0.0003520683454429036</v>
       </c>
       <c r="D48">
-        <v>-3.150127647444309e-06</v>
+        <v>-3.529689767966743e-06</v>
       </c>
       <c r="E48">
-        <v>8.404173110875338e-05</v>
+        <v>-0.0007172776542535425</v>
       </c>
       <c r="F48">
-        <v>-1.066004536157995e-05</v>
+        <v>-6.856824084124714e-05</v>
       </c>
       <c r="G48">
-        <v>2.885400932578753e-07</v>
+        <v>4.539703705601997e-08</v>
       </c>
       <c r="H48">
-        <v>0.03413172486837846</v>
+        <v>0.03474071451764674</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.0009763058259547796</v>
+        <v>-0.0006837294892915726</v>
       </c>
       <c r="C49">
-        <v>-5.020637926015574e-05</v>
+        <v>4.424148326958601e-05</v>
       </c>
       <c r="D49">
-        <v>-5.36914860478785e-06</v>
+        <v>3.483561530834535e-06</v>
       </c>
       <c r="E49">
-        <v>-0.0003410459357583405</v>
+        <v>2.043726716715114e-05</v>
       </c>
       <c r="F49">
-        <v>-0.000180955520966576</v>
+        <v>-0.0001885351818188671</v>
       </c>
       <c r="G49">
-        <v>3.954620721480439e-07</v>
+        <v>1.208156132573696e-06</v>
       </c>
       <c r="H49">
-        <v>0.03671131895750055</v>
+        <v>0.03546812946722702</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.001224747747292553</v>
+        <v>-0.0005554571592933581</v>
       </c>
       <c r="C50">
-        <v>-0.001000116290468607</v>
+        <v>-0.0007941778667631837</v>
       </c>
       <c r="D50">
-        <v>5.977234208308598e-07</v>
+        <v>-9.707489635521827e-06</v>
       </c>
       <c r="E50">
-        <v>-3.393311063034504e-05</v>
+        <v>-4.816150089050064e-05</v>
       </c>
       <c r="F50">
-        <v>-0.0001476097827668267</v>
+        <v>0.0001948945737139353</v>
       </c>
       <c r="G50">
-        <v>6.649760359360781e-07</v>
+        <v>4.532670104406591e-07</v>
       </c>
       <c r="H50">
-        <v>0.03575624442981502</v>
+        <v>0.03247213735527516</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.0003537063444817904</v>
+        <v>-0.0002049667062562041</v>
       </c>
       <c r="C51">
-        <v>-0.0003809142690816817</v>
+        <v>0.0006636970900278088</v>
       </c>
       <c r="D51">
-        <v>1.839885813320843e-06</v>
+        <v>-3.957338746276546e-06</v>
       </c>
       <c r="E51">
-        <v>3.382965044389924e-05</v>
+        <v>-0.0007903523141484965</v>
       </c>
       <c r="F51">
-        <v>-0.0002642072481653826</v>
+        <v>0.0001086728162419784</v>
       </c>
       <c r="G51">
-        <v>8.266196690518794e-07</v>
+        <v>2.200645228138785e-07</v>
       </c>
       <c r="H51">
-        <v>0.03657003720092971</v>
+        <v>0.03294548881167648</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.001538757899918989</v>
+        <v>-0.000772109852114451</v>
       </c>
       <c r="C52">
-        <v>0.0005602351462450318</v>
+        <v>-0.0008956924647916202</v>
       </c>
       <c r="D52">
-        <v>-1.172056579855196e-05</v>
+        <v>1.761933546187763e-06</v>
       </c>
       <c r="E52">
-        <v>0.0002347539291209615</v>
+        <v>0.0001024563116518058</v>
       </c>
       <c r="F52">
-        <v>0.0001012860095501049</v>
+        <v>4.418364417589968e-05</v>
       </c>
       <c r="G52">
-        <v>2.409042716359553e-07</v>
+        <v>2.374217440179246e-07</v>
       </c>
       <c r="H52">
-        <v>0.03416676715534327</v>
+        <v>0.03336830632605324</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.0003160185679993641</v>
+        <v>-0.0007960352847323294</v>
       </c>
       <c r="C53">
-        <v>0.0003637404520077346</v>
+        <v>-9.44837158370084e-05</v>
       </c>
       <c r="D53">
-        <v>4.466395150220272e-06</v>
+        <v>-7.460688218754126e-06</v>
       </c>
       <c r="E53">
-        <v>-0.0001055593180460182</v>
+        <v>0.0001819327537538468</v>
       </c>
       <c r="F53">
-        <v>-0.0001732490427972317</v>
+        <v>-0.0001210475998057253</v>
       </c>
       <c r="G53">
-        <v>4.128484781929613e-08</v>
+        <v>9.723329767664019e-07</v>
       </c>
       <c r="H53">
-        <v>0.03554924089454065</v>
+        <v>0.0356023377202967</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.0003258808510221661</v>
+        <v>-0.0006937089976764344</v>
       </c>
       <c r="C54">
-        <v>-0.0005461689682105537</v>
+        <v>-0.0001347332367139244</v>
       </c>
       <c r="D54">
-        <v>-6.656864466037265e-06</v>
+        <v>-2.158147882094409e-06</v>
       </c>
       <c r="E54">
-        <v>-0.0001889646728136171</v>
+        <v>8.388295915444377e-05</v>
       </c>
       <c r="F54">
-        <v>-0.0001594081683381794</v>
+        <v>-3.522849478886081e-05</v>
       </c>
       <c r="G54">
-        <v>1.055608537982074e-06</v>
+        <v>1.072714219120702e-06</v>
       </c>
       <c r="H54">
-        <v>0.03575165517507176</v>
+        <v>0.03423533667045599</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.0003565784626806041</v>
+        <v>-0.0005884796939734909</v>
       </c>
       <c r="C55">
-        <v>0.0005884161556393372</v>
+        <v>4.996253720829648e-05</v>
       </c>
       <c r="D55">
-        <v>2.193480397744349e-06</v>
+        <v>2.094642357162148e-06</v>
       </c>
       <c r="E55">
-        <v>5.578304061480341e-05</v>
+        <v>-0.0004883584267077086</v>
       </c>
       <c r="F55">
-        <v>0.0001308272079136958</v>
+        <v>-5.219954348441324e-05</v>
       </c>
       <c r="G55">
-        <v>6.312274165965119e-07</v>
+        <v>3.941011631071177e-07</v>
       </c>
       <c r="H55">
-        <v>0.03117600191836095</v>
+        <v>0.03442737975956332</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.0005125082139047043</v>
+        <v>-0.0005413870910395985</v>
       </c>
       <c r="C56">
-        <v>-0.0003424009813186251</v>
+        <v>-0.000426019497977772</v>
       </c>
       <c r="D56">
-        <v>-4.843741136505443e-06</v>
+        <v>-8.62595777494689e-06</v>
       </c>
       <c r="E56">
-        <v>3.700074447516438e-05</v>
+        <v>-0.0004377323825643029</v>
       </c>
       <c r="F56">
-        <v>-4.654804725649314e-05</v>
+        <v>-9.6148571405984e-05</v>
       </c>
       <c r="G56">
-        <v>7.402456738519946e-07</v>
+        <v>2.18027888095961e-08</v>
       </c>
       <c r="H56">
-        <v>0.03462741520599276</v>
+        <v>0.03625794747330359</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.0005324236817508127</v>
+        <v>-0.0002906679052963818</v>
       </c>
       <c r="C57">
-        <v>-4.05061826877376e-05</v>
+        <v>0.0001632960637556148</v>
       </c>
       <c r="D57">
-        <v>-1.404467051563876e-05</v>
+        <v>-1.46167249756671e-06</v>
       </c>
       <c r="E57">
-        <v>-0.0004363438633866595</v>
+        <v>-0.0003263171443662789</v>
       </c>
       <c r="F57">
-        <v>0.0002346751510327826</v>
+        <v>-6.756349696596575e-05</v>
       </c>
       <c r="G57">
-        <v>4.834019155576269e-07</v>
+        <v>-1.225079094493055e-07</v>
       </c>
       <c r="H57">
-        <v>0.03234376785261272</v>
+        <v>0.03487781194147328</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.059258160817906e-05</v>
+        <v>-0.0003684305732536033</v>
       </c>
       <c r="C58">
-        <v>0.001054510529128304</v>
+        <v>-0.0001498225976773787</v>
       </c>
       <c r="D58">
-        <v>-6.06801679208838e-06</v>
+        <v>8.307461769600473e-06</v>
       </c>
       <c r="E58">
-        <v>0.0002148964981766935</v>
+        <v>0.0005213481898960863</v>
       </c>
       <c r="F58">
-        <v>0.0001185150632992442</v>
+        <v>-0.0001266158035920189</v>
       </c>
       <c r="G58">
-        <v>-5.453372468881584e-07</v>
+        <v>6.388648021375555e-08</v>
       </c>
       <c r="H58">
-        <v>0.03300712413790185</v>
+        <v>0.03453397417210083</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.001444076356348422</v>
+        <v>-0.00175896384440047</v>
       </c>
       <c r="C59">
-        <v>0.0002503976219752107</v>
+        <v>0.0003378601166666073</v>
       </c>
       <c r="D59">
-        <v>-4.026981463638055e-06</v>
+        <v>-7.216605693623788e-06</v>
       </c>
       <c r="E59">
-        <v>-0.0003568141759105158</v>
+        <v>-0.0004410350648458503</v>
       </c>
       <c r="F59">
-        <v>2.187108301196332e-05</v>
+        <v>-3.127321997698157e-06</v>
       </c>
       <c r="G59">
-        <v>1.481578852762471e-06</v>
+        <v>1.288658796374694e-06</v>
       </c>
       <c r="H59">
-        <v>0.0337786131603099</v>
+        <v>0.03456010876794155</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.001227635228540295</v>
+        <v>-0.0003949994188278847</v>
       </c>
       <c r="C60">
-        <v>-0.000289540387106803</v>
+        <v>1.193069110329509e-05</v>
       </c>
       <c r="D60">
-        <v>3.062818627322773e-07</v>
+        <v>3.879330190335832e-06</v>
       </c>
       <c r="E60">
-        <v>-0.0004334412317481273</v>
+        <v>0.0004921544421746978</v>
       </c>
       <c r="F60">
-        <v>-0.0001489677632733505</v>
+        <v>-0.0001814435615224166</v>
       </c>
       <c r="G60">
-        <v>6.877778733247845e-07</v>
+        <v>7.544284087759386e-07</v>
       </c>
       <c r="H60">
-        <v>0.03579309432467424</v>
+        <v>0.03513305999008506</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.0004008447463690981</v>
+        <v>-0.001180905419631424</v>
       </c>
       <c r="C61">
-        <v>0.0005575450203633865</v>
+        <v>0.002100486456390903</v>
       </c>
       <c r="D61">
-        <v>-6.898553566552115e-06</v>
+        <v>-1.324410837688989e-05</v>
       </c>
       <c r="E61">
-        <v>-0.0004765937189418097</v>
+        <v>-0.0001713527329988244</v>
       </c>
       <c r="F61">
-        <v>-4.947273449528382e-05</v>
+        <v>0.0001649429278399951</v>
       </c>
       <c r="G61">
-        <v>5.228630546001319e-07</v>
+        <v>1.067828530452382e-06</v>
       </c>
       <c r="H61">
-        <v>0.03462633233886619</v>
+        <v>0.03256148025088303</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.001121168857356905</v>
+        <v>-0.0006680850537584527</v>
       </c>
       <c r="C62">
-        <v>-0.001170475094165319</v>
+        <v>-0.0004898734442463376</v>
       </c>
       <c r="D62">
-        <v>-4.459127663265495e-06</v>
+        <v>-2.952743409694807e-06</v>
       </c>
       <c r="E62">
-        <v>-0.0009220520767346113</v>
+        <v>0.0003677083559258422</v>
       </c>
       <c r="F62">
-        <v>-0.0001926300877144136</v>
+        <v>-1.199471697574519e-05</v>
       </c>
       <c r="G62">
-        <v>3.505346222175323e-07</v>
+        <v>-2.259440286039547e-07</v>
       </c>
       <c r="H62">
-        <v>0.03730167320468657</v>
+        <v>0.03418339750440637</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.0003497996294621127</v>
+        <v>-0.0006848309930888451</v>
       </c>
       <c r="C63">
-        <v>0.0006278929969285004</v>
+        <v>-0.0004670125813172736</v>
       </c>
       <c r="D63">
-        <v>-4.329171785720493e-06</v>
+        <v>-3.478642439188348e-06</v>
       </c>
       <c r="E63">
-        <v>-9.601695459112922e-05</v>
+        <v>0.0002491769161156732</v>
       </c>
       <c r="F63">
-        <v>0.0001263835136092528</v>
+        <v>-0.0001510156506521393</v>
       </c>
       <c r="G63">
-        <v>-1.745417948734951e-07</v>
+        <v>-1.870919120230738e-07</v>
       </c>
       <c r="H63">
-        <v>0.03292314844821297</v>
+        <v>0.03643751178349822</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.0004982384576398249</v>
+        <v>-0.001051786912110777</v>
       </c>
       <c r="C64">
-        <v>-0.001322606007104578</v>
+        <v>9.529213803737479e-05</v>
       </c>
       <c r="D64">
-        <v>-5.020405809671427e-06</v>
+        <v>-3.09053212335377e-07</v>
       </c>
       <c r="E64">
-        <v>-0.0006611831570983197</v>
+        <v>0.0002088085864018416</v>
       </c>
       <c r="F64">
-        <v>-0.0003661987889646114</v>
+        <v>-5.326420864021391e-05</v>
       </c>
       <c r="G64">
-        <v>5.446797790539493e-07</v>
+        <v>6.073927791736888e-07</v>
       </c>
       <c r="H64">
-        <v>0.03909829307765775</v>
+        <v>0.03434481824663911</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.0004215319550362035</v>
+        <v>-0.001355350937992262</v>
       </c>
       <c r="C65">
-        <v>0.0008230892895933827</v>
+        <v>-6.834269986101212e-05</v>
       </c>
       <c r="D65">
-        <v>-6.682155906971826e-06</v>
+        <v>-1.290808175124396e-05</v>
       </c>
       <c r="E65">
-        <v>0.0001225393240527825</v>
+        <v>-0.0004921892400663007</v>
       </c>
       <c r="F65">
-        <v>-2.208014893076004e-05</v>
+        <v>0.0001086855537062011</v>
       </c>
       <c r="G65">
-        <v>-1.814871125330486e-07</v>
+        <v>7.236482919101243e-08</v>
       </c>
       <c r="H65">
-        <v>0.03492567592933878</v>
+        <v>0.03413332107343473</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.000718156096883321</v>
+        <v>-0.00042882263837148</v>
       </c>
       <c r="C66">
-        <v>0.0001628021450155921</v>
+        <v>-0.0007475276372840473</v>
       </c>
       <c r="D66">
-        <v>-4.47719138638226e-06</v>
+        <v>2.857286437341267e-06</v>
       </c>
       <c r="E66">
-        <v>0.0001168324491774425</v>
+        <v>0.0002450331947467382</v>
       </c>
       <c r="F66">
-        <v>2.741520206520494e-05</v>
+        <v>-0.0001437437110788582</v>
       </c>
       <c r="G66">
-        <v>-4.827637970450775e-07</v>
+        <v>6.733228520863055e-07</v>
       </c>
       <c r="H66">
-        <v>0.03448979116108437</v>
+        <v>0.03496978658727561</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-4.587159344728335e-05</v>
+        <v>3.194965424668881e-05</v>
       </c>
       <c r="C67">
-        <v>0.0003920166750881692</v>
+        <v>0.000415317580073163</v>
       </c>
       <c r="D67">
-        <v>1.073565571973586e-06</v>
+        <v>2.451227262507294e-06</v>
       </c>
       <c r="E67">
-        <v>0.0001138590365411668</v>
+        <v>0.0001892307686113155</v>
       </c>
       <c r="F67">
-        <v>-0.0001323658266181142</v>
+        <v>-8.242163891794947e-05</v>
       </c>
       <c r="G67">
-        <v>1.453509507160384e-06</v>
+        <v>7.530031087924875e-07</v>
       </c>
       <c r="H67">
-        <v>0.03405516911469214</v>
+        <v>0.0336986800494847</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.0001456100453047508</v>
+        <v>-0.0002876497697401948</v>
       </c>
       <c r="C68">
-        <v>0.0002958559485444174</v>
+        <v>-0.0009531542729398538</v>
       </c>
       <c r="D68">
-        <v>-4.550405835542778e-06</v>
+        <v>-5.992056731609443e-06</v>
       </c>
       <c r="E68">
-        <v>-0.0001039836338616942</v>
+        <v>-0.000501181801238159</v>
       </c>
       <c r="F68">
-        <v>0.0002688465023272966</v>
+        <v>-1.8560402951424e-05</v>
       </c>
       <c r="G68">
-        <v>2.64991907684932e-07</v>
+        <v>2.955072057746965e-07</v>
       </c>
       <c r="H68">
-        <v>0.03065911066096059</v>
+        <v>0.0348513014587512</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.0007881383114752365</v>
+        <v>-0.0005399663946448266</v>
       </c>
       <c r="C69">
-        <v>-0.0002534819086559814</v>
+        <v>-5.210101963158665e-05</v>
       </c>
       <c r="D69">
-        <v>-4.05647574249686e-06</v>
+        <v>-8.177954852811968e-07</v>
       </c>
       <c r="E69">
-        <v>0.0002572079073711285</v>
+        <v>8.050758440270728e-05</v>
       </c>
       <c r="F69">
-        <v>0.0003119191084335193</v>
+        <v>-1.359179345213811e-05</v>
       </c>
       <c r="G69">
-        <v>2.592555147983955e-07</v>
+        <v>4.365751900500793e-08</v>
       </c>
       <c r="H69">
-        <v>0.03038593586344107</v>
+        <v>0.03426790199397943</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.0007174388966657802</v>
+        <v>-0.0008152598868519626</v>
       </c>
       <c r="C70">
-        <v>-0.0004572497281607715</v>
+        <v>1.509873362372021e-06</v>
       </c>
       <c r="D70">
-        <v>-7.127117160044314e-06</v>
+        <v>2.869733447165177e-08</v>
       </c>
       <c r="E70">
-        <v>0.0001432193963270371</v>
+        <v>-0.000689888259713306</v>
       </c>
       <c r="F70">
-        <v>2.294050593643239e-05</v>
+        <v>-0.0002966163861961739</v>
       </c>
       <c r="G70">
-        <v>4.902231016312202e-07</v>
+        <v>1.282408078698506e-06</v>
       </c>
       <c r="H70">
-        <v>0.03398431060679002</v>
+        <v>0.03716557940730165</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.001328009896404293</v>
+        <v>-0.0008750291214165724</v>
       </c>
       <c r="C71">
-        <v>0.0003822538011549733</v>
+        <v>0.0005689428409344024</v>
       </c>
       <c r="D71">
-        <v>-1.158644515666399e-05</v>
+        <v>-9.03632855774453e-06</v>
       </c>
       <c r="E71">
-        <v>-0.0003015145149540439</v>
+        <v>6.651592826870806e-05</v>
       </c>
       <c r="F71">
-        <v>-6.055901210920574e-05</v>
+        <v>-1.492483419626993e-06</v>
       </c>
       <c r="G71">
-        <v>4.28389382279173e-07</v>
+        <v>7.863788332298424e-07</v>
       </c>
       <c r="H71">
-        <v>0.03605038800405128</v>
+        <v>0.03447197858234046</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.0007899353290493618</v>
+        <v>-0.0008119826424066653</v>
       </c>
       <c r="C72">
-        <v>-0.0008839161794219644</v>
+        <v>-0.0001552482021633995</v>
       </c>
       <c r="D72">
-        <v>-4.148972753702626e-06</v>
+        <v>-1.137131909891972e-05</v>
       </c>
       <c r="E72">
-        <v>0.0003195288437719754</v>
+        <v>-0.0001413051165507322</v>
       </c>
       <c r="F72">
-        <v>9.405249175746202e-05</v>
+        <v>0.000197659190071373</v>
       </c>
       <c r="G72">
-        <v>2.576113333595966e-07</v>
+        <v>-2.128537280843022e-07</v>
       </c>
       <c r="H72">
-        <v>0.03315230848737084</v>
+        <v>0.03294469468892029</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-3.280409344778813e-05</v>
+        <v>-0.0002448129114847901</v>
       </c>
       <c r="C73">
-        <v>0.0001617659597616767</v>
+        <v>-1.754988320394352e-05</v>
       </c>
       <c r="D73">
-        <v>7.281860929973544e-06</v>
+        <v>1.091666055165196e-05</v>
       </c>
       <c r="E73">
-        <v>-9.856847445120429e-05</v>
+        <v>-0.0002952643874512585</v>
       </c>
       <c r="F73">
-        <v>-0.0002421533221180186</v>
+        <v>-0.0002594226336169995</v>
       </c>
       <c r="G73">
-        <v>2.970433628225904e-07</v>
+        <v>8.127089374771654e-07</v>
       </c>
       <c r="H73">
-        <v>0.03585553357213107</v>
+        <v>0.03527057864300513</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.001236734775207324</v>
+        <v>-0.0002066118110943017</v>
       </c>
       <c r="C74">
-        <v>0.0003193306639512004</v>
+        <v>0.0001319299061651907</v>
       </c>
       <c r="D74">
-        <v>-1.367219983207201e-05</v>
+        <v>-7.557615201013402e-06</v>
       </c>
       <c r="E74">
-        <v>-8.811931454171668e-06</v>
+        <v>-0.0002561513495247525</v>
       </c>
       <c r="F74">
-        <v>-4.489912523016526e-05</v>
+        <v>-0.0001123555599943399</v>
       </c>
       <c r="G74">
-        <v>9.385723680746295e-07</v>
+        <v>6.493441822468324e-08</v>
       </c>
       <c r="H74">
-        <v>0.03546689017882752</v>
+        <v>0.03580708045300776</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.0007355131562277071</v>
+        <v>-0.0006220308595107481</v>
       </c>
       <c r="C75">
-        <v>-0.0007838335409885281</v>
+        <v>-0.0001636962564097954</v>
       </c>
       <c r="D75">
-        <v>-2.517435634773712e-06</v>
+        <v>-8.537216520652115e-06</v>
       </c>
       <c r="E75">
-        <v>0.0007104565030510192</v>
+        <v>-0.0004094098517763746</v>
       </c>
       <c r="F75">
-        <v>-0.0002565878615417045</v>
+        <v>-4.905170790967271e-05</v>
       </c>
       <c r="G75">
-        <v>1.217381844774144e-06</v>
+        <v>1.770928351820783e-06</v>
       </c>
       <c r="H75">
-        <v>0.03669508615462728</v>
+        <v>0.03440822505332959</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.0009196205607642657</v>
+        <v>-0.001557028116967267</v>
       </c>
       <c r="C76">
-        <v>-0.0007144169175833937</v>
+        <v>0.0001462420371385667</v>
       </c>
       <c r="D76">
-        <v>-6.308311473017682e-06</v>
+        <v>-1.005132752421012e-05</v>
       </c>
       <c r="E76">
-        <v>0.0003686868481949171</v>
+        <v>8.476435003312507e-05</v>
       </c>
       <c r="F76">
-        <v>-3.582619931817653e-05</v>
+        <v>0.0001448910364679081</v>
       </c>
       <c r="G76">
-        <v>3.501269351829642e-07</v>
+        <v>1.307408743459851e-06</v>
       </c>
       <c r="H76">
-        <v>0.03492724453233086</v>
+        <v>0.03272042698136114</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.0005086642582331062</v>
+        <v>-0.0001019455221923119</v>
       </c>
       <c r="C77">
-        <v>-0.0008817556653387421</v>
+        <v>-0.0001908166613625412</v>
       </c>
       <c r="D77">
-        <v>-2.606886903149817e-06</v>
+        <v>4.448365956884993e-06</v>
       </c>
       <c r="E77">
-        <v>-1.232008807314916e-05</v>
+        <v>-0.0004993053369224676</v>
       </c>
       <c r="F77">
-        <v>-0.0001811208718235326</v>
+        <v>-3.166922537165668e-06</v>
       </c>
       <c r="G77">
-        <v>4.630881696051602e-07</v>
+        <v>7.208816227769492e-07</v>
       </c>
       <c r="H77">
-        <v>0.03638423046475601</v>
+        <v>0.0331133613169077</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.00125998610171724</v>
+        <v>-0.0003079566694927688</v>
       </c>
       <c r="C78">
-        <v>-0.0002734478109397094</v>
+        <v>0.000652507228325543</v>
       </c>
       <c r="D78">
-        <v>-5.077160993886713e-06</v>
+        <v>-4.470726819212549e-07</v>
       </c>
       <c r="E78">
-        <v>0.0001393291980639998</v>
+        <v>-0.0003639750256522571</v>
       </c>
       <c r="F78">
-        <v>-1.39975057675914e-05</v>
+        <v>-7.093859059503419e-05</v>
       </c>
       <c r="G78">
-        <v>8.198189821625446e-07</v>
+        <v>-2.054099616227554e-08</v>
       </c>
       <c r="H78">
-        <v>0.0343434595755503</v>
+        <v>0.03473259441111017</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-5.261765331646909e-05</v>
+        <v>-0.0008005794792977504</v>
       </c>
       <c r="C79">
-        <v>0.0007969492754181069</v>
+        <v>-0.0003160605074213234</v>
       </c>
       <c r="D79">
-        <v>-5.5710303063833e-06</v>
+        <v>-1.419664878163106e-06</v>
       </c>
       <c r="E79">
-        <v>0.0007215906097592303</v>
+        <v>-7.883151872187938e-05</v>
       </c>
       <c r="F79">
-        <v>-0.0001975490339185755</v>
+        <v>6.413278838955378e-05</v>
       </c>
       <c r="G79">
-        <v>-5.816908390339467e-07</v>
+        <v>-2.138833511109732e-07</v>
       </c>
       <c r="H79">
-        <v>0.03718487749494308</v>
+        <v>0.03362917907657566</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.0003286537348390134</v>
+        <v>-0.0009706763878622703</v>
       </c>
       <c r="C80">
-        <v>0.0001611810806539369</v>
+        <v>0.0007050459976579804</v>
       </c>
       <c r="D80">
-        <v>-2.84398229265703e-06</v>
+        <v>-1.042744121394379e-05</v>
       </c>
       <c r="E80">
-        <v>-0.0003834642859162178</v>
+        <v>6.24251400145881e-05</v>
       </c>
       <c r="F80">
-        <v>-0.000116066973976452</v>
+        <v>-0.0001451584603393734</v>
       </c>
       <c r="G80">
-        <v>1.124427671793073e-06</v>
+        <v>4.67825767096815e-08</v>
       </c>
       <c r="H80">
-        <v>0.03482675144681772</v>
+        <v>0.03710062727297543</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.0004850160182423313</v>
+        <v>-0.0006789666820818333</v>
       </c>
       <c r="C81">
-        <v>0.0008571219836257416</v>
+        <v>0.0001497743705743267</v>
       </c>
       <c r="D81">
-        <v>-7.39805114681189e-06</v>
+        <v>-3.760694484101188e-06</v>
       </c>
       <c r="E81">
-        <v>0.0004696111774931608</v>
+        <v>0.0001007908701209093</v>
       </c>
       <c r="F81">
-        <v>-1.305273004426847e-06</v>
+        <v>-5.181420335184043e-05</v>
       </c>
       <c r="G81">
-        <v>3.027468774703944e-07</v>
+        <v>6.986581987387948e-07</v>
       </c>
       <c r="H81">
-        <v>0.03438627136725465</v>
+        <v>0.03450186388065307</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.001032304539740777</v>
+        <v>-0.0002636860334239506</v>
       </c>
       <c r="C82">
-        <v>-0.0008497882689221222</v>
+        <v>-3.927049019204439e-05</v>
       </c>
       <c r="D82">
-        <v>-8.911474834656468e-06</v>
+        <v>5.806874919303923e-06</v>
       </c>
       <c r="E82">
-        <v>0.0004946761776049823</v>
+        <v>7.658048998923292e-05</v>
       </c>
       <c r="F82">
-        <v>5.640260534690487e-05</v>
+        <v>-0.0001992348511621491</v>
       </c>
       <c r="G82">
-        <v>9.660728674987911e-07</v>
+        <v>-5.833697549604684e-07</v>
       </c>
       <c r="H82">
-        <v>0.03366019418887924</v>
+        <v>0.03617742865311087</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.0004015443019042882</v>
+        <v>-0.0001361725688309198</v>
       </c>
       <c r="C83">
-        <v>-4.384540249112727e-05</v>
+        <v>0.0008199903583580956</v>
       </c>
       <c r="D83">
-        <v>2.51328185469622e-06</v>
+        <v>-3.514748667881827e-06</v>
       </c>
       <c r="E83">
-        <v>-0.0004377339608585828</v>
+        <v>6.910136160169153e-05</v>
       </c>
       <c r="F83">
-        <v>-0.0002667874537098159</v>
+        <v>0.0001014279044309617</v>
       </c>
       <c r="G83">
-        <v>5.286167377158821e-07</v>
+        <v>2.037441979195029e-07</v>
       </c>
       <c r="H83">
-        <v>0.0369169101976498</v>
+        <v>0.03239279780683892</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.0004195256689958808</v>
+        <v>-0.0004197315428584652</v>
       </c>
       <c r="C84">
-        <v>-0.0002709619229813618</v>
+        <v>0.0007734696808770706</v>
       </c>
       <c r="D84">
-        <v>7.014521198097165e-06</v>
+        <v>-7.72229195692816e-06</v>
       </c>
       <c r="E84">
-        <v>0.0003263240455313732</v>
+        <v>5.267895524636163e-05</v>
       </c>
       <c r="F84">
-        <v>-5.188003350848009e-05</v>
+        <v>0.0001361888207656369</v>
       </c>
       <c r="G84">
-        <v>5.873838654762234e-07</v>
+        <v>6.405673538148071e-07</v>
       </c>
       <c r="H84">
-        <v>0.03383315613367277</v>
+        <v>0.03242143804121854</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.0004020309376212027</v>
+        <v>-0.001307232432396081</v>
       </c>
       <c r="C85">
-        <v>0.001048606885902922</v>
+        <v>-0.0005242780046307733</v>
       </c>
       <c r="D85">
-        <v>3.830320360683792e-06</v>
+        <v>-3.981819459734042e-06</v>
       </c>
       <c r="E85">
-        <v>-5.414334416909555e-05</v>
+        <v>-0.0004509132998695119</v>
       </c>
       <c r="F85">
-        <v>-0.0003159580304574876</v>
+        <v>0.0001586183514434292</v>
       </c>
       <c r="G85">
-        <v>1.731530397573479e-06</v>
+        <v>7.529928545200532e-07</v>
       </c>
       <c r="H85">
-        <v>0.03613503575542112</v>
+        <v>0.03258877029923632</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.0005115908393381438</v>
+        <v>-0.0006842105010854238</v>
       </c>
       <c r="C86">
-        <v>-0.001033947125837256</v>
+        <v>0.001168183167541917</v>
       </c>
       <c r="D86">
-        <v>1.037359600494647e-05</v>
+        <v>-4.460211059858778e-06</v>
       </c>
       <c r="E86">
-        <v>0.0003087185104520759</v>
+        <v>0.0001073031514075562</v>
       </c>
       <c r="F86">
-        <v>-0.0001147626564060204</v>
+        <v>-5.075756496936937e-05</v>
       </c>
       <c r="G86">
-        <v>9.898088833014319e-07</v>
+        <v>2.814441822963499e-07</v>
       </c>
       <c r="H86">
-        <v>0.03371656063298785</v>
+        <v>0.03469489512978412</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.001407015948529949</v>
+        <v>-0.001032150686476745</v>
       </c>
       <c r="C87">
-        <v>0.0002907478075018962</v>
+        <v>-0.0002752997335293194</v>
       </c>
       <c r="D87">
-        <v>-7.111904163297345e-06</v>
+        <v>-2.161506356376141e-07</v>
       </c>
       <c r="E87">
-        <v>0.0002703141106317059</v>
+        <v>3.861417661558952e-07</v>
       </c>
       <c r="F87">
-        <v>1.154163091813621e-05</v>
+        <v>-0.0003872568675336297</v>
       </c>
       <c r="G87">
-        <v>9.579752266547955e-07</v>
+        <v>1.102475647280193e-06</v>
       </c>
       <c r="H87">
-        <v>0.03439809347637122</v>
+        <v>0.0383514954619572</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.000139591883670998</v>
+        <v>0.0001287574393611301</v>
       </c>
       <c r="C88">
-        <v>-0.0005561482889577117</v>
+        <v>-0.0001933177462553862</v>
       </c>
       <c r="D88">
-        <v>-1.087753460948065e-06</v>
+        <v>-4.181499462187225e-06</v>
       </c>
       <c r="E88">
-        <v>8.709760613062958e-05</v>
+        <v>7.516593795327611e-05</v>
       </c>
       <c r="F88">
-        <v>-0.0001140248279350915</v>
+        <v>-9.02810728461319e-05</v>
       </c>
       <c r="G88">
-        <v>6.927104116104951e-07</v>
+        <v>1.405903411235194e-07</v>
       </c>
       <c r="H88">
-        <v>0.03482043195980803</v>
+        <v>0.03497744035937055</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.0005479601459201754</v>
+        <v>-0.000212349583180174</v>
       </c>
       <c r="C89">
-        <v>0.0009446152406254088</v>
+        <v>-0.0006533113805906052</v>
       </c>
       <c r="D89">
-        <v>2.008018167559623e-06</v>
+        <v>7.144038119434666e-07</v>
       </c>
       <c r="E89">
-        <v>-0.0004210443264459421</v>
+        <v>-0.0003355213980842167</v>
       </c>
       <c r="F89">
-        <v>-0.000110359675619816</v>
+        <v>-8.082612016304573e-06</v>
       </c>
       <c r="G89">
-        <v>7.925708113565275e-07</v>
+        <v>4.969405540060357e-07</v>
       </c>
       <c r="H89">
-        <v>0.03490765466110807</v>
+        <v>0.03372524365518602</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.0006694226807721624</v>
+        <v>0.0001766469471766938</v>
       </c>
       <c r="C90">
-        <v>-0.0005010116523485689</v>
+        <v>-0.0006344141018260994</v>
       </c>
       <c r="D90">
-        <v>-6.044077359553472e-06</v>
+        <v>1.454946560119151e-05</v>
       </c>
       <c r="E90">
-        <v>-0.0002059154630341259</v>
+        <v>0.0001009783382953135</v>
       </c>
       <c r="F90">
-        <v>-0.0002192899139463803</v>
+        <v>-0.0001375391725546384</v>
       </c>
       <c r="G90">
-        <v>9.070344333607931e-07</v>
+        <v>1.404504968347401e-07</v>
       </c>
       <c r="H90">
-        <v>0.03665920721480397</v>
+        <v>0.03373367199090811</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.0003964687466700098</v>
+        <v>-0.0008233096313879406</v>
       </c>
       <c r="C91">
-        <v>0.0001956732110767994</v>
+        <v>-0.0004091452472937164</v>
       </c>
       <c r="D91">
-        <v>7.639433615898207e-06</v>
+        <v>-1.165745249571375e-05</v>
       </c>
       <c r="E91">
-        <v>-0.000249828605413685</v>
+        <v>-0.0004648191901235263</v>
       </c>
       <c r="F91">
-        <v>-6.363003733259075e-05</v>
+        <v>0.0001017177431859934</v>
       </c>
       <c r="G91">
-        <v>1.096397707370552e-06</v>
+        <v>2.517906225169721e-07</v>
       </c>
       <c r="H91">
-        <v>0.03321196126341311</v>
+        <v>0.03396221214784876</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.0007663173287161883</v>
+        <v>-0.000442927107108625</v>
       </c>
       <c r="C92">
-        <v>-0.0009857442014216224</v>
+        <v>-0.0001025684445946718</v>
       </c>
       <c r="D92">
-        <v>3.645413066091245e-06</v>
+        <v>-5.551730620374866e-06</v>
       </c>
       <c r="E92">
-        <v>6.048718762750524e-05</v>
+        <v>0.0004617003896713497</v>
       </c>
       <c r="F92">
-        <v>-5.610624041436322e-05</v>
+        <v>9.289374878248364e-05</v>
       </c>
       <c r="G92">
-        <v>8.469881781088772e-07</v>
+        <v>1.795751146718548e-08</v>
       </c>
       <c r="H92">
-        <v>0.03396117666059913</v>
+        <v>0.0330863381921661</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.0009043324408322634</v>
+        <v>-0.000930890594388078</v>
       </c>
       <c r="C93">
-        <v>0.0004137406696904299</v>
+        <v>-0.0003752078045568834</v>
       </c>
       <c r="D93">
-        <v>-1.600819421074851e-06</v>
+        <v>1.091081444356217e-06</v>
       </c>
       <c r="E93">
-        <v>-8.074490165458498e-05</v>
+        <v>-0.0005277385272094391</v>
       </c>
       <c r="F93">
-        <v>1.63676761381705e-05</v>
+        <v>8.471582955535281e-05</v>
       </c>
       <c r="G93">
-        <v>2.385447154928919e-07</v>
+        <v>-8.217696670299855e-07</v>
       </c>
       <c r="H93">
-        <v>0.03371863233159794</v>
+        <v>0.0337996522425334</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.00025699904689002</v>
+        <v>3.545378371529011e-05</v>
       </c>
       <c r="C94">
-        <v>-4.62103509534142e-05</v>
+        <v>-0.0003843538382215441</v>
       </c>
       <c r="D94">
-        <v>5.129400377590758e-06</v>
+        <v>6.744817969270451e-06</v>
       </c>
       <c r="E94">
-        <v>-0.0005521995983797622</v>
+        <v>-0.0002153367847499837</v>
       </c>
       <c r="F94">
-        <v>-5.840465240862508e-05</v>
+        <v>-7.962572301298954e-05</v>
       </c>
       <c r="G94">
-        <v>5.272498954186054e-07</v>
+        <v>-8.343451586308556e-07</v>
       </c>
       <c r="H94">
-        <v>0.03358956105248702</v>
+        <v>0.03438354242376807</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.0004566715071719161</v>
+        <v>-1.211286239509749e-05</v>
       </c>
       <c r="C95">
-        <v>0.001200250068400695</v>
+        <v>-0.001161829074921129</v>
       </c>
       <c r="D95">
-        <v>-1.616296731290848e-06</v>
+        <v>9.128677549560002e-06</v>
       </c>
       <c r="E95">
-        <v>0.0002024498674574916</v>
+        <v>-0.0002118974000342617</v>
       </c>
       <c r="F95">
-        <v>-0.0002205395306668666</v>
+        <v>-0.0002078509584566645</v>
       </c>
       <c r="G95">
-        <v>3.694504929222025e-07</v>
+        <v>-1.279030735111889e-07</v>
       </c>
       <c r="H95">
-        <v>0.03676681181938751</v>
+        <v>0.03564502748194376</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.0003360211035520139</v>
+        <v>-0.0004337664684167897</v>
       </c>
       <c r="C96">
-        <v>0.0005801740365615874</v>
+        <v>0.0009499493121770991</v>
       </c>
       <c r="D96">
-        <v>-2.274334382925859e-06</v>
+        <v>-1.91180335927152e-06</v>
       </c>
       <c r="E96">
-        <v>0.0004110255659123853</v>
+        <v>-0.0003020518534198602</v>
       </c>
       <c r="F96">
-        <v>1.607060108065571e-05</v>
+        <v>-3.39195027962038e-05</v>
       </c>
       <c r="G96">
-        <v>2.949519652401108e-07</v>
+        <v>4.51568057004901e-07</v>
       </c>
       <c r="H96">
-        <v>0.03365351208847317</v>
+        <v>0.03430776660620194</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.0004157342996849601</v>
+        <v>-0.0007575162237896857</v>
       </c>
       <c r="C97">
-        <v>-0.0003253015604341755</v>
+        <v>-0.0008491333442943701</v>
       </c>
       <c r="D97">
-        <v>-6.62844260240476e-06</v>
+        <v>-3.947437959252423e-06</v>
       </c>
       <c r="E97">
-        <v>0.0001784028879957232</v>
+        <v>-0.0002037515512480249</v>
       </c>
       <c r="F97">
-        <v>0.0001162725554503288</v>
+        <v>-0.0003691314873665052</v>
       </c>
       <c r="G97">
-        <v>-4.02803961900175e-07</v>
+        <v>5.940350266658462e-07</v>
       </c>
       <c r="H97">
-        <v>0.03292632158324148</v>
+        <v>0.03907456698642256</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.0004931399113380546</v>
+        <v>-0.0008798043833864381</v>
       </c>
       <c r="C98">
-        <v>-0.0006354717782784431</v>
+        <v>0.0005101393919067389</v>
       </c>
       <c r="D98">
-        <v>4.502739944620521e-06</v>
+        <v>-3.010680651283001e-06</v>
       </c>
       <c r="E98">
-        <v>-0.0001751361122909953</v>
+        <v>-0.000400911644840133</v>
       </c>
       <c r="F98">
-        <v>-0.0003150301771609363</v>
+        <v>5.687731390518314e-05</v>
       </c>
       <c r="G98">
-        <v>3.235977421484754e-07</v>
+        <v>6.945301120049211e-08</v>
       </c>
       <c r="H98">
-        <v>0.03729137984388067</v>
+        <v>0.03345866315143046</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.0007395146532878619</v>
+        <v>-0.0008840618352449875</v>
       </c>
       <c r="C99">
-        <v>0.0001196355612207833</v>
+        <v>2.016952845535738e-05</v>
       </c>
       <c r="D99">
-        <v>-2.465851665447644e-06</v>
+        <v>-9.751808304030156e-06</v>
       </c>
       <c r="E99">
-        <v>0.0003667754804813315</v>
+        <v>-0.00013059349979333</v>
       </c>
       <c r="F99">
-        <v>4.336194614033243e-05</v>
+        <v>0.0001292264478480185</v>
       </c>
       <c r="G99">
-        <v>3.203452046206234e-07</v>
+        <v>1.736879504790232e-07</v>
       </c>
       <c r="H99">
-        <v>0.03338952361352504</v>
+        <v>0.03319408445624725</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.151755103132512e-05</v>
+        <v>7.2190037976498e-05</v>
       </c>
       <c r="C100">
-        <v>0.0002544241406842816</v>
+        <v>0.0001594174480029751</v>
       </c>
       <c r="D100">
-        <v>7.24996428544205e-06</v>
+        <v>5.901926408671874e-06</v>
       </c>
       <c r="E100">
-        <v>0.0003895638448043193</v>
+        <v>0.0001020427811056768</v>
       </c>
       <c r="F100">
-        <v>-2.732703612755955e-05</v>
+        <v>0.0001569557505461652</v>
       </c>
       <c r="G100">
-        <v>-3.397831226337315e-08</v>
+        <v>-6.9916292703306e-07</v>
       </c>
       <c r="H100">
-        <v>0.03314171110115308</v>
+        <v>0.0314082066114703</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.0001152713452937325</v>
+        <v>0.0001523428018683124</v>
       </c>
       <c r="C101">
-        <v>-0.001307814683995964</v>
+        <v>-0.0002072776684679391</v>
       </c>
       <c r="D101">
-        <v>8.837370927173556e-06</v>
+        <v>1.313249313301721e-05</v>
       </c>
       <c r="E101">
-        <v>-0.0004657537141326239</v>
+        <v>0.0006927302639081062</v>
       </c>
       <c r="F101">
-        <v>-0.0001913055029018898</v>
+        <v>-0.0004455031961744354</v>
       </c>
       <c r="G101">
-        <v>4.510601150239311e-07</v>
+        <v>5.737085599128249e-07</v>
       </c>
       <c r="H101">
-        <v>0.03500469162129465</v>
+        <v>0.03708561708801725</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0001162060774928505</v>
+        <v>-0.0006228952119005085</v>
       </c>
       <c r="C102">
-        <v>-1.028034203238472e-06</v>
+        <v>-0.0003136077361479952</v>
       </c>
       <c r="D102">
-        <v>-4.84082898624507e-07</v>
+        <v>-3.149181319733913e-06</v>
       </c>
       <c r="E102">
-        <v>0.0001631280060451316</v>
+        <v>-0.0001230191854291671</v>
       </c>
       <c r="F102">
-        <v>-0.0003583103376342134</v>
+        <v>-1.079101311526952e-05</v>
       </c>
       <c r="G102">
-        <v>1.16068624069565e-06</v>
+        <v>2.596869003659629e-07</v>
       </c>
       <c r="H102">
-        <v>0.03704106258735403</v>
+        <v>0.03428437077362881</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.000121592747462635</v>
+        <v>-0.0002744767714847117</v>
       </c>
       <c r="C103">
-        <v>-0.0008164348193018125</v>
+        <v>0.000504478129846329</v>
       </c>
       <c r="D103">
-        <v>-8.538356414624472e-07</v>
+        <v>9.876232272256891e-07</v>
       </c>
       <c r="E103">
-        <v>0.0003483888185249577</v>
+        <v>0.0003327224045582763</v>
       </c>
       <c r="F103">
-        <v>-4.753217549378501e-05</v>
+        <v>-4.291815153888531e-05</v>
       </c>
       <c r="G103">
-        <v>6.342933550672942e-07</v>
+        <v>-1.43095914882359e-08</v>
       </c>
       <c r="H103">
-        <v>0.0338330838892781</v>
+        <v>0.03420684025328458</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.0004064666076439845</v>
+        <v>-0.0007206124057956243</v>
       </c>
       <c r="C104">
-        <v>0.001175108673688983</v>
+        <v>0.0006551127837368895</v>
       </c>
       <c r="D104">
-        <v>-4.574997260125029e-06</v>
+        <v>4.908553874292211e-07</v>
       </c>
       <c r="E104">
-        <v>-0.0001456021178885686</v>
+        <v>-0.0008142629190193845</v>
       </c>
       <c r="F104">
-        <v>-0.0002492241124407163</v>
+        <v>7.090580480124828e-05</v>
       </c>
       <c r="G104">
-        <v>9.764480082623868e-07</v>
+        <v>-1.06185954059585e-08</v>
       </c>
       <c r="H104">
-        <v>0.03657140788845857</v>
+        <v>0.0335565154793234</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-8.933302877562471e-06</v>
+        <v>1.708326160984727e-05</v>
       </c>
       <c r="C105">
-        <v>-0.0002318017595713019</v>
+        <v>-0.0003935572419521293</v>
       </c>
       <c r="D105">
-        <v>-2.768856879780775e-06</v>
+        <v>1.482372106952519e-06</v>
       </c>
       <c r="E105">
-        <v>0.0002370036506908549</v>
+        <v>6.950170016982796e-05</v>
       </c>
       <c r="F105">
-        <v>-4.845098618879589e-05</v>
+        <v>-0.0001972343896438846</v>
       </c>
       <c r="G105">
-        <v>-7.385824359562777e-07</v>
+        <v>9.501453727330186e-07</v>
       </c>
       <c r="H105">
-        <v>0.03467372340786373</v>
+        <v>0.03537982184776833</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.000100954702897249</v>
+        <v>-0.0003255810555365698</v>
       </c>
       <c r="C106">
-        <v>-0.001400580988497267</v>
+        <v>-0.0009408271926056987</v>
       </c>
       <c r="D106">
-        <v>2.411386539070075e-06</v>
+        <v>8.208177391270074e-06</v>
       </c>
       <c r="E106">
-        <v>3.291004557983562e-05</v>
+        <v>0.0001124032379043322</v>
       </c>
       <c r="F106">
-        <v>-0.0002742918245912013</v>
+        <v>-0.0002760170344275302</v>
       </c>
       <c r="G106">
-        <v>3.979064007452475e-07</v>
+        <v>6.112261505560313e-07</v>
       </c>
       <c r="H106">
-        <v>0.03666559251612632</v>
+        <v>0.03609397490758851</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.001397010783714975</v>
+        <v>-0.001066828868381361</v>
       </c>
       <c r="C107">
-        <v>8.329915611919895e-05</v>
+        <v>0.0001039061630428807</v>
       </c>
       <c r="D107">
-        <v>2.730146514711917e-06</v>
+        <v>-5.671728003987108e-06</v>
       </c>
       <c r="E107">
-        <v>0.0002231898104897538</v>
+        <v>-0.0003435231989946871</v>
       </c>
       <c r="F107">
-        <v>-0.000211157511834736</v>
+        <v>0.0003143533591092065</v>
       </c>
       <c r="G107">
-        <v>3.861589636206055e-07</v>
+        <v>3.233489431212029e-07</v>
       </c>
       <c r="H107">
-        <v>0.03689133903385783</v>
+        <v>0.03102832321757083</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.0003763361674573298</v>
+        <v>0.0001226951360524362</v>
       </c>
       <c r="C108">
-        <v>4.544749573614625e-05</v>
+        <v>-6.184904205259122e-05</v>
       </c>
       <c r="D108">
-        <v>4.82124623109754e-06</v>
+        <v>1.234138193431211e-06</v>
       </c>
       <c r="E108">
-        <v>-0.0002729620318968132</v>
+        <v>0.000360390118003262</v>
       </c>
       <c r="F108">
-        <v>-0.0001765646279034423</v>
+        <v>-0.0002300063848924871</v>
       </c>
       <c r="G108">
-        <v>4.680813734385175e-07</v>
+        <v>6.289254635833395e-07</v>
       </c>
       <c r="H108">
-        <v>0.03535815859335986</v>
+        <v>0.0356957856660181</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.001345841328815952</v>
+        <v>-0.001237169028527506</v>
       </c>
       <c r="C109">
-        <v>0.0007319778884787387</v>
+        <v>0.0005344929895193331</v>
       </c>
       <c r="D109">
-        <v>-5.113462255551699e-06</v>
+        <v>-9.715737069902248e-06</v>
       </c>
       <c r="E109">
-        <v>-0.0001147480461733547</v>
+        <v>-9.889891035581161e-05</v>
       </c>
       <c r="F109">
-        <v>0.0002527389087637144</v>
+        <v>0.0001983773806482076</v>
       </c>
       <c r="G109">
-        <v>5.232152281553375e-07</v>
+        <v>7.068002603375306e-07</v>
       </c>
       <c r="H109">
-        <v>0.03130433133856279</v>
+        <v>0.03240430928794566</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.0007328537987281048</v>
+        <v>-0.0008004489122790332</v>
       </c>
       <c r="C110">
-        <v>9.615753999257445e-05</v>
+        <v>0.000399562623607511</v>
       </c>
       <c r="D110">
-        <v>1.636727657867782e-06</v>
+        <v>-1.374593277973134e-06</v>
       </c>
       <c r="E110">
-        <v>-0.0002366528564469068</v>
+        <v>0.0006376700724576093</v>
       </c>
       <c r="F110">
-        <v>-0.0001598672434132754</v>
+        <v>2.422851743701077e-05</v>
       </c>
       <c r="G110">
-        <v>1.184187176357863e-06</v>
+        <v>4.031374794190421e-07</v>
       </c>
       <c r="H110">
-        <v>0.03505982986854986</v>
+        <v>0.03352366198767858</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.0007698161961144311</v>
+        <v>-0.0003293296345669226</v>
       </c>
       <c r="C111">
-        <v>-0.0003430044496754241</v>
+        <v>-0.0008797759266938952</v>
       </c>
       <c r="D111">
-        <v>-1.610854219693581e-06</v>
+        <v>-4.523400107374426e-06</v>
       </c>
       <c r="E111">
-        <v>-0.000272070670710365</v>
+        <v>0.0002453756941850141</v>
       </c>
       <c r="F111">
-        <v>1.360526637203199e-05</v>
+        <v>-0.0005939373817276294</v>
       </c>
       <c r="G111">
-        <v>3.555362989213457e-07</v>
+        <v>1.406962916819875e-06</v>
       </c>
       <c r="H111">
-        <v>0.0342327452431694</v>
+        <v>0.04087919744271669</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.0001914339229872027</v>
+        <v>-0.0009320329995626017</v>
       </c>
       <c r="C112">
-        <v>-0.0003364052037443338</v>
+        <v>-0.0004546426834387711</v>
       </c>
       <c r="D112">
-        <v>-4.477951566459219e-07</v>
+        <v>-9.997783262716389e-06</v>
       </c>
       <c r="E112">
-        <v>-0.0007110581107258422</v>
+        <v>5.626526489423134e-06</v>
       </c>
       <c r="F112">
-        <v>-0.0002933296475026565</v>
+        <v>4.897231512761887e-05</v>
       </c>
       <c r="G112">
-        <v>3.542488859269959e-07</v>
+        <v>7.041999498305722e-07</v>
       </c>
       <c r="H112">
-        <v>0.03768501498121921</v>
+        <v>0.03442749320178342</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.091196505664121e-05</v>
+        <v>-0.000670451750809369</v>
       </c>
       <c r="C113">
-        <v>-0.001317898957619799</v>
+        <v>-0.0009810037730321787</v>
       </c>
       <c r="D113">
-        <v>-3.221857240760021e-06</v>
+        <v>-6.782338306578664e-06</v>
       </c>
       <c r="E113">
-        <v>-7.852300260399042e-05</v>
+        <v>2.185165482156831e-05</v>
       </c>
       <c r="F113">
-        <v>4.881525458267603e-05</v>
+        <v>-0.000107006880011475</v>
       </c>
       <c r="G113">
-        <v>-4.653539389820151e-07</v>
+        <v>5.997160562154591e-07</v>
       </c>
       <c r="H113">
-        <v>0.03368133808066155</v>
+        <v>0.03580635939560942</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.0007990042892606665</v>
+        <v>-0.0006902735469567676</v>
       </c>
       <c r="C114">
-        <v>-0.0006704641149365539</v>
+        <v>0.0003189643701977062</v>
       </c>
       <c r="D114">
-        <v>8.35140904333712e-06</v>
+        <v>-8.687650807993009e-06</v>
       </c>
       <c r="E114">
-        <v>0.0002540832441367026</v>
+        <v>-0.0006208460823808673</v>
       </c>
       <c r="F114">
-        <v>0.0001398354767104228</v>
+        <v>-7.245355586160332e-05</v>
       </c>
       <c r="G114">
-        <v>5.737271248266985e-08</v>
+        <v>1.175216340552471e-06</v>
       </c>
       <c r="H114">
-        <v>0.03169263995817123</v>
+        <v>0.03529902236244297</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.0007042433922295334</v>
+        <v>-0.0008296313782367401</v>
       </c>
       <c r="C115">
-        <v>-0.0006542504450706333</v>
+        <v>-0.0007389485812793996</v>
       </c>
       <c r="D115">
-        <v>-2.291766773865451e-06</v>
+        <v>-5.239336083240208e-06</v>
       </c>
       <c r="E115">
-        <v>0.0006288649781116019</v>
+        <v>-0.0003660450270665319</v>
       </c>
       <c r="F115">
-        <v>-9.476656495947664e-05</v>
+        <v>-0.0001736922426000633</v>
       </c>
       <c r="G115">
-        <v>3.223999651422789e-07</v>
+        <v>3.973259794478317e-07</v>
       </c>
       <c r="H115">
-        <v>0.03517590903994941</v>
+        <v>0.03695309967827055</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-6.670479668268066e-05</v>
+        <v>-0.0006910415010746773</v>
       </c>
       <c r="C116">
-        <v>-0.0001338085322310348</v>
+        <v>-0.00120161547908113</v>
       </c>
       <c r="D116">
-        <v>3.497448213189107e-06</v>
+        <v>-4.314678391397815e-06</v>
       </c>
       <c r="E116">
-        <v>-0.0001270184699397325</v>
+        <v>0.0001364510679952441</v>
       </c>
       <c r="F116">
-        <v>-0.0002974900087491615</v>
+        <v>-8.710084830110292e-05</v>
       </c>
       <c r="G116">
-        <v>2.307952899107571e-07</v>
+        <v>1.954734479138465e-07</v>
       </c>
       <c r="H116">
-        <v>0.03683324774744325</v>
+        <v>0.03521044754822698</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.0005580501015261564</v>
+        <v>-0.001042724926081535</v>
       </c>
       <c r="C117">
-        <v>0.0003776593388405132</v>
+        <v>-7.23667107491565e-05</v>
       </c>
       <c r="D117">
-        <v>-3.516834834312996e-06</v>
+        <v>-2.324125436746394e-06</v>
       </c>
       <c r="E117">
-        <v>0.0004177268557248454</v>
+        <v>6.602216916520506e-05</v>
       </c>
       <c r="F117">
-        <v>-0.0001826436102340052</v>
+        <v>-0.0002608539371738149</v>
       </c>
       <c r="G117">
-        <v>1.590599890195943e-06</v>
+        <v>9.428782229658965e-07</v>
       </c>
       <c r="H117">
-        <v>0.03548592498877717</v>
+        <v>0.03730115061725361</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0001478037584925047</v>
+        <v>-0.0005771769378481767</v>
       </c>
       <c r="C118">
-        <v>-0.0002899754607805513</v>
+        <v>-0.0003327479872853726</v>
       </c>
       <c r="D118">
-        <v>1.700864535654757e-06</v>
+        <v>-4.092137435957785e-06</v>
       </c>
       <c r="E118">
-        <v>9.348405984525854e-05</v>
+        <v>0.0003307571324597421</v>
       </c>
       <c r="F118">
-        <v>8.550446147959415e-05</v>
+        <v>0.0002240919518765374</v>
       </c>
       <c r="G118">
-        <v>-2.496202701590234e-07</v>
+        <v>-2.575453448057734e-07</v>
       </c>
       <c r="H118">
-        <v>0.03252936589973088</v>
+        <v>0.03151627817246913</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.0004553206542277947</v>
+        <v>-0.0008784206707734155</v>
       </c>
       <c r="C119">
-        <v>-0.0005910426067051336</v>
+        <v>0.002072227716712872</v>
       </c>
       <c r="D119">
-        <v>-1.178912549487082e-06</v>
+        <v>-1.81090554632926e-05</v>
       </c>
       <c r="E119">
-        <v>0.0001629320961425602</v>
+        <v>0.001097511846390876</v>
       </c>
       <c r="F119">
-        <v>-9.287426958940934e-05</v>
+        <v>-2.919550094727903e-05</v>
       </c>
       <c r="G119">
-        <v>-4.121416647088719e-07</v>
+        <v>-1.399709956317806e-07</v>
       </c>
       <c r="H119">
-        <v>0.03542432085618361</v>
+        <v>0.03609104967580037</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.0002724271706430999</v>
+        <v>-0.0008425343285351841</v>
       </c>
       <c r="C120">
-        <v>-0.0004436175260513732</v>
+        <v>0.0003964182608932703</v>
       </c>
       <c r="D120">
-        <v>-3.518201035121423e-06</v>
+        <v>-7.891521941702403e-06</v>
       </c>
       <c r="E120">
-        <v>-0.0002800182338187004</v>
+        <v>0.000114967343525639</v>
       </c>
       <c r="F120">
-        <v>7.777729877987867e-05</v>
+        <v>0.0001141901005783729</v>
       </c>
       <c r="G120">
-        <v>-2.60588571931266e-07</v>
+        <v>-6.090096411448966e-07</v>
       </c>
       <c r="H120">
-        <v>0.03332629626169256</v>
+        <v>0.03389194497549172</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.000943321520274733</v>
+        <v>-0.0001689775583811519</v>
       </c>
       <c r="C121">
-        <v>-0.0006133799201111411</v>
+        <v>0.0001634166589435343</v>
       </c>
       <c r="D121">
-        <v>-2.873165611055526e-06</v>
+        <v>-5.689381665759277e-07</v>
       </c>
       <c r="E121">
-        <v>-0.0002148556879723318</v>
+        <v>-0.0001084540516997981</v>
       </c>
       <c r="F121">
-        <v>-9.449817787849946e-05</v>
+        <v>-0.0002409506813295383</v>
       </c>
       <c r="G121">
-        <v>3.175946012208379e-07</v>
+        <v>9.912057151759961e-07</v>
       </c>
       <c r="H121">
-        <v>0.03554414990244405</v>
+        <v>0.03605108198345521</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC2_coef.xlsx
+++ b/FOMC2_coef.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.001305048304585534</v>
+        <v>-0.01306581234078166</v>
       </c>
       <c r="C2">
-        <v>-0.0013466204634194</v>
+        <v>-0.0165793666585461</v>
       </c>
       <c r="D2">
-        <v>3.223435489908641e-06</v>
+        <v>-2.583860278265873e-06</v>
       </c>
       <c r="E2">
-        <v>-0.0002225171194823669</v>
+        <v>-0.0009831195257298808</v>
       </c>
       <c r="F2">
-        <v>-0.0002284005090800848</v>
+        <v>0.00168897012540985</v>
       </c>
       <c r="G2">
-        <v>1.012287465087653e-06</v>
+        <v>-2.781257360048543e-05</v>
       </c>
       <c r="H2">
-        <v>0.0367555669442613</v>
+        <v>0.1227010502817131</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.001152887661594026</v>
+        <v>0.009740748561202994</v>
       </c>
       <c r="C3">
-        <v>-0.001038524868878571</v>
+        <v>-0.03202562290963519</v>
       </c>
       <c r="D3">
-        <v>9.906270507511708e-07</v>
+        <v>0.0004342120673071341</v>
       </c>
       <c r="E3">
-        <v>-0.0002147248050527843</v>
+        <v>-0.008917049137466243</v>
       </c>
       <c r="F3">
-        <v>-1.158580646491985e-05</v>
+        <v>-0.01303239439022082</v>
       </c>
       <c r="G3">
-        <v>7.978751602896142e-08</v>
+        <v>-4.000774594085949e-05</v>
       </c>
       <c r="H3">
-        <v>0.03464733082043166</v>
+        <v>0.2819337875860021</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0004536974649057236</v>
+        <v>-0.03427738725022926</v>
       </c>
       <c r="C4">
-        <v>-0.0003685147240592025</v>
+        <v>-0.01198674790206538</v>
       </c>
       <c r="D4">
-        <v>2.022048417613608e-06</v>
+        <v>-0.0002218254218650281</v>
       </c>
       <c r="E4">
-        <v>-0.0001876680605574881</v>
+        <v>-0.004488116319141477</v>
       </c>
       <c r="F4">
-        <v>-0.0001951936926619561</v>
+        <v>0.0001127719863700822</v>
       </c>
       <c r="G4">
-        <v>6.384119331737219e-07</v>
+        <v>-5.495546057735259e-05</v>
       </c>
       <c r="H4">
-        <v>0.03564130501802117</v>
+        <v>0.2160061397521072</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.935505612857374e-05</v>
+        <v>-0.01282906236620086</v>
       </c>
       <c r="C5">
-        <v>-0.000285492279558352</v>
+        <v>-0.01234430210176318</v>
       </c>
       <c r="D5">
-        <v>4.023022407472409e-06</v>
+        <v>-3.238977794939118e-07</v>
       </c>
       <c r="E5">
-        <v>0.000970322504309739</v>
+        <v>0.004653038999092113</v>
       </c>
       <c r="F5">
-        <v>9.055180996031531e-05</v>
+        <v>0.002439317554369228</v>
       </c>
       <c r="G5">
-        <v>-8.451390850933815e-07</v>
+        <v>-3.964480092720426e-05</v>
       </c>
       <c r="H5">
-        <v>0.03237093319187453</v>
+        <v>0.1264823271551924</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.000382017269833934</v>
+        <v>-0.02195295876217981</v>
       </c>
       <c r="C6">
-        <v>0.0003797305480310684</v>
+        <v>-0.03669713742845349</v>
       </c>
       <c r="D6">
-        <v>-6.56884311412194e-06</v>
+        <v>0.0001595569385502544</v>
       </c>
       <c r="E6">
-        <v>-0.0008531033324983874</v>
+        <v>-0.002224267527284426</v>
       </c>
       <c r="F6">
-        <v>2.744015904416607e-05</v>
+        <v>0.0003329951106546183</v>
       </c>
       <c r="G6">
-        <v>1.970032904636305e-07</v>
+        <v>-6.883335412633806e-05</v>
       </c>
       <c r="H6">
-        <v>0.0343027813999386</v>
+        <v>0.1902587790468787</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-7.915144516764012e-05</v>
+        <v>-0.02845331287522228</v>
       </c>
       <c r="C7">
-        <v>-0.0005078118649481436</v>
+        <v>-0.01972856542031638</v>
       </c>
       <c r="D7">
-        <v>4.798606518766492e-06</v>
+        <v>-0.0001877938714150278</v>
       </c>
       <c r="E7">
-        <v>3.10251752399307e-05</v>
+        <v>-0.002591646461101549</v>
       </c>
       <c r="F7">
-        <v>-7.001690891195633e-05</v>
+        <v>0.003947865675236419</v>
       </c>
       <c r="G7">
-        <v>1.410821121228354e-06</v>
+        <v>-4.722760471100934e-05</v>
       </c>
       <c r="H7">
-        <v>0.03320607964049063</v>
+        <v>0.1442363742243227</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.001014390711175945</v>
+        <v>-0.0233821718155735</v>
       </c>
       <c r="C8">
-        <v>0.0002822685609399047</v>
+        <v>-0.00883321090812356</v>
       </c>
       <c r="D8">
-        <v>-3.61059045404616e-06</v>
+        <v>-4.455131639340489e-05</v>
       </c>
       <c r="E8">
-        <v>-0.0005311819887236779</v>
+        <v>-0.005812397509563971</v>
       </c>
       <c r="F8">
-        <v>-0.0002054364921121181</v>
+        <v>0.003581925465785266</v>
       </c>
       <c r="G8">
-        <v>1.123046561710161e-06</v>
+        <v>-6.726575064369103e-05</v>
       </c>
       <c r="H8">
-        <v>0.03659917950682195</v>
+        <v>0.161222019139187</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.0005250919505015049</v>
+        <v>-0.008984872731124872</v>
       </c>
       <c r="C9">
-        <v>-0.0009561680676955391</v>
+        <v>-0.00803212725907492</v>
       </c>
       <c r="D9">
-        <v>-1.879312433116954e-06</v>
+        <v>6.384576005049076e-05</v>
       </c>
       <c r="E9">
-        <v>0.0007172199611583836</v>
+        <v>0.002980032117142151</v>
       </c>
       <c r="F9">
-        <v>-0.0001413252468710215</v>
+        <v>5.751856860220514e-05</v>
       </c>
       <c r="G9">
-        <v>8.817309580508176e-07</v>
+        <v>-5.154666148914934e-05</v>
       </c>
       <c r="H9">
-        <v>0.03534116680576409</v>
+        <v>0.1648735351818387</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.0006131994626483229</v>
+        <v>-0.0226598503336124</v>
       </c>
       <c r="C10">
-        <v>-0.0004863219144020593</v>
+        <v>-0.03378330132727538</v>
       </c>
       <c r="D10">
-        <v>-6.025958520390459e-06</v>
+        <v>2.360544599620839e-05</v>
       </c>
       <c r="E10">
-        <v>-2.655588021598099e-05</v>
+        <v>0.01160422430604044</v>
       </c>
       <c r="F10">
-        <v>5.521115295355672e-05</v>
+        <v>0.004563127854075127</v>
       </c>
       <c r="G10">
-        <v>-2.784152578115011e-07</v>
+        <v>-7.967295012972517e-05</v>
       </c>
       <c r="H10">
-        <v>0.0341604526300558</v>
+        <v>0.1565909516596101</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.0006298999672259943</v>
+        <v>-0.02662127657286742</v>
       </c>
       <c r="C11">
-        <v>-0.0002012847272126362</v>
+        <v>-0.02661410711069104</v>
       </c>
       <c r="D11">
-        <v>3.140899607986819e-06</v>
+        <v>-3.708575814609365e-05</v>
       </c>
       <c r="E11">
-        <v>0.0002409225655827692</v>
+        <v>-0.002271055058522042</v>
       </c>
       <c r="F11">
-        <v>-0.0001370688859825427</v>
+        <v>-0.003488859091561968</v>
       </c>
       <c r="G11">
-        <v>8.896459460706954e-07</v>
+        <v>-5.345201806218687e-05</v>
       </c>
       <c r="H11">
-        <v>0.03486014855079832</v>
+        <v>0.2353378587655555</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.0002570147998302479</v>
+        <v>-0.02100833574209356</v>
       </c>
       <c r="C12">
-        <v>-0.0009621655663554073</v>
+        <v>-0.01576635136471695</v>
       </c>
       <c r="D12">
-        <v>4.98478024775616e-06</v>
+        <v>-0.0001242022979995817</v>
       </c>
       <c r="E12">
-        <v>-0.0001473001542679798</v>
+        <v>-0.006335742774929418</v>
       </c>
       <c r="F12">
-        <v>-0.0003137470272471537</v>
+        <v>0.001002990866250684</v>
       </c>
       <c r="G12">
-        <v>5.086647567185672e-07</v>
+        <v>-5.613349805176647e-05</v>
       </c>
       <c r="H12">
-        <v>0.03701992753310977</v>
+        <v>0.1897712875043075</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.0008077418558663572</v>
+        <v>-0.01597841177451645</v>
       </c>
       <c r="C13">
-        <v>-0.0006778856851094695</v>
+        <v>-0.01163947508644939</v>
       </c>
       <c r="D13">
-        <v>-1.388497726910556e-06</v>
+        <v>5.31058817124848e-05</v>
       </c>
       <c r="E13">
-        <v>0.0001863958204159667</v>
+        <v>-0.001990121777491166</v>
       </c>
       <c r="F13">
-        <v>0.0001112963302924202</v>
+        <v>-0.003701041140690654</v>
       </c>
       <c r="G13">
-        <v>5.559491400947923e-07</v>
+        <v>-4.109141973297363e-05</v>
       </c>
       <c r="H13">
-        <v>0.03305664721732271</v>
+        <v>0.2099069353103714</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.0004335933815430614</v>
+        <v>-0.0249758237815177</v>
       </c>
       <c r="C14">
-        <v>0.0009374688205885683</v>
+        <v>-0.03194989541652474</v>
       </c>
       <c r="D14">
-        <v>-1.86041990492011e-06</v>
+        <v>8.670928310157247e-05</v>
       </c>
       <c r="E14">
-        <v>-0.0006496653612507244</v>
+        <v>0.01444035500770302</v>
       </c>
       <c r="F14">
-        <v>-9.501530855552244e-05</v>
+        <v>0.002545813355320302</v>
       </c>
       <c r="G14">
-        <v>8.542141697616066e-07</v>
+        <v>-4.416402387523558e-05</v>
       </c>
       <c r="H14">
-        <v>0.03473757477421231</v>
+        <v>0.1365292957599247</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.001039234058524276</v>
+        <v>-0.02553538619299832</v>
       </c>
       <c r="C15">
-        <v>0.0003444684863354652</v>
+        <v>0.004559405166387053</v>
       </c>
       <c r="D15">
-        <v>-2.738373838156906e-07</v>
+        <v>-0.0001514259885651074</v>
       </c>
       <c r="E15">
-        <v>-0.0001865452680901852</v>
+        <v>-0.007524396443882087</v>
       </c>
       <c r="F15">
-        <v>-0.0001455354098194176</v>
+        <v>0.0027116305047438</v>
       </c>
       <c r="G15">
-        <v>1.284078477598224e-06</v>
+        <v>-4.685433100932133e-05</v>
       </c>
       <c r="H15">
-        <v>0.03519788690856133</v>
+        <v>0.1614893144050131</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0004275062925055465</v>
+        <v>-0.003973270327054244</v>
       </c>
       <c r="C16">
-        <v>-0.0004959612610469207</v>
+        <v>-0.02859431550033107</v>
       </c>
       <c r="D16">
-        <v>-1.790700371664531e-07</v>
+        <v>0.0001598478414559719</v>
       </c>
       <c r="E16">
-        <v>-0.0004791964992821307</v>
+        <v>-0.01144021822157908</v>
       </c>
       <c r="F16">
-        <v>-0.0001210495900303669</v>
+        <v>-0.007260008805059578</v>
       </c>
       <c r="G16">
-        <v>3.646368817836102e-07</v>
+        <v>-4.637941485540245e-05</v>
       </c>
       <c r="H16">
-        <v>0.03526249086498769</v>
+        <v>0.248006552598408</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.0006486663907961064</v>
+        <v>-0.005470322010386223</v>
       </c>
       <c r="C17">
-        <v>0.0002861864662361003</v>
+        <v>-0.01436023915460444</v>
       </c>
       <c r="D17">
-        <v>2.007360910926725e-06</v>
+        <v>-3.97989004257177e-05</v>
       </c>
       <c r="E17">
-        <v>1.534260571142004e-06</v>
+        <v>0.009505651224079703</v>
       </c>
       <c r="F17">
-        <v>-0.0001458236412355643</v>
+        <v>0.004344764491695346</v>
       </c>
       <c r="G17">
-        <v>8.957528022837811e-07</v>
+        <v>-4.400281413244256e-05</v>
       </c>
       <c r="H17">
-        <v>0.03511573070726302</v>
+        <v>0.1019961731828913</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.0004744328482209643</v>
+        <v>-0.03878784749299841</v>
       </c>
       <c r="C18">
-        <v>0.0005714419497371284</v>
+        <v>-0.03186495591075156</v>
       </c>
       <c r="D18">
-        <v>2.087196814976094e-06</v>
+        <v>8.55637168203871e-05</v>
       </c>
       <c r="E18">
-        <v>0.0002801897427276469</v>
+        <v>-0.006218403727328986</v>
       </c>
       <c r="F18">
-        <v>0.0001611539431730344</v>
+        <v>0.002153533765422172</v>
       </c>
       <c r="G18">
-        <v>3.943473112343708e-07</v>
+        <v>-5.093524219027571e-05</v>
       </c>
       <c r="H18">
-        <v>0.0309957868658418</v>
+        <v>0.1637194872384614</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.0008889204078885828</v>
+        <v>-0.02832806722630465</v>
       </c>
       <c r="C19">
-        <v>0.0006374319974767324</v>
+        <v>-0.02553991593063693</v>
       </c>
       <c r="D19">
-        <v>-4.575178960166054e-06</v>
+        <v>2.015451299417978e-05</v>
       </c>
       <c r="E19">
-        <v>-0.0004352773417242509</v>
+        <v>-0.007339697142369095</v>
       </c>
       <c r="F19">
-        <v>-1.228238411935407e-05</v>
+        <v>0.001921160321974921</v>
       </c>
       <c r="G19">
-        <v>7.640094541952657e-07</v>
+        <v>-4.243712340050864e-05</v>
       </c>
       <c r="H19">
-        <v>0.03425662382785177</v>
+        <v>0.151815882996287</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.0007159349867924564</v>
+        <v>-0.04646261435456406</v>
       </c>
       <c r="C20">
-        <v>0.001073810705069784</v>
+        <v>0.0005094084632766629</v>
       </c>
       <c r="D20">
-        <v>-8.24235433834177e-06</v>
+        <v>-0.0002337672372235244</v>
       </c>
       <c r="E20">
-        <v>-0.0002361072966670166</v>
+        <v>0.008419181687939384</v>
       </c>
       <c r="F20">
-        <v>7.416038760842423e-05</v>
+        <v>0.008934007656785368</v>
       </c>
       <c r="G20">
-        <v>6.899285546877437e-07</v>
+        <v>-8.483254128176398e-05</v>
       </c>
       <c r="H20">
-        <v>0.03311576206640333</v>
+        <v>0.1505894821982834</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.0004345706716070387</v>
+        <v>-0.00284982211616192</v>
       </c>
       <c r="C21">
-        <v>-0.0008032250768180304</v>
+        <v>-0.03345199069918275</v>
       </c>
       <c r="D21">
-        <v>-8.69925483149839e-07</v>
+        <v>0.0003053397166415668</v>
       </c>
       <c r="E21">
-        <v>6.491508953532579e-05</v>
+        <v>0.003917807447212915</v>
       </c>
       <c r="F21">
-        <v>7.516628135012022e-05</v>
+        <v>0.00107628266161747</v>
       </c>
       <c r="G21">
-        <v>3.463216973655434e-07</v>
+        <v>-5.072196802867915e-05</v>
       </c>
       <c r="H21">
-        <v>0.03284352524668808</v>
+        <v>0.1298702164597545</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.00128231980039151</v>
+        <v>-0.01274385092476885</v>
       </c>
       <c r="C22">
-        <v>0.0002183240821574581</v>
+        <v>-0.01314770048098561</v>
       </c>
       <c r="D22">
-        <v>-5.368966085400295e-06</v>
+        <v>-0.000172439112210444</v>
       </c>
       <c r="E22">
-        <v>-0.000355712614590508</v>
+        <v>-0.001921043094178912</v>
       </c>
       <c r="F22">
-        <v>0.0002420868782264923</v>
+        <v>0.002745199454099617</v>
       </c>
       <c r="G22">
-        <v>6.63910885715463e-07</v>
+        <v>-5.646238954496883e-05</v>
       </c>
       <c r="H22">
-        <v>0.03142728135798557</v>
+        <v>0.1628545667693167</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.0007592614099931729</v>
+        <v>-0.01846274053253402</v>
       </c>
       <c r="C23">
-        <v>-5.506796058459451e-05</v>
+        <v>-0.04509459396442092</v>
       </c>
       <c r="D23">
-        <v>-4.477902670345892e-06</v>
+        <v>0.0003593927052625977</v>
       </c>
       <c r="E23">
-        <v>0.000325404103381239</v>
+        <v>0.001584043413667621</v>
       </c>
       <c r="F23">
-        <v>-8.807278992450186e-05</v>
+        <v>-0.003786874509510172</v>
       </c>
       <c r="G23">
-        <v>5.233404066318548e-07</v>
+        <v>-4.266226703382681e-05</v>
       </c>
       <c r="H23">
-        <v>0.0352893444452866</v>
+        <v>0.18721860790697</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.0008415556559555506</v>
+        <v>0.0004547699661855758</v>
       </c>
       <c r="C24">
-        <v>-0.0008252633539143238</v>
+        <v>-0.02511586262586139</v>
       </c>
       <c r="D24">
-        <v>-4.346973076730482e-06</v>
+        <v>9.53476726860013e-05</v>
       </c>
       <c r="E24">
-        <v>-8.675892571459107e-05</v>
+        <v>-0.00735190968756462</v>
       </c>
       <c r="F24">
-        <v>-5.507257622663225e-05</v>
+        <v>-0.001461934758728984</v>
       </c>
       <c r="G24">
-        <v>1.300848198179324e-06</v>
+        <v>-6.174736613414404e-05</v>
       </c>
       <c r="H24">
-        <v>0.03468488585442844</v>
+        <v>0.192032799562864</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.000441555455545777</v>
+        <v>-0.0130663777348353</v>
       </c>
       <c r="C25">
-        <v>-0.0004321470095886986</v>
+        <v>-0.03901227779702245</v>
       </c>
       <c r="D25">
-        <v>-5.16320283727982e-06</v>
+        <v>0.0001222209057530668</v>
       </c>
       <c r="E25">
-        <v>0.0001412574445055458</v>
+        <v>-0.01156683697137173</v>
       </c>
       <c r="F25">
-        <v>-0.0001813280974580613</v>
+        <v>-0.004140224707775971</v>
       </c>
       <c r="G25">
-        <v>1.409043247601039e-06</v>
+        <v>-4.784711251063661e-05</v>
       </c>
       <c r="H25">
-        <v>0.03583916508471101</v>
+        <v>0.2228409126369723</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.001060170831959268</v>
+        <v>0.009632292139437854</v>
       </c>
       <c r="C26">
-        <v>0.0009596253865502603</v>
+        <v>-0.05489988708626911</v>
       </c>
       <c r="D26">
-        <v>-1.043333722658206e-05</v>
+        <v>0.0004460268142917512</v>
       </c>
       <c r="E26">
-        <v>-6.953400519930236e-06</v>
+        <v>-0.01157244863571151</v>
       </c>
       <c r="F26">
-        <v>0.0003006189862262238</v>
+        <v>-0.019534598332892</v>
       </c>
       <c r="G26">
-        <v>-8.374761193143254e-07</v>
+        <v>-3.948960514943957e-05</v>
       </c>
       <c r="H26">
-        <v>0.0319638597959088</v>
+        <v>0.3620913834811001</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.0004631078819946218</v>
+        <v>-0.01958996152384583</v>
       </c>
       <c r="C27">
-        <v>-0.000134611485531503</v>
+        <v>-0.01212240911029572</v>
       </c>
       <c r="D27">
-        <v>1.650704560381073e-06</v>
+        <v>-0.0001433874548166248</v>
       </c>
       <c r="E27">
-        <v>-0.0006947180050083171</v>
+        <v>0.002854454614533958</v>
       </c>
       <c r="F27">
-        <v>-0.0003225505477179824</v>
+        <v>0.006882651031723214</v>
       </c>
       <c r="G27">
-        <v>8.705926766160876e-07</v>
+        <v>-6.615665198451916e-05</v>
       </c>
       <c r="H27">
-        <v>0.03744298743770144</v>
+        <v>0.1216723047816895</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.001063949575348672</v>
+        <v>-0.009414590607741051</v>
       </c>
       <c r="C28">
-        <v>-0.0001951341838213577</v>
+        <v>-0.02195036252905477</v>
       </c>
       <c r="D28">
-        <v>-9.940787729674119e-06</v>
+        <v>-0.0001940964156889848</v>
       </c>
       <c r="E28">
-        <v>0.0001490250799520525</v>
+        <v>-0.00824033237035264</v>
       </c>
       <c r="F28">
-        <v>0.0001748396810467439</v>
+        <v>-0.001704100231134741</v>
       </c>
       <c r="G28">
-        <v>2.935634854039412e-07</v>
+        <v>-4.881224574115895e-05</v>
       </c>
       <c r="H28">
-        <v>0.03298778250784186</v>
+        <v>0.2108443064598733</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.00066036300071989</v>
+        <v>-0.01829189505179646</v>
       </c>
       <c r="C29">
-        <v>0.001092406490596524</v>
+        <v>-0.01485480207258862</v>
       </c>
       <c r="D29">
-        <v>-1.372177006786137e-05</v>
+        <v>-0.0001004464230002179</v>
       </c>
       <c r="E29">
-        <v>-0.0006941103891927244</v>
+        <v>-0.002762748907217866</v>
       </c>
       <c r="F29">
-        <v>9.639514537695769e-05</v>
+        <v>-0.0003692594868112235</v>
       </c>
       <c r="G29">
-        <v>-3.760615574611568e-07</v>
+        <v>-3.609406102835538e-05</v>
       </c>
       <c r="H29">
-        <v>0.03466320138202576</v>
+        <v>0.1749753259747913</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.0009562152266173818</v>
+        <v>-0.01508688250606082</v>
       </c>
       <c r="C30">
-        <v>0.001059935989324585</v>
+        <v>-0.0140867441451632</v>
       </c>
       <c r="D30">
-        <v>-8.852667163820523e-06</v>
+        <v>3.158353020413994e-05</v>
       </c>
       <c r="E30">
-        <v>-0.000141919493839425</v>
+        <v>-0.0005921093107068703</v>
       </c>
       <c r="F30">
-        <v>-0.0001668368058399098</v>
+        <v>0.004215017722528176</v>
       </c>
       <c r="G30">
-        <v>7.811168629258763e-07</v>
+        <v>-4.895143847415703e-05</v>
       </c>
       <c r="H30">
-        <v>0.03687293437173997</v>
+        <v>0.1187603205759913</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.000952313372505282</v>
+        <v>-0.02088119083423548</v>
       </c>
       <c r="C31">
-        <v>1.438113760904671e-05</v>
+        <v>-0.02159499954912485</v>
       </c>
       <c r="D31">
-        <v>-2.331521464803128e-06</v>
+        <v>-0.0001148540405851741</v>
       </c>
       <c r="E31">
-        <v>-0.0007411236331657904</v>
+        <v>-0.002072619160387826</v>
       </c>
       <c r="F31">
-        <v>-0.0001145130847430413</v>
+        <v>0.004378468484275221</v>
       </c>
       <c r="G31">
-        <v>6.328644704922498e-07</v>
+        <v>-7.209737919349371e-05</v>
       </c>
       <c r="H31">
-        <v>0.03546345303136132</v>
+        <v>0.1655107719342051</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.0005633061770478204</v>
+        <v>-0.01246128399020412</v>
       </c>
       <c r="C32">
-        <v>-7.805575113606898e-05</v>
+        <v>-0.005048082618305938</v>
       </c>
       <c r="D32">
-        <v>-1.619669486205183e-06</v>
+        <v>-0.0001526310782105777</v>
       </c>
       <c r="E32">
-        <v>-0.0006451845313855814</v>
+        <v>-0.003563552496412686</v>
       </c>
       <c r="F32">
-        <v>-0.0002355953252618644</v>
+        <v>0.001430322736995016</v>
       </c>
       <c r="G32">
-        <v>6.021705338458557e-07</v>
+        <v>-3.647872757671001e-05</v>
       </c>
       <c r="H32">
-        <v>0.03668557111153481</v>
+        <v>0.1496223845192025</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.0007367105725126395</v>
+        <v>-0.01387030299055501</v>
       </c>
       <c r="C33">
-        <v>0.00027438086763703</v>
+        <v>-0.03593532222065136</v>
       </c>
       <c r="D33">
-        <v>-3.464888657625967e-06</v>
+        <v>-6.918625806353202e-05</v>
       </c>
       <c r="E33">
-        <v>-0.0002520126213790622</v>
+        <v>-0.009732957814458792</v>
       </c>
       <c r="F33">
-        <v>-0.0001093913420394431</v>
+        <v>-0.007810903846711953</v>
       </c>
       <c r="G33">
-        <v>1.973750326040337e-07</v>
+        <v>-5.703290098307729e-05</v>
       </c>
       <c r="H33">
-        <v>0.03578301946090786</v>
+        <v>0.2928282756704162</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0005474891504191593</v>
+        <v>-0.009659997607430634</v>
       </c>
       <c r="C34">
-        <v>-7.841319367935928e-05</v>
+        <v>0.00216604137354461</v>
       </c>
       <c r="D34">
-        <v>1.204184506969681e-06</v>
+        <v>-1.484613500404126e-05</v>
       </c>
       <c r="E34">
-        <v>-0.0007434553825687237</v>
+        <v>0.0002830560983370783</v>
       </c>
       <c r="F34">
-        <v>-0.0001469236734618687</v>
+        <v>0.00212693172720553</v>
       </c>
       <c r="G34">
-        <v>4.450734754910333e-08</v>
+        <v>-3.427468210905812e-05</v>
       </c>
       <c r="H34">
-        <v>0.03473118013654083</v>
+        <v>0.1270296375154086</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.0005982065427525716</v>
+        <v>0.002031806937616445</v>
       </c>
       <c r="C35">
-        <v>-0.0009292646280953099</v>
+        <v>0.004102802471994443</v>
       </c>
       <c r="D35">
-        <v>-3.393853653059309e-06</v>
+        <v>-3.167001504053933e-05</v>
       </c>
       <c r="E35">
-        <v>-0.0001985271895859723</v>
+        <v>0.01459034516530758</v>
       </c>
       <c r="F35">
-        <v>-0.0001669939457390712</v>
+        <v>0.002475396080745056</v>
       </c>
       <c r="G35">
-        <v>3.973951447032427e-07</v>
+        <v>-5.406793045032572e-05</v>
       </c>
       <c r="H35">
-        <v>0.03597571347725999</v>
+        <v>0.1327617429407303</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.0002473385780438135</v>
+        <v>-0.0165163460474851</v>
       </c>
       <c r="C36">
-        <v>0.0009556368239608201</v>
+        <v>0.01145947383977556</v>
       </c>
       <c r="D36">
-        <v>-4.09446303080052e-06</v>
+        <v>-0.0001100252914787749</v>
       </c>
       <c r="E36">
-        <v>-9.929768064313726e-05</v>
+        <v>0.002456784056072386</v>
       </c>
       <c r="F36">
-        <v>-0.0003373911967304215</v>
+        <v>0.00383076312549714</v>
       </c>
       <c r="G36">
-        <v>6.968680015665824e-07</v>
+        <v>-5.988367175745317e-05</v>
       </c>
       <c r="H36">
-        <v>0.03807682767899869</v>
+        <v>0.148329351159552</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0003887272930590919</v>
+        <v>-0.01746487262982758</v>
       </c>
       <c r="C37">
-        <v>4.645391012659704e-05</v>
+        <v>-0.003159357400494377</v>
       </c>
       <c r="D37">
-        <v>-1.29317841124716e-06</v>
+        <v>-0.0001424033030525977</v>
       </c>
       <c r="E37">
-        <v>0.0005225605243647756</v>
+        <v>0.00427271144136647</v>
       </c>
       <c r="F37">
-        <v>-0.0001893835245759019</v>
+        <v>0.003489009641810331</v>
       </c>
       <c r="G37">
-        <v>5.396374538349222e-07</v>
+        <v>-3.749769934694237e-05</v>
       </c>
       <c r="H37">
-        <v>0.03547509797128076</v>
+        <v>0.121302053571308</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.0005441746189944747</v>
+        <v>-0.02169417818000632</v>
       </c>
       <c r="C38">
-        <v>0.0002291257728715902</v>
+        <v>-0.01976990737665149</v>
       </c>
       <c r="D38">
-        <v>-6.452215614999232e-06</v>
+        <v>9.070864441827208e-05</v>
       </c>
       <c r="E38">
-        <v>0.0007383435646656118</v>
+        <v>0.008950914836922327</v>
       </c>
       <c r="F38">
-        <v>-0.0003133882676339431</v>
+        <v>0.002068304272205407</v>
       </c>
       <c r="G38">
-        <v>1.660310619864962e-06</v>
+        <v>-4.688053696110078e-05</v>
       </c>
       <c r="H38">
-        <v>0.03681636009796022</v>
+        <v>0.1383547162934306</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.0003206116737964342</v>
+        <v>-0.03833278293032205</v>
       </c>
       <c r="C39">
-        <v>-0.00126077390883536</v>
+        <v>-0.02448731400351648</v>
       </c>
       <c r="D39">
-        <v>1.193265548206773e-06</v>
+        <v>-0.0001297095006776247</v>
       </c>
       <c r="E39">
-        <v>-0.0001965253232731369</v>
+        <v>-0.01579083963668353</v>
       </c>
       <c r="F39">
-        <v>-0.0001465946882069899</v>
+        <v>0.002444236800765049</v>
       </c>
       <c r="G39">
-        <v>-3.034840026626037e-07</v>
+        <v>-6.215411839725438e-05</v>
       </c>
       <c r="H39">
-        <v>0.03591530433826092</v>
+        <v>0.2005085801686197</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.0005587859567151368</v>
+        <v>-0.02293348326148532</v>
       </c>
       <c r="C40">
-        <v>7.7330988060743e-05</v>
+        <v>-0.01463998767150101</v>
       </c>
       <c r="D40">
-        <v>-1.405489746615279e-06</v>
+        <v>7.644341326534047e-05</v>
       </c>
       <c r="E40">
-        <v>0.000345234084520904</v>
+        <v>0.004444336087384523</v>
       </c>
       <c r="F40">
-        <v>0.0002713446601034007</v>
+        <v>-0.005723947726361494</v>
       </c>
       <c r="G40">
-        <v>-1.082339929473608e-07</v>
+        <v>-5.064104195354192e-05</v>
       </c>
       <c r="H40">
-        <v>0.03036014512743176</v>
+        <v>0.2473661030758474</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.001128933856292524</v>
+        <v>-0.04234821077920194</v>
       </c>
       <c r="C41">
-        <v>-3.577183900876544e-05</v>
+        <v>-0.0326672434697069</v>
       </c>
       <c r="D41">
-        <v>-1.141564099130973e-05</v>
+        <v>-0.0002726164342795573</v>
       </c>
       <c r="E41">
-        <v>0.0003624171976553854</v>
+        <v>-0.01738271191536672</v>
       </c>
       <c r="F41">
-        <v>8.739646363710939e-05</v>
+        <v>-0.001979119423947281</v>
       </c>
       <c r="G41">
-        <v>-3.688890436160904e-07</v>
+        <v>-5.722657149802278e-05</v>
       </c>
       <c r="H41">
-        <v>0.03461149977659009</v>
+        <v>0.2639765199880718</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.001134752214934082</v>
+        <v>-0.02504193930038294</v>
       </c>
       <c r="C42">
-        <v>0.0007194966997792038</v>
+        <v>-0.01817018788673478</v>
       </c>
       <c r="D42">
-        <v>-8.231221641662644e-06</v>
+        <v>-0.0002124143295955025</v>
       </c>
       <c r="E42">
-        <v>-0.0001017984087255466</v>
+        <v>-0.0008545949103584416</v>
       </c>
       <c r="F42">
-        <v>0.000172652575340203</v>
+        <v>0.003511906017816471</v>
       </c>
       <c r="G42">
-        <v>-7.911452705756826e-08</v>
+        <v>-4.910209724244985e-05</v>
       </c>
       <c r="H42">
-        <v>0.03296094889136648</v>
+        <v>0.1544019268474222</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.001169341176589125</v>
+        <v>-0.06001556840429494</v>
       </c>
       <c r="C43">
-        <v>0.000475579842505396</v>
+        <v>-0.0203409334339547</v>
       </c>
       <c r="D43">
-        <v>-3.677509915824786e-06</v>
+        <v>-0.0003157231003132107</v>
       </c>
       <c r="E43">
-        <v>-0.000757739976342816</v>
+        <v>0.004741290220289532</v>
       </c>
       <c r="F43">
-        <v>4.575026054666243e-05</v>
+        <v>0.007187331561211913</v>
       </c>
       <c r="G43">
-        <v>8.35573951043159e-07</v>
+        <v>-5.470581047759075e-05</v>
       </c>
       <c r="H43">
-        <v>0.03381146111036223</v>
+        <v>0.1593700939002036</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.001306768679362843</v>
+        <v>-0.0009508436015323368</v>
       </c>
       <c r="C44">
-        <v>0.0007420328870700937</v>
+        <v>-0.02851255502708049</v>
       </c>
       <c r="D44">
-        <v>-2.251289296949041e-06</v>
+        <v>0.0001162919243312011</v>
       </c>
       <c r="E44">
-        <v>-0.0003506051566717003</v>
+        <v>-0.004646973306581342</v>
       </c>
       <c r="F44">
-        <v>0.0001280725567615534</v>
+        <v>-0.0007704107208586245</v>
       </c>
       <c r="G44">
-        <v>6.491715443427955e-07</v>
+        <v>-6.323311165165713e-05</v>
       </c>
       <c r="H44">
-        <v>0.03268073399095023</v>
+        <v>0.1816426872383039</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0004327440394337385</v>
+        <v>-0.0178441600744343</v>
       </c>
       <c r="C45">
-        <v>-0.0005494143321300298</v>
+        <v>-0.03794818776075137</v>
       </c>
       <c r="D45">
-        <v>-2.349682033355416e-06</v>
+        <v>0.0001655453183390517</v>
       </c>
       <c r="E45">
-        <v>-0.0008290357133336722</v>
+        <v>-0.008998947247642275</v>
       </c>
       <c r="F45">
-        <v>-0.0001615729901421208</v>
+        <v>-0.005527040387958832</v>
       </c>
       <c r="G45">
-        <v>6.373211159398126e-07</v>
+        <v>-4.324925332224195e-05</v>
       </c>
       <c r="H45">
-        <v>0.03548330443641828</v>
+        <v>0.227624155351596</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.0008094377909867848</v>
+        <v>-0.03397773357841007</v>
       </c>
       <c r="C46">
-        <v>-0.0001926274704587589</v>
+        <v>-0.01613826610897478</v>
       </c>
       <c r="D46">
-        <v>-4.95546251522142e-06</v>
+        <v>-0.0002086953764231435</v>
       </c>
       <c r="E46">
-        <v>5.538910976106426e-06</v>
+        <v>-0.004294326560297088</v>
       </c>
       <c r="F46">
-        <v>1.707449885258094e-05</v>
+        <v>0.0006708009259933294</v>
       </c>
       <c r="G46">
-        <v>5.036731851472257e-07</v>
+        <v>-3.492794776124999e-05</v>
       </c>
       <c r="H46">
-        <v>0.03433336848327199</v>
+        <v>0.1808714888280874</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.0002740389301284043</v>
+        <v>-0.02507243449360429</v>
       </c>
       <c r="C47">
-        <v>-1.077055209515324e-05</v>
+        <v>-0.02834335319147311</v>
       </c>
       <c r="D47">
-        <v>2.981669914282749e-06</v>
+        <v>-0.000175682188528762</v>
       </c>
       <c r="E47">
-        <v>-0.0001454721115424946</v>
+        <v>-0.001696095783508517</v>
       </c>
       <c r="F47">
-        <v>-0.0004444596173409118</v>
+        <v>-0.002823301803190362</v>
       </c>
       <c r="G47">
-        <v>7.256278321885841e-07</v>
+        <v>-4.080306834827352e-05</v>
       </c>
       <c r="H47">
-        <v>0.03878648983751036</v>
+        <v>0.2249212801326821</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9.735845509902929e-05</v>
+        <v>-0.02877062029908394</v>
       </c>
       <c r="C48">
-        <v>0.0003520683454429036</v>
+        <v>-0.02915709216255537</v>
       </c>
       <c r="D48">
-        <v>-3.529689767966743e-06</v>
+        <v>-0.0001642780925997909</v>
       </c>
       <c r="E48">
-        <v>-0.0007172776542535425</v>
+        <v>-0.01438575352011214</v>
       </c>
       <c r="F48">
-        <v>-6.856824084124714e-05</v>
+        <v>-0.001081868519009254</v>
       </c>
       <c r="G48">
-        <v>4.539703705601997e-08</v>
+        <v>-5.911981396474839e-05</v>
       </c>
       <c r="H48">
-        <v>0.03474071451764674</v>
+        <v>0.2402012550806855</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.0006837294892915726</v>
+        <v>-0.01434259504926993</v>
       </c>
       <c r="C49">
-        <v>4.424148326958601e-05</v>
+        <v>-0.01527782388643043</v>
       </c>
       <c r="D49">
-        <v>3.483561530834535e-06</v>
+        <v>-9.864026698476546e-05</v>
       </c>
       <c r="E49">
-        <v>2.043726716715114e-05</v>
+        <v>-0.0009574567150417851</v>
       </c>
       <c r="F49">
-        <v>-0.0001885351818188671</v>
+        <v>0.001529140409913966</v>
       </c>
       <c r="G49">
-        <v>1.208156132573696e-06</v>
+        <v>-4.634516530824602e-05</v>
       </c>
       <c r="H49">
-        <v>0.03546812946722702</v>
+        <v>0.158105883699185</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.0005554571592933581</v>
+        <v>-0.03451592684966717</v>
       </c>
       <c r="C50">
-        <v>-0.0007941778667631837</v>
+        <v>-0.02234731614832321</v>
       </c>
       <c r="D50">
-        <v>-9.707489635521827e-06</v>
+        <v>-0.0001355441802388867</v>
       </c>
       <c r="E50">
-        <v>-4.816150089050064e-05</v>
+        <v>-0.002007132502368489</v>
       </c>
       <c r="F50">
-        <v>0.0001948945737139353</v>
+        <v>-1.346510423588972e-05</v>
       </c>
       <c r="G50">
-        <v>4.532670104406591e-07</v>
+        <v>-3.25804498720064e-05</v>
       </c>
       <c r="H50">
-        <v>0.03247213735527516</v>
+        <v>0.1827714142371965</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.0002049667062562041</v>
+        <v>-0.02773523054636966</v>
       </c>
       <c r="C51">
-        <v>0.0006636970900278088</v>
+        <v>-0.01948540250177064</v>
       </c>
       <c r="D51">
-        <v>-3.957338746276546e-06</v>
+        <v>-0.0001138465307773659</v>
       </c>
       <c r="E51">
-        <v>-0.0007903523141484965</v>
+        <v>0.007689157961859039</v>
       </c>
       <c r="F51">
-        <v>0.0001086728162419784</v>
+        <v>0.003212636761030332</v>
       </c>
       <c r="G51">
-        <v>2.200645228138785e-07</v>
+        <v>-6.67765398949454e-05</v>
       </c>
       <c r="H51">
-        <v>0.03294548881167648</v>
+        <v>0.1787301699679567</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.000772109852114451</v>
+        <v>-0.04486223795817043</v>
       </c>
       <c r="C52">
-        <v>-0.0008956924647916202</v>
+        <v>-0.03834038762952446</v>
       </c>
       <c r="D52">
-        <v>1.761933546187763e-06</v>
+        <v>0.0001913381246669414</v>
       </c>
       <c r="E52">
-        <v>0.0001024563116518058</v>
+        <v>-0.01066504226737326</v>
       </c>
       <c r="F52">
-        <v>4.418364417589968e-05</v>
+        <v>-0.005538829580620824</v>
       </c>
       <c r="G52">
-        <v>2.374217440179246e-07</v>
+        <v>-4.69912599490147e-05</v>
       </c>
       <c r="H52">
-        <v>0.03336830632605324</v>
+        <v>0.2586060234938535</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.0007960352847323294</v>
+        <v>-0.02620093298326051</v>
       </c>
       <c r="C53">
-        <v>-9.44837158370084e-05</v>
+        <v>-0.02677833656933085</v>
       </c>
       <c r="D53">
-        <v>-7.460688218754126e-06</v>
+        <v>-0.0001302476352428495</v>
       </c>
       <c r="E53">
-        <v>0.0001819327537538468</v>
+        <v>-0.02038755479870259</v>
       </c>
       <c r="F53">
-        <v>-0.0001210475998057253</v>
+        <v>0.0013847117049231</v>
       </c>
       <c r="G53">
-        <v>9.723329767664019e-07</v>
+        <v>-7.922679730740348e-05</v>
       </c>
       <c r="H53">
-        <v>0.0356023377202967</v>
+        <v>0.2279902559028667</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.0006937089976764344</v>
+        <v>-0.03783527569666493</v>
       </c>
       <c r="C54">
-        <v>-0.0001347332367139244</v>
+        <v>-0.01197736453708208</v>
       </c>
       <c r="D54">
-        <v>-2.158147882094409e-06</v>
+        <v>-0.000234163978481056</v>
       </c>
       <c r="E54">
-        <v>8.388295915444377e-05</v>
+        <v>0.006373557724886916</v>
       </c>
       <c r="F54">
-        <v>-3.522849478886081e-05</v>
+        <v>0.008858614845112599</v>
       </c>
       <c r="G54">
-        <v>1.072714219120702e-06</v>
+        <v>-4.668756203258708e-05</v>
       </c>
       <c r="H54">
-        <v>0.03423533667045599</v>
+        <v>0.09939642232244916</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.0005884796939734909</v>
+        <v>-0.02093094356947128</v>
       </c>
       <c r="C55">
-        <v>4.996253720829648e-05</v>
+        <v>-0.04011449369904407</v>
       </c>
       <c r="D55">
-        <v>2.094642357162148e-06</v>
+        <v>0.0002267200264762182</v>
       </c>
       <c r="E55">
-        <v>-0.0004883584267077086</v>
+        <v>0.006843423149343053</v>
       </c>
       <c r="F55">
-        <v>-5.219954348441324e-05</v>
+        <v>-0.004680342677121445</v>
       </c>
       <c r="G55">
-        <v>3.941011631071177e-07</v>
+        <v>-7.22514053319256e-05</v>
       </c>
       <c r="H55">
-        <v>0.03442737975956332</v>
+        <v>0.2537174912000882</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.0005413870910395985</v>
+        <v>-0.01017807328824609</v>
       </c>
       <c r="C56">
-        <v>-0.000426019497977772</v>
+        <v>-0.02780464756947924</v>
       </c>
       <c r="D56">
-        <v>-8.62595777494689e-06</v>
+        <v>2.510732326897139e-05</v>
       </c>
       <c r="E56">
-        <v>-0.0004377323825643029</v>
+        <v>0.000397744415361681</v>
       </c>
       <c r="F56">
-        <v>-9.6148571405984e-05</v>
+        <v>-0.009619525110160235</v>
       </c>
       <c r="G56">
-        <v>2.18027888095961e-08</v>
+        <v>-4.181370546212045e-05</v>
       </c>
       <c r="H56">
-        <v>0.03625794747330359</v>
+        <v>0.2852741078534767</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.0002906679052963818</v>
+        <v>-0.002331359204829107</v>
       </c>
       <c r="C57">
-        <v>0.0001632960637556148</v>
+        <v>-0.002568681661373856</v>
       </c>
       <c r="D57">
-        <v>-1.46167249756671e-06</v>
+        <v>6.08263166123894e-06</v>
       </c>
       <c r="E57">
-        <v>-0.0003263171443662789</v>
+        <v>0.01000286698869537</v>
       </c>
       <c r="F57">
-        <v>-6.756349696596575e-05</v>
+        <v>0.007818840241864678</v>
       </c>
       <c r="G57">
-        <v>-1.225079094493055e-07</v>
+        <v>-7.104293881054101e-05</v>
       </c>
       <c r="H57">
-        <v>0.03487781194147328</v>
+        <v>0.08371309850460243</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.0003684305732536033</v>
+        <v>-0.0459270371350187</v>
       </c>
       <c r="C58">
-        <v>-0.0001498225976773787</v>
+        <v>-0.02619705093523391</v>
       </c>
       <c r="D58">
-        <v>8.307461769600473e-06</v>
+        <v>-0.0003477975449868173</v>
       </c>
       <c r="E58">
-        <v>0.0005213481898960863</v>
+        <v>-0.01856652128564976</v>
       </c>
       <c r="F58">
-        <v>-0.0001266158035920189</v>
+        <v>-0.0005525912598564834</v>
       </c>
       <c r="G58">
-        <v>6.388648021375555e-08</v>
+        <v>-7.050684523349128e-05</v>
       </c>
       <c r="H58">
-        <v>0.03453397417210083</v>
+        <v>0.2712236893613265</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.00175896384440047</v>
+        <v>-0.02639407980134073</v>
       </c>
       <c r="C59">
-        <v>0.0003378601166666073</v>
+        <v>0.00495301874361666</v>
       </c>
       <c r="D59">
-        <v>-7.216605693623788e-06</v>
+        <v>-6.648688286292086e-05</v>
       </c>
       <c r="E59">
-        <v>-0.0004410350648458503</v>
+        <v>0.0002860957767152339</v>
       </c>
       <c r="F59">
-        <v>-3.127321997698157e-06</v>
+        <v>0.001433260756280634</v>
       </c>
       <c r="G59">
-        <v>1.288658796374694e-06</v>
+        <v>-4.248322509333603e-05</v>
       </c>
       <c r="H59">
-        <v>0.03456010876794155</v>
+        <v>0.1581094349660015</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.0003949994188278847</v>
+        <v>-0.01785548902244895</v>
       </c>
       <c r="C60">
-        <v>1.193069110329509e-05</v>
+        <v>-0.01332105597979958</v>
       </c>
       <c r="D60">
-        <v>3.879330190335832e-06</v>
+        <v>-7.000270314242681e-05</v>
       </c>
       <c r="E60">
-        <v>0.0004921544421746978</v>
+        <v>-0.009727121408040704</v>
       </c>
       <c r="F60">
-        <v>-0.0001814435615224166</v>
+        <v>0.003033800940453841</v>
       </c>
       <c r="G60">
-        <v>7.544284087759386e-07</v>
+        <v>-5.407212419291733e-05</v>
       </c>
       <c r="H60">
-        <v>0.03513305999008506</v>
+        <v>0.1499961157616524</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.001180905419631424</v>
+        <v>-0.03429600027450918</v>
       </c>
       <c r="C61">
-        <v>0.002100486456390903</v>
+        <v>-0.03774041364985163</v>
       </c>
       <c r="D61">
-        <v>-1.324410837688989e-05</v>
+        <v>5.532407024523965e-05</v>
       </c>
       <c r="E61">
-        <v>-0.0001713527329988244</v>
+        <v>-0.005865439479638038</v>
       </c>
       <c r="F61">
-        <v>0.0001649429278399951</v>
+        <v>-0.00455050928796749</v>
       </c>
       <c r="G61">
-        <v>1.067828530452382e-06</v>
+        <v>-5.863795097100202e-05</v>
       </c>
       <c r="H61">
-        <v>0.03256148025088303</v>
+        <v>0.2575101295189425</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.0006680850537584527</v>
+        <v>-0.03495326311802414</v>
       </c>
       <c r="C62">
-        <v>-0.0004898734442463376</v>
+        <v>-0.006746366659840943</v>
       </c>
       <c r="D62">
-        <v>-2.952743409694807e-06</v>
+        <v>-0.0003364461036219861</v>
       </c>
       <c r="E62">
-        <v>0.0003677083559258422</v>
+        <v>-0.0134887833459689</v>
       </c>
       <c r="F62">
-        <v>-1.199471697574519e-05</v>
+        <v>0.01050833637326675</v>
       </c>
       <c r="G62">
-        <v>-2.259440286039547e-07</v>
+        <v>-8.132040993888071e-05</v>
       </c>
       <c r="H62">
-        <v>0.03418339750440637</v>
+        <v>0.1309916336034141</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.0006848309930888451</v>
+        <v>-0.0209934881081795</v>
       </c>
       <c r="C63">
-        <v>-0.0004670125813172736</v>
+        <v>-0.01523455163276082</v>
       </c>
       <c r="D63">
-        <v>-3.478642439188348e-06</v>
+        <v>-7.985998710260233e-05</v>
       </c>
       <c r="E63">
-        <v>0.0002491769161156732</v>
+        <v>-0.004444770462136288</v>
       </c>
       <c r="F63">
-        <v>-0.0001510156506521393</v>
+        <v>-0.0006206115090010636</v>
       </c>
       <c r="G63">
-        <v>-1.870919120230738e-07</v>
+        <v>-2.352650922749628e-05</v>
       </c>
       <c r="H63">
-        <v>0.03643751178349822</v>
+        <v>0.1613873581402728</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.001051786912110777</v>
+        <v>-0.002287347314779467</v>
       </c>
       <c r="C64">
-        <v>9.529213803737479e-05</v>
+        <v>-0.01846085847873306</v>
       </c>
       <c r="D64">
-        <v>-3.09053212335377e-07</v>
+        <v>5.784311402831928e-05</v>
       </c>
       <c r="E64">
-        <v>0.0002088085864018416</v>
+        <v>0.003776327505123897</v>
       </c>
       <c r="F64">
-        <v>-5.326420864021391e-05</v>
+        <v>0.004091137102246097</v>
       </c>
       <c r="G64">
-        <v>6.073927791736888e-07</v>
+        <v>-5.015538741144199e-05</v>
       </c>
       <c r="H64">
-        <v>0.03434481824663911</v>
+        <v>0.1089971999863363</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.001355350937992262</v>
+        <v>-0.02204794098554467</v>
       </c>
       <c r="C65">
-        <v>-6.834269986101212e-05</v>
+        <v>-0.01692827976896297</v>
       </c>
       <c r="D65">
-        <v>-1.290808175124396e-05</v>
+        <v>-0.0002732213789224334</v>
       </c>
       <c r="E65">
-        <v>-0.0004921892400663007</v>
+        <v>0.002239652237711748</v>
       </c>
       <c r="F65">
-        <v>0.0001086855537062011</v>
+        <v>0.009102182345093947</v>
       </c>
       <c r="G65">
-        <v>7.236482919101243e-08</v>
+        <v>-6.149953369533325e-05</v>
       </c>
       <c r="H65">
-        <v>0.03413332107343473</v>
+        <v>0.1134693638578137</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.00042882263837148</v>
+        <v>-0.03855649319490398</v>
       </c>
       <c r="C66">
-        <v>-0.0007475276372840473</v>
+        <v>-0.030829680576073</v>
       </c>
       <c r="D66">
-        <v>2.857286437341267e-06</v>
+        <v>-9.902062162719132e-05</v>
       </c>
       <c r="E66">
-        <v>0.0002450331947467382</v>
+        <v>-0.01076785333084435</v>
       </c>
       <c r="F66">
-        <v>-0.0001437437110788582</v>
+        <v>-0.004905162020660693</v>
       </c>
       <c r="G66">
-        <v>6.733228520863055e-07</v>
+        <v>-5.031259129695679e-05</v>
       </c>
       <c r="H66">
-        <v>0.03496978658727561</v>
+        <v>0.2698530422687802</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.194965424668881e-05</v>
+        <v>-0.02873252814889661</v>
       </c>
       <c r="C67">
-        <v>0.000415317580073163</v>
+        <v>-0.03496249159161969</v>
       </c>
       <c r="D67">
-        <v>2.451227262507294e-06</v>
+        <v>0.0001386989026340281</v>
       </c>
       <c r="E67">
-        <v>0.0001892307686113155</v>
+        <v>-0.002391444349279626</v>
       </c>
       <c r="F67">
-        <v>-8.242163891794947e-05</v>
+        <v>-0.005445994147178764</v>
       </c>
       <c r="G67">
-        <v>7.530031087924875e-07</v>
+        <v>-4.744992188578487e-05</v>
       </c>
       <c r="H67">
-        <v>0.0336986800494847</v>
+        <v>0.2432023010482717</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.0002876497697401948</v>
+        <v>-0.01516178048868977</v>
       </c>
       <c r="C68">
-        <v>-0.0009531542729398538</v>
+        <v>0.00468758344552076</v>
       </c>
       <c r="D68">
-        <v>-5.992056731609443e-06</v>
+        <v>-6.66023954645746e-05</v>
       </c>
       <c r="E68">
-        <v>-0.000501181801238159</v>
+        <v>-0.0005086777783951113</v>
       </c>
       <c r="F68">
-        <v>-1.8560402951424e-05</v>
+        <v>-0.003358413060220289</v>
       </c>
       <c r="G68">
-        <v>2.955072057746965e-07</v>
+        <v>-4.375904558617136e-05</v>
       </c>
       <c r="H68">
-        <v>0.0348513014587512</v>
+        <v>0.2117242156029428</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.0005399663946448266</v>
+        <v>-0.02814622042061367</v>
       </c>
       <c r="C69">
-        <v>-5.210101963158665e-05</v>
+        <v>0.007189380738075613</v>
       </c>
       <c r="D69">
-        <v>-8.177954852811968e-07</v>
+        <v>-0.0004878505898694746</v>
       </c>
       <c r="E69">
-        <v>8.050758440270728e-05</v>
+        <v>-0.01055133181954902</v>
       </c>
       <c r="F69">
-        <v>-1.359179345213811e-05</v>
+        <v>0.01163234136690041</v>
       </c>
       <c r="G69">
-        <v>4.365751900500793e-08</v>
+        <v>-6.365325063459284e-05</v>
       </c>
       <c r="H69">
-        <v>0.03426790199397943</v>
+        <v>0.1021071142052302</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.0008152598868519626</v>
+        <v>-0.01426160173469644</v>
       </c>
       <c r="C70">
-        <v>1.509873362372021e-06</v>
+        <v>-0.01335626147868757</v>
       </c>
       <c r="D70">
-        <v>2.869733447165177e-08</v>
+        <v>-0.0001288505890527297</v>
       </c>
       <c r="E70">
-        <v>-0.000689888259713306</v>
+        <v>0.00339249375174272</v>
       </c>
       <c r="F70">
-        <v>-0.0002966163861961739</v>
+        <v>0.005319499033543906</v>
       </c>
       <c r="G70">
-        <v>1.282408078698506e-06</v>
+        <v>-4.531311989315773e-05</v>
       </c>
       <c r="H70">
-        <v>0.03716557940730165</v>
+        <v>0.1101126537201098</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.0008750291214165724</v>
+        <v>-0.02770864092486431</v>
       </c>
       <c r="C71">
-        <v>0.0005689428409344024</v>
+        <v>-0.02033070030059743</v>
       </c>
       <c r="D71">
-        <v>-9.03632855774453e-06</v>
+        <v>-0.000191139533778107</v>
       </c>
       <c r="E71">
-        <v>6.651592826870806e-05</v>
+        <v>-0.01165627193097053</v>
       </c>
       <c r="F71">
-        <v>-1.492483419626993e-06</v>
+        <v>0.001898440776256885</v>
       </c>
       <c r="G71">
-        <v>7.863788332298424e-07</v>
+        <v>-6.411255667512486e-05</v>
       </c>
       <c r="H71">
-        <v>0.03447197858234046</v>
+        <v>0.1966963767471467</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.0008119826424066653</v>
+        <v>-0.01704471969332626</v>
       </c>
       <c r="C72">
-        <v>-0.0001552482021633995</v>
+        <v>-0.02149744631202757</v>
       </c>
       <c r="D72">
-        <v>-1.137131909891972e-05</v>
+        <v>-0.0001882574110658527</v>
       </c>
       <c r="E72">
-        <v>-0.0001413051165507322</v>
+        <v>-0.003101699475347525</v>
       </c>
       <c r="F72">
-        <v>0.000197659190071373</v>
+        <v>0.002296032426168244</v>
       </c>
       <c r="G72">
-        <v>-2.128537280843022e-07</v>
+        <v>-5.606019083687457e-05</v>
       </c>
       <c r="H72">
-        <v>0.03294469468892029</v>
+        <v>0.1709117327351972</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.0002448129114847901</v>
+        <v>-0.01493182505185055</v>
       </c>
       <c r="C73">
-        <v>-1.754988320394352e-05</v>
+        <v>-0.01997503765138196</v>
       </c>
       <c r="D73">
-        <v>1.091666055165196e-05</v>
+        <v>-7.233246986811381e-06</v>
       </c>
       <c r="E73">
-        <v>-0.0002952643874512585</v>
+        <v>-0.001736027562096273</v>
       </c>
       <c r="F73">
-        <v>-0.0002594226336169995</v>
+        <v>-0.003712392402192261</v>
       </c>
       <c r="G73">
-        <v>8.127089374771654e-07</v>
+        <v>-3.969662528533826e-05</v>
       </c>
       <c r="H73">
-        <v>0.03527057864300513</v>
+        <v>0.2073947605551809</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.0002066118110943017</v>
+        <v>-0.01397084102355752</v>
       </c>
       <c r="C74">
-        <v>0.0001319299061651907</v>
+        <v>-0.01055263754816302</v>
       </c>
       <c r="D74">
-        <v>-7.557615201013402e-06</v>
+        <v>-0.0001314119329935155</v>
       </c>
       <c r="E74">
-        <v>-0.0002561513495247525</v>
+        <v>-0.003883735142961239</v>
       </c>
       <c r="F74">
-        <v>-0.0001123555599943399</v>
+        <v>0.004168410218921537</v>
       </c>
       <c r="G74">
-        <v>6.493441822468324e-08</v>
+        <v>-6.04657593962063e-05</v>
       </c>
       <c r="H74">
-        <v>0.03580708045300776</v>
+        <v>0.1464312068984917</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.0006220308595107481</v>
+        <v>-0.02404814872172919</v>
       </c>
       <c r="C75">
-        <v>-0.0001636962564097954</v>
+        <v>-0.04127673204097415</v>
       </c>
       <c r="D75">
-        <v>-8.537216520652115e-06</v>
+        <v>1.780679034621616e-05</v>
       </c>
       <c r="E75">
-        <v>-0.0004094098517763746</v>
+        <v>-0.01534335835421985</v>
       </c>
       <c r="F75">
-        <v>-4.905170790967271e-05</v>
+        <v>-0.005896707511472424</v>
       </c>
       <c r="G75">
-        <v>1.770928351820783e-06</v>
+        <v>-3.970423193671464e-05</v>
       </c>
       <c r="H75">
-        <v>0.03440822505332959</v>
+        <v>0.2502032030371331</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.001557028116967267</v>
+        <v>-0.01751659400729635</v>
       </c>
       <c r="C76">
-        <v>0.0001462420371385667</v>
+        <v>-0.01563299395031086</v>
       </c>
       <c r="D76">
-        <v>-1.005132752421012e-05</v>
+        <v>-0.0001011018935283528</v>
       </c>
       <c r="E76">
-        <v>8.476435003312507e-05</v>
+        <v>-0.002476427920006768</v>
       </c>
       <c r="F76">
-        <v>0.0001448910364679081</v>
+        <v>0.005611376716000144</v>
       </c>
       <c r="G76">
-        <v>1.307408743459851e-06</v>
+        <v>-7.325855035016642e-05</v>
       </c>
       <c r="H76">
-        <v>0.03272042698136114</v>
+        <v>0.1479487291994175</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.0001019455221923119</v>
+        <v>-0.03796459514399562</v>
       </c>
       <c r="C77">
-        <v>-0.0001908166613625412</v>
+        <v>-0.02604933466112777</v>
       </c>
       <c r="D77">
-        <v>4.448365956884993e-06</v>
+        <v>-0.0001132391736026099</v>
       </c>
       <c r="E77">
-        <v>-0.0004993053369224676</v>
+        <v>-0.01060135498438178</v>
       </c>
       <c r="F77">
-        <v>-3.166922537165668e-06</v>
+        <v>0.003756046205517676</v>
       </c>
       <c r="G77">
-        <v>7.208816227769492e-07</v>
+        <v>-6.385506918008628e-05</v>
       </c>
       <c r="H77">
-        <v>0.0331133613169077</v>
+        <v>0.1798252919429265</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.0003079566694927688</v>
+        <v>0.01105971581259105</v>
       </c>
       <c r="C78">
-        <v>0.000652507228325543</v>
+        <v>-0.01068936072964471</v>
       </c>
       <c r="D78">
-        <v>-4.470726819212549e-07</v>
+        <v>0.0001187158018128016</v>
       </c>
       <c r="E78">
-        <v>-0.0003639750256522571</v>
+        <v>0.006424122185277145</v>
       </c>
       <c r="F78">
-        <v>-7.093859059503419e-05</v>
+        <v>0.0005700303833812341</v>
       </c>
       <c r="G78">
-        <v>-2.054099616227554e-08</v>
+        <v>-5.395260751864189e-05</v>
       </c>
       <c r="H78">
-        <v>0.03473259441111017</v>
+        <v>0.1433055132164866</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.0008005794792977504</v>
+        <v>-0.0228640285431334</v>
       </c>
       <c r="C79">
-        <v>-0.0003160605074213234</v>
+        <v>-0.03557729023184739</v>
       </c>
       <c r="D79">
-        <v>-1.419664878163106e-06</v>
+        <v>0.0001859496327883529</v>
       </c>
       <c r="E79">
-        <v>-7.883151872187938e-05</v>
+        <v>-0.01438067340749666</v>
       </c>
       <c r="F79">
-        <v>6.413278838955378e-05</v>
+        <v>-0.0002120232581348427</v>
       </c>
       <c r="G79">
-        <v>-2.138833511109732e-07</v>
+        <v>-3.918164276409426e-05</v>
       </c>
       <c r="H79">
-        <v>0.03362917907657566</v>
+        <v>0.1555409276535133</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.0009706763878622703</v>
+        <v>-0.03258552005013371</v>
       </c>
       <c r="C80">
-        <v>0.0007050459976579804</v>
+        <v>-0.003007387486090354</v>
       </c>
       <c r="D80">
-        <v>-1.042744121394379e-05</v>
+        <v>-0.0003191914538925389</v>
       </c>
       <c r="E80">
-        <v>6.24251400145881e-05</v>
+        <v>-0.003658172633400777</v>
       </c>
       <c r="F80">
-        <v>-0.0001451584603393734</v>
+        <v>0.006682456987872307</v>
       </c>
       <c r="G80">
-        <v>4.67825767096815e-08</v>
+        <v>-5.076158913548183e-05</v>
       </c>
       <c r="H80">
-        <v>0.03710062727297543</v>
+        <v>0.1342496558711772</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.0006789666820818333</v>
+        <v>-0.03045755194316309</v>
       </c>
       <c r="C81">
-        <v>0.0001497743705743267</v>
+        <v>0.01209850773161376</v>
       </c>
       <c r="D81">
-        <v>-3.760694484101188e-06</v>
+        <v>-0.0002051925015505655</v>
       </c>
       <c r="E81">
-        <v>0.0001007908701209093</v>
+        <v>0.001582406394466593</v>
       </c>
       <c r="F81">
-        <v>-5.181420335184043e-05</v>
+        <v>0.003705915877389542</v>
       </c>
       <c r="G81">
-        <v>6.986581987387948e-07</v>
+        <v>-5.426924059190431e-05</v>
       </c>
       <c r="H81">
-        <v>0.03450186388065307</v>
+        <v>0.1646548597467431</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.0002636860334239506</v>
+        <v>-0.01282805630772089</v>
       </c>
       <c r="C82">
-        <v>-3.927049019204439e-05</v>
+        <v>-0.008465272035936146</v>
       </c>
       <c r="D82">
-        <v>5.806874919303923e-06</v>
+        <v>-0.0001754022851310767</v>
       </c>
       <c r="E82">
-        <v>7.658048998923292e-05</v>
+        <v>0.01867690959834842</v>
       </c>
       <c r="F82">
-        <v>-0.0001992348511621491</v>
+        <v>0.01041202175692568</v>
       </c>
       <c r="G82">
-        <v>-5.833697549604684e-07</v>
+        <v>-7.461148680792736e-05</v>
       </c>
       <c r="H82">
-        <v>0.03617742865311087</v>
+        <v>0.0824429502169412</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.0001361725688309198</v>
+        <v>-0.03175453477930143</v>
       </c>
       <c r="C83">
-        <v>0.0008199903583580956</v>
+        <v>-0.05526243361350933</v>
       </c>
       <c r="D83">
-        <v>-3.514748667881827e-06</v>
+        <v>-0.0002090558258213409</v>
       </c>
       <c r="E83">
-        <v>6.910136160169153e-05</v>
+        <v>-0.0007464215221420906</v>
       </c>
       <c r="F83">
-        <v>0.0001014279044309617</v>
+        <v>-0.005958213790511835</v>
       </c>
       <c r="G83">
-        <v>2.037441979195029e-07</v>
+        <v>-6.96532797383435e-05</v>
       </c>
       <c r="H83">
-        <v>0.03239279780683892</v>
+        <v>0.3251984847999685</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.0004197315428584652</v>
+        <v>-0.03173964577440956</v>
       </c>
       <c r="C84">
-        <v>0.0007734696808770706</v>
+        <v>-0.03764321396910231</v>
       </c>
       <c r="D84">
-        <v>-7.72229195692816e-06</v>
+        <v>0.000149736109084823</v>
       </c>
       <c r="E84">
-        <v>5.267895524636163e-05</v>
+        <v>-0.004834527486300699</v>
       </c>
       <c r="F84">
-        <v>0.0001361888207656369</v>
+        <v>0.001710740279069424</v>
       </c>
       <c r="G84">
-        <v>6.405673538148071e-07</v>
+        <v>-4.834779732760148e-05</v>
       </c>
       <c r="H84">
-        <v>0.03242143804121854</v>
+        <v>0.1624283801243959</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.001307232432396081</v>
+        <v>-0.01109239529290745</v>
       </c>
       <c r="C85">
-        <v>-0.0005242780046307733</v>
+        <v>-0.01755222997243574</v>
       </c>
       <c r="D85">
-        <v>-3.981819459734042e-06</v>
+        <v>8.274680415971391e-06</v>
       </c>
       <c r="E85">
-        <v>-0.0004509132998695119</v>
+        <v>0.01158808427417377</v>
       </c>
       <c r="F85">
-        <v>0.0001586183514434292</v>
+        <v>-0.001612949432314232</v>
       </c>
       <c r="G85">
-        <v>7.529928545200532e-07</v>
+        <v>-4.621071721584417e-05</v>
       </c>
       <c r="H85">
-        <v>0.03258877029923632</v>
+        <v>0.1787409087574565</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.0006842105010854238</v>
+        <v>-0.02612468587139425</v>
       </c>
       <c r="C86">
-        <v>0.001168183167541917</v>
+        <v>-0.004326777211068957</v>
       </c>
       <c r="D86">
-        <v>-4.460211059858778e-06</v>
+        <v>-0.0001324483465348439</v>
       </c>
       <c r="E86">
-        <v>0.0001073031514075562</v>
+        <v>0.01196048508636652</v>
       </c>
       <c r="F86">
-        <v>-5.075756496936937e-05</v>
+        <v>0.01093729001964912</v>
       </c>
       <c r="G86">
-        <v>2.814441822963499e-07</v>
+        <v>-6.025777520893631e-05</v>
       </c>
       <c r="H86">
-        <v>0.03469489512978412</v>
+        <v>0.07226130493636188</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.001032150686476745</v>
+        <v>-0.03224318569787594</v>
       </c>
       <c r="C87">
-        <v>-0.0002752997335293194</v>
+        <v>-0.0201984709922525</v>
       </c>
       <c r="D87">
-        <v>-2.161506356376141e-07</v>
+        <v>-0.0003221798810063968</v>
       </c>
       <c r="E87">
-        <v>3.861417661558952e-07</v>
+        <v>-0.0172512567594308</v>
       </c>
       <c r="F87">
-        <v>-0.0003872568675336297</v>
+        <v>0.005458792780220421</v>
       </c>
       <c r="G87">
-        <v>1.102475647280193e-06</v>
+        <v>-6.997022917347262e-05</v>
       </c>
       <c r="H87">
-        <v>0.0383514954619572</v>
+        <v>0.1817449331669106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0001287574393611301</v>
+        <v>-0.04259357616273234</v>
       </c>
       <c r="C88">
-        <v>-0.0001933177462553862</v>
+        <v>-0.01371000722919805</v>
       </c>
       <c r="D88">
-        <v>-4.181499462187225e-06</v>
+        <v>-0.0002024392563848393</v>
       </c>
       <c r="E88">
-        <v>7.516593795327611e-05</v>
+        <v>-0.005582488664614138</v>
       </c>
       <c r="F88">
-        <v>-9.02810728461319e-05</v>
+        <v>-0.001542564284414333</v>
       </c>
       <c r="G88">
-        <v>1.405903411235194e-07</v>
+        <v>-5.104069583033033e-05</v>
       </c>
       <c r="H88">
-        <v>0.03497744035937055</v>
+        <v>0.2363186544225596</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.000212349583180174</v>
+        <v>-0.01572497673091817</v>
       </c>
       <c r="C89">
-        <v>-0.0006533113805906052</v>
+        <v>-0.03344199159813782</v>
       </c>
       <c r="D89">
-        <v>7.144038119434666e-07</v>
+        <v>0.0001365697986218561</v>
       </c>
       <c r="E89">
-        <v>-0.0003355213980842167</v>
+        <v>-0.0009934792777245016</v>
       </c>
       <c r="F89">
-        <v>-8.082612016304573e-06</v>
+        <v>-0.000414494290628147</v>
       </c>
       <c r="G89">
-        <v>4.969405540060357e-07</v>
+        <v>-4.299060342748464e-05</v>
       </c>
       <c r="H89">
-        <v>0.03372524365518602</v>
+        <v>0.1652563854222203</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0001766469471766938</v>
+        <v>-0.01932189709593096</v>
       </c>
       <c r="C90">
-        <v>-0.0006344141018260994</v>
+        <v>-0.0296629742327721</v>
       </c>
       <c r="D90">
-        <v>1.454946560119151e-05</v>
+        <v>-0.0001204052084464277</v>
       </c>
       <c r="E90">
-        <v>0.0001009783382953135</v>
+        <v>-0.01436222913049702</v>
       </c>
       <c r="F90">
-        <v>-0.0001375391725546384</v>
+        <v>-0.003367526679163236</v>
       </c>
       <c r="G90">
-        <v>1.404504968347401e-07</v>
+        <v>-4.479974699938657e-05</v>
       </c>
       <c r="H90">
-        <v>0.03373367199090811</v>
+        <v>0.2322411345158883</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.0008233096313879406</v>
+        <v>-0.01683322244750439</v>
       </c>
       <c r="C91">
-        <v>-0.0004091452472937164</v>
+        <v>-0.01198852315334157</v>
       </c>
       <c r="D91">
-        <v>-1.165745249571375e-05</v>
+        <v>0.0002556161424392842</v>
       </c>
       <c r="E91">
-        <v>-0.0004648191901235263</v>
+        <v>-0.001985930777544873</v>
       </c>
       <c r="F91">
-        <v>0.0001017177431859934</v>
+        <v>-0.004058148104183312</v>
       </c>
       <c r="G91">
-        <v>2.517906225169721e-07</v>
+        <v>-3.322977640522686e-05</v>
       </c>
       <c r="H91">
-        <v>0.03396221214784876</v>
+        <v>0.1796005782090507</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.000442927107108625</v>
+        <v>-0.001203290311493055</v>
       </c>
       <c r="C92">
-        <v>-0.0001025684445946718</v>
+        <v>-0.0288093837986677</v>
       </c>
       <c r="D92">
-        <v>-5.551730620374866e-06</v>
+        <v>-1.165777585279206e-06</v>
       </c>
       <c r="E92">
-        <v>0.0004617003896713497</v>
+        <v>-0.004951594993954631</v>
       </c>
       <c r="F92">
-        <v>9.289374878248364e-05</v>
+        <v>0.002928318914542002</v>
       </c>
       <c r="G92">
-        <v>1.795751146718548e-08</v>
+        <v>-7.754860542529097e-05</v>
       </c>
       <c r="H92">
-        <v>0.0330863381921661</v>
+        <v>0.1677915927458742</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.000930890594388078</v>
+        <v>-0.02457936289611296</v>
       </c>
       <c r="C93">
-        <v>-0.0003752078045568834</v>
+        <v>-0.01099232104112026</v>
       </c>
       <c r="D93">
-        <v>1.091081444356217e-06</v>
+        <v>-0.000282279597167807</v>
       </c>
       <c r="E93">
-        <v>-0.0005277385272094391</v>
+        <v>0.0062469790751805</v>
       </c>
       <c r="F93">
-        <v>8.471582955535281e-05</v>
+        <v>0.006717682017501525</v>
       </c>
       <c r="G93">
-        <v>-8.217696670299855e-07</v>
+        <v>-5.380889322919092e-05</v>
       </c>
       <c r="H93">
-        <v>0.0337996522425334</v>
+        <v>0.1257420901880971</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.545378371529011e-05</v>
+        <v>-0.007038315038525305</v>
       </c>
       <c r="C94">
-        <v>-0.0003843538382215441</v>
+        <v>-0.01087361771659407</v>
       </c>
       <c r="D94">
-        <v>6.744817969270451e-06</v>
+        <v>-0.0001163627669717069</v>
       </c>
       <c r="E94">
-        <v>-0.0002153367847499837</v>
+        <v>-0.005237898577959657</v>
       </c>
       <c r="F94">
-        <v>-7.962572301298954e-05</v>
+        <v>0.00187970359466693</v>
       </c>
       <c r="G94">
-        <v>-8.343451586308556e-07</v>
+        <v>-5.471001800980884e-05</v>
       </c>
       <c r="H94">
-        <v>0.03438354242376807</v>
+        <v>0.1639351234013479</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.211286239509749e-05</v>
+        <v>-0.01194787461000188</v>
       </c>
       <c r="C95">
-        <v>-0.001161829074921129</v>
+        <v>-0.006309938826247284</v>
       </c>
       <c r="D95">
-        <v>9.128677549560002e-06</v>
+        <v>2.516519522169539e-05</v>
       </c>
       <c r="E95">
-        <v>-0.0002118974000342617</v>
+        <v>0.003543398614600984</v>
       </c>
       <c r="F95">
-        <v>-0.0002078509584566645</v>
+        <v>0.002328253109505734</v>
       </c>
       <c r="G95">
-        <v>-1.279030735111889e-07</v>
+        <v>-2.571478531945532e-05</v>
       </c>
       <c r="H95">
-        <v>0.03564502748194376</v>
+        <v>0.1043740758564697</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.0004337664684167897</v>
+        <v>-0.03181138161731548</v>
       </c>
       <c r="C96">
-        <v>0.0009499493121770991</v>
+        <v>0.02516680274673772</v>
       </c>
       <c r="D96">
-        <v>-1.91180335927152e-06</v>
+        <v>1.997468338646889e-05</v>
       </c>
       <c r="E96">
-        <v>-0.0003020518534198602</v>
+        <v>-0.01506824353964147</v>
       </c>
       <c r="F96">
-        <v>-3.39195027962038e-05</v>
+        <v>0.004857123774185166</v>
       </c>
       <c r="G96">
-        <v>4.51568057004901e-07</v>
+        <v>-6.003755792978904e-05</v>
       </c>
       <c r="H96">
-        <v>0.03430776660620194</v>
+        <v>0.1459355105478706</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.0007575162237896857</v>
+        <v>-0.04832743927859885</v>
       </c>
       <c r="C97">
-        <v>-0.0008491333442943701</v>
+        <v>-0.02390330683469696</v>
       </c>
       <c r="D97">
-        <v>-3.947437959252423e-06</v>
+        <v>-6.551541475664431e-05</v>
       </c>
       <c r="E97">
-        <v>-0.0002037515512480249</v>
+        <v>0.02975483164979645</v>
       </c>
       <c r="F97">
-        <v>-0.0003691314873665052</v>
+        <v>0.003425810150750806</v>
       </c>
       <c r="G97">
-        <v>5.940350266658462e-07</v>
+        <v>-4.761066065845299e-05</v>
       </c>
       <c r="H97">
-        <v>0.03907456698642256</v>
+        <v>0.153786559782054</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.0008798043833864381</v>
+        <v>-0.02765599118104285</v>
       </c>
       <c r="C98">
-        <v>0.0005101393919067389</v>
+        <v>-0.02335330308285118</v>
       </c>
       <c r="D98">
-        <v>-3.010680651283001e-06</v>
+        <v>-0.0001099173510206254</v>
       </c>
       <c r="E98">
-        <v>-0.000400911644840133</v>
+        <v>-0.006768224197752845</v>
       </c>
       <c r="F98">
-        <v>5.687731390518314e-05</v>
+        <v>0.005250182143845454</v>
       </c>
       <c r="G98">
-        <v>6.945301120049211e-08</v>
+        <v>-3.883667695829931e-05</v>
       </c>
       <c r="H98">
-        <v>0.03345866315143046</v>
+        <v>0.1192967255198337</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.0008840618352449875</v>
+        <v>-0.03664569912519487</v>
       </c>
       <c r="C99">
-        <v>2.016952845535738e-05</v>
+        <v>-0.01757543446478242</v>
       </c>
       <c r="D99">
-        <v>-9.751808304030156e-06</v>
+        <v>-0.0002575372618697158</v>
       </c>
       <c r="E99">
-        <v>-0.00013059349979333</v>
+        <v>-0.0132744153045094</v>
       </c>
       <c r="F99">
-        <v>0.0001292264478480185</v>
+        <v>0.0008984802148536844</v>
       </c>
       <c r="G99">
-        <v>1.736879504790232e-07</v>
+        <v>-4.690822207918823e-05</v>
       </c>
       <c r="H99">
-        <v>0.03319408445624725</v>
+        <v>0.2015277292984405</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7.2190037976498e-05</v>
+        <v>-0.01505192929860241</v>
       </c>
       <c r="C100">
-        <v>0.0001594174480029751</v>
+        <v>-0.02191811134533875</v>
       </c>
       <c r="D100">
-        <v>5.901926408671874e-06</v>
+        <v>8.114383019352061e-05</v>
       </c>
       <c r="E100">
-        <v>0.0001020427811056768</v>
+        <v>-0.009581754939700621</v>
       </c>
       <c r="F100">
-        <v>0.0001569557505461652</v>
+        <v>-0.003594996531870058</v>
       </c>
       <c r="G100">
-        <v>-6.9916292703306e-07</v>
+        <v>-4.70615829686672e-05</v>
       </c>
       <c r="H100">
-        <v>0.0314082066114703</v>
+        <v>0.2101160620434101</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0001523428018683124</v>
+        <v>-0.008614664373616979</v>
       </c>
       <c r="C101">
-        <v>-0.0002072776684679391</v>
+        <v>-0.01356846282519563</v>
       </c>
       <c r="D101">
-        <v>1.313249313301721e-05</v>
+        <v>-8.294299055250601e-07</v>
       </c>
       <c r="E101">
-        <v>0.0006927302639081062</v>
+        <v>-0.008943082446948095</v>
       </c>
       <c r="F101">
-        <v>-0.0004455031961744354</v>
+        <v>-0.0001003442853196752</v>
       </c>
       <c r="G101">
-        <v>5.737085599128249e-07</v>
+        <v>-3.802068584049726e-05</v>
       </c>
       <c r="H101">
-        <v>0.03708561708801725</v>
+        <v>0.1555210235119025</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.0006228952119005085</v>
+        <v>-0.0033871686623586</v>
       </c>
       <c r="C102">
-        <v>-0.0003136077361479952</v>
+        <v>-0.003529592586597873</v>
       </c>
       <c r="D102">
-        <v>-3.149181319733913e-06</v>
+        <v>3.689064462114094e-05</v>
       </c>
       <c r="E102">
-        <v>-0.0001230191854291671</v>
+        <v>0.0001472075668459694</v>
       </c>
       <c r="F102">
-        <v>-1.079101311526952e-05</v>
+        <v>0.006545343781052402</v>
       </c>
       <c r="G102">
-        <v>2.596869003659629e-07</v>
+        <v>-5.070780443877549e-05</v>
       </c>
       <c r="H102">
-        <v>0.03428437077362881</v>
+        <v>0.0854717771574635</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.0002744767714847117</v>
+        <v>-0.007309750038391433</v>
       </c>
       <c r="C103">
-        <v>0.000504478129846329</v>
+        <v>-0.02436746818249568</v>
       </c>
       <c r="D103">
-        <v>9.876232272256891e-07</v>
+        <v>-9.026518194310749e-05</v>
       </c>
       <c r="E103">
-        <v>0.0003327224045582763</v>
+        <v>0.002255057725256665</v>
       </c>
       <c r="F103">
-        <v>-4.291815153888531e-05</v>
+        <v>0.001967179855191951</v>
       </c>
       <c r="G103">
-        <v>-1.43095914882359e-08</v>
+        <v>-5.717115928116114e-05</v>
       </c>
       <c r="H103">
-        <v>0.03420684025328458</v>
+        <v>0.1566673989654716</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.0007206124057956243</v>
+        <v>-0.02590669889278968</v>
       </c>
       <c r="C104">
-        <v>0.0006551127837368895</v>
+        <v>-0.02779634418588967</v>
       </c>
       <c r="D104">
-        <v>4.908553874292211e-07</v>
+        <v>-7.651979752508229e-05</v>
       </c>
       <c r="E104">
-        <v>-0.0008142629190193845</v>
+        <v>-0.004460494537515916</v>
       </c>
       <c r="F104">
-        <v>7.090580480124828e-05</v>
+        <v>-0.001598250415423841</v>
       </c>
       <c r="G104">
-        <v>-1.06185954059585e-08</v>
+        <v>-4.916527737057977e-05</v>
       </c>
       <c r="H104">
-        <v>0.0335565154793234</v>
+        <v>0.2174157054127973</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.708326160984727e-05</v>
+        <v>-0.01558014400401035</v>
       </c>
       <c r="C105">
-        <v>-0.0003935572419521293</v>
+        <v>-0.01383862508400573</v>
       </c>
       <c r="D105">
-        <v>1.482372106952519e-06</v>
+        <v>0.0001582787196557232</v>
       </c>
       <c r="E105">
-        <v>6.950170016982796e-05</v>
+        <v>-0.0004550387806347284</v>
       </c>
       <c r="F105">
-        <v>-0.0001972343896438846</v>
+        <v>-0.003392219729729213</v>
       </c>
       <c r="G105">
-        <v>9.501453727330186e-07</v>
+        <v>-3.160103728750968e-05</v>
       </c>
       <c r="H105">
-        <v>0.03537982184776833</v>
+        <v>0.1799289472869829</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.0003255810555365698</v>
+        <v>-0.01105850101574711</v>
       </c>
       <c r="C106">
-        <v>-0.0009408271926056987</v>
+        <v>-0.01825613595825285</v>
       </c>
       <c r="D106">
-        <v>8.208177391270074e-06</v>
+        <v>6.751174271462958e-05</v>
       </c>
       <c r="E106">
-        <v>0.0001124032379043322</v>
+        <v>-0.0005376153488776542</v>
       </c>
       <c r="F106">
-        <v>-0.0002760170344275302</v>
+        <v>-0.001758810757825329</v>
       </c>
       <c r="G106">
-        <v>6.112261505560313e-07</v>
+        <v>-4.402733618857539e-05</v>
       </c>
       <c r="H106">
-        <v>0.03609397490758851</v>
+        <v>0.1907852633471308</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.001066828868381361</v>
+        <v>0.003878835345773527</v>
       </c>
       <c r="C107">
-        <v>0.0001039061630428807</v>
+        <v>-0.01732941696310163</v>
       </c>
       <c r="D107">
-        <v>-5.671728003987108e-06</v>
+        <v>-8.058624685910097e-05</v>
       </c>
       <c r="E107">
-        <v>-0.0003435231989946871</v>
+        <v>-0.001897351711590722</v>
       </c>
       <c r="F107">
-        <v>0.0003143533591092065</v>
+        <v>0.003676540194279927</v>
       </c>
       <c r="G107">
-        <v>3.233489431212029e-07</v>
+        <v>-7.871636886739531e-05</v>
       </c>
       <c r="H107">
-        <v>0.03102832321757083</v>
+        <v>0.1586932290932623</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0001226951360524362</v>
+        <v>-0.01389505640899328</v>
       </c>
       <c r="C108">
-        <v>-6.184904205259122e-05</v>
+        <v>0.001240686124669101</v>
       </c>
       <c r="D108">
-        <v>1.234138193431211e-06</v>
+        <v>-1.326056012603964e-05</v>
       </c>
       <c r="E108">
-        <v>0.000360390118003262</v>
+        <v>-0.006747319345755856</v>
       </c>
       <c r="F108">
-        <v>-0.0002300063848924871</v>
+        <v>0.0004787752761225051</v>
       </c>
       <c r="G108">
-        <v>6.289254635833395e-07</v>
+        <v>-3.913053262423302e-05</v>
       </c>
       <c r="H108">
-        <v>0.0356957856660181</v>
+        <v>0.1544102483017377</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.001237169028527506</v>
+        <v>-0.02107792481650731</v>
       </c>
       <c r="C109">
-        <v>0.0005344929895193331</v>
+        <v>-0.02159147870553428</v>
       </c>
       <c r="D109">
-        <v>-9.715737069902248e-06</v>
+        <v>0.0002194428506436515</v>
       </c>
       <c r="E109">
-        <v>-9.889891035581161e-05</v>
+        <v>0.006274191946754812</v>
       </c>
       <c r="F109">
-        <v>0.0001983773806482076</v>
+        <v>-0.001753820229322482</v>
       </c>
       <c r="G109">
-        <v>7.068002603375306e-07</v>
+        <v>-2.890839792105255e-05</v>
       </c>
       <c r="H109">
-        <v>0.03240430928794566</v>
+        <v>0.150861425034471</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.0008004489122790332</v>
+        <v>-0.03895520644909886</v>
       </c>
       <c r="C110">
-        <v>0.000399562623607511</v>
+        <v>-0.04637292089016008</v>
       </c>
       <c r="D110">
-        <v>-1.374593277973134e-06</v>
+        <v>-9.715912281152875e-05</v>
       </c>
       <c r="E110">
-        <v>0.0006376700724576093</v>
+        <v>-0.01582927878831852</v>
       </c>
       <c r="F110">
-        <v>2.422851743701077e-05</v>
+        <v>-0.002243561594587083</v>
       </c>
       <c r="G110">
-        <v>4.031374794190421e-07</v>
+        <v>-6.65773098555138e-05</v>
       </c>
       <c r="H110">
-        <v>0.03352366198767858</v>
+        <v>0.2601123411673918</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.0003293296345669226</v>
+        <v>-0.03308234099669273</v>
       </c>
       <c r="C111">
-        <v>-0.0008797759266938952</v>
+        <v>-0.01559771195012791</v>
       </c>
       <c r="D111">
-        <v>-4.523400107374426e-06</v>
+        <v>-0.0001749277836957452</v>
       </c>
       <c r="E111">
-        <v>0.0002453756941850141</v>
+        <v>-0.000186390590710489</v>
       </c>
       <c r="F111">
-        <v>-0.0005939373817276294</v>
+        <v>0.007303471556929278</v>
       </c>
       <c r="G111">
-        <v>1.406962916819875e-06</v>
+        <v>-4.118187413930696e-05</v>
       </c>
       <c r="H111">
-        <v>0.04087919744271669</v>
+        <v>0.1026605247303667</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.0009320329995626017</v>
+        <v>-0.03124726329710838</v>
       </c>
       <c r="C112">
-        <v>-0.0004546426834387711</v>
+        <v>-0.01273708921152847</v>
       </c>
       <c r="D112">
-        <v>-9.997783262716389e-06</v>
+        <v>4.134730332268828e-05</v>
       </c>
       <c r="E112">
-        <v>5.626526489423134e-06</v>
+        <v>0.004295894587538387</v>
       </c>
       <c r="F112">
-        <v>4.897231512761887e-05</v>
+        <v>0.0006590787190197489</v>
       </c>
       <c r="G112">
-        <v>7.041999498305722e-07</v>
+        <v>-4.029470724407067e-05</v>
       </c>
       <c r="H112">
-        <v>0.03442749320178342</v>
+        <v>0.1573334183486279</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.000670451750809369</v>
+        <v>-0.02438613296153275</v>
       </c>
       <c r="C113">
-        <v>-0.0009810037730321787</v>
+        <v>-0.01099321685209667</v>
       </c>
       <c r="D113">
-        <v>-6.782338306578664e-06</v>
+        <v>-0.0003909555574988244</v>
       </c>
       <c r="E113">
-        <v>2.185165482156831e-05</v>
+        <v>-0.00975918778954557</v>
       </c>
       <c r="F113">
-        <v>-0.000107006880011475</v>
+        <v>0.006243264203241264</v>
       </c>
       <c r="G113">
-        <v>5.997160562154591e-07</v>
+        <v>-5.348903049603384e-05</v>
       </c>
       <c r="H113">
-        <v>0.03580635939560942</v>
+        <v>0.1419805824091983</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.0006902735469567676</v>
+        <v>-0.0276515287215227</v>
       </c>
       <c r="C114">
-        <v>0.0003189643701977062</v>
+        <v>-0.03411104496585786</v>
       </c>
       <c r="D114">
-        <v>-8.687650807993009e-06</v>
+        <v>0.0001290881104422826</v>
       </c>
       <c r="E114">
-        <v>-0.0006208460823808673</v>
+        <v>-0.015669996801063</v>
       </c>
       <c r="F114">
-        <v>-7.245355586160332e-05</v>
+        <v>-0.006810299763428963</v>
       </c>
       <c r="G114">
-        <v>1.175216340552471e-06</v>
+        <v>-5.034562137776708e-05</v>
       </c>
       <c r="H114">
-        <v>0.03529902236244297</v>
+        <v>0.2651626858521778</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.0008296313782367401</v>
+        <v>-0.02015447743472394</v>
       </c>
       <c r="C115">
-        <v>-0.0007389485812793996</v>
+        <v>0.008533524373204319</v>
       </c>
       <c r="D115">
-        <v>-5.239336083240208e-06</v>
+        <v>-0.000453084336440528</v>
       </c>
       <c r="E115">
-        <v>-0.0003660450270665319</v>
+        <v>-0.01327101238416943</v>
       </c>
       <c r="F115">
-        <v>-0.0001736922426000633</v>
+        <v>0.008627045025487315</v>
       </c>
       <c r="G115">
-        <v>3.973259794478317e-07</v>
+        <v>-6.587472847876378e-05</v>
       </c>
       <c r="H115">
-        <v>0.03695309967827055</v>
+        <v>0.1289498460190481</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.0006910415010746773</v>
+        <v>-0.01293065843193179</v>
       </c>
       <c r="C116">
-        <v>-0.00120161547908113</v>
+        <v>-0.0139445544221748</v>
       </c>
       <c r="D116">
-        <v>-4.314678391397815e-06</v>
+        <v>4.478626831368881e-06</v>
       </c>
       <c r="E116">
-        <v>0.0001364510679952441</v>
+        <v>0.002880516836609226</v>
       </c>
       <c r="F116">
-        <v>-8.710084830110292e-05</v>
+        <v>-0.0005695407761370031</v>
       </c>
       <c r="G116">
-        <v>1.954734479138465e-07</v>
+        <v>-2.871597014825333e-05</v>
       </c>
       <c r="H116">
-        <v>0.03521044754822698</v>
+        <v>0.1486494933723737</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.001042724926081535</v>
+        <v>-0.02345460375555412</v>
       </c>
       <c r="C117">
-        <v>-7.23667107491565e-05</v>
+        <v>-0.01246579221900798</v>
       </c>
       <c r="D117">
-        <v>-2.324125436746394e-06</v>
+        <v>7.871481078982306e-05</v>
       </c>
       <c r="E117">
-        <v>6.602216916520506e-05</v>
+        <v>0.00890883850709917</v>
       </c>
       <c r="F117">
-        <v>-0.0002608539371738149</v>
+        <v>0.002638872584540857</v>
       </c>
       <c r="G117">
-        <v>9.428782229658965e-07</v>
+        <v>-3.690330962855493e-05</v>
       </c>
       <c r="H117">
-        <v>0.03730115061725361</v>
+        <v>0.1201602202636814</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.0005771769378481767</v>
+        <v>-0.04533624062381495</v>
       </c>
       <c r="C118">
-        <v>-0.0003327479872853726</v>
+        <v>-0.03262104286995697</v>
       </c>
       <c r="D118">
-        <v>-4.092137435957785e-06</v>
+        <v>-0.0001505448981885307</v>
       </c>
       <c r="E118">
-        <v>0.0003307571324597421</v>
+        <v>-0.006687033270522294</v>
       </c>
       <c r="F118">
-        <v>0.0002240919518765374</v>
+        <v>0.001680109938871033</v>
       </c>
       <c r="G118">
-        <v>-2.575453448057734e-07</v>
+        <v>-5.301823115316153e-05</v>
       </c>
       <c r="H118">
-        <v>0.03151627817246913</v>
+        <v>0.2011464274485446</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.0008784206707734155</v>
+        <v>-0.02560506269725052</v>
       </c>
       <c r="C119">
-        <v>0.002072227716712872</v>
+        <v>-0.02521666809658681</v>
       </c>
       <c r="D119">
-        <v>-1.81090554632926e-05</v>
+        <v>0.0002159828380046509</v>
       </c>
       <c r="E119">
-        <v>0.001097511846390876</v>
+        <v>-0.01040736096980518</v>
       </c>
       <c r="F119">
-        <v>-2.919550094727903e-05</v>
+        <v>0.0001763924037918498</v>
       </c>
       <c r="G119">
-        <v>-1.399709956317806e-07</v>
+        <v>-3.941076892685568e-05</v>
       </c>
       <c r="H119">
-        <v>0.03609104967580037</v>
+        <v>0.1515160439358811</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.0008425343285351841</v>
+        <v>-0.01348084362013203</v>
       </c>
       <c r="C120">
-        <v>0.0003964182608932703</v>
+        <v>-0.03095583248625705</v>
       </c>
       <c r="D120">
-        <v>-7.891521941702403e-06</v>
+        <v>-0.0001425690799761735</v>
       </c>
       <c r="E120">
-        <v>0.000114967343525639</v>
+        <v>-0.0136477940190924</v>
       </c>
       <c r="F120">
-        <v>0.0001141901005783729</v>
+        <v>-0.00175665688325363</v>
       </c>
       <c r="G120">
-        <v>-6.090096411448966e-07</v>
+        <v>-6.69483257582401e-05</v>
       </c>
       <c r="H120">
-        <v>0.03389194497549172</v>
+        <v>0.2461664148370885</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.0001689775583811519</v>
+        <v>0.003831547773969634</v>
       </c>
       <c r="C121">
-        <v>0.0001634166589435343</v>
+        <v>-0.01055890555459869</v>
       </c>
       <c r="D121">
-        <v>-5.689381665759277e-07</v>
+        <v>6.460836899348564e-06</v>
       </c>
       <c r="E121">
-        <v>-0.0001084540516997981</v>
+        <v>-0.01067238268112423</v>
       </c>
       <c r="F121">
-        <v>-0.0002409506813295383</v>
+        <v>-0.006695054382023951</v>
       </c>
       <c r="G121">
-        <v>9.912057151759961e-07</v>
+        <v>-3.911316029424763e-05</v>
       </c>
       <c r="H121">
-        <v>0.03605108198345521</v>
+        <v>0.2406802568337147</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC2_coef.xlsx
+++ b/FOMC2_coef.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.01306581234078166</v>
+        <v>-0.01761687507666351</v>
       </c>
       <c r="C2">
-        <v>-0.0165793666585461</v>
+        <v>-0.007341911878220161</v>
       </c>
       <c r="D2">
-        <v>-2.583860278265873e-06</v>
+        <v>-2.823709549003542e-05</v>
       </c>
       <c r="E2">
-        <v>-0.0009831195257298808</v>
+        <v>-0.002831595429974784</v>
       </c>
       <c r="F2">
-        <v>0.00168897012540985</v>
+        <v>-0.0001671016630846069</v>
       </c>
       <c r="G2">
-        <v>-2.781257360048543e-05</v>
+        <v>-2.010018564365356e-05</v>
       </c>
       <c r="H2">
-        <v>0.1227010502817131</v>
+        <v>0.1260239357169935</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009740748561202994</v>
+        <v>-0.004090716579114785</v>
       </c>
       <c r="C3">
-        <v>-0.03202562290963519</v>
+        <v>-0.01634645326484934</v>
       </c>
       <c r="D3">
-        <v>0.0004342120673071341</v>
+        <v>0.000103145057766563</v>
       </c>
       <c r="E3">
-        <v>-0.008917049137466243</v>
+        <v>-0.0003765146344975184</v>
       </c>
       <c r="F3">
-        <v>-0.01303239439022082</v>
+        <v>-0.0006471658822306495</v>
       </c>
       <c r="G3">
-        <v>-4.000774594085949e-05</v>
+        <v>-1.25207019219476e-05</v>
       </c>
       <c r="H3">
-        <v>0.2819337875860021</v>
+        <v>0.1043414446217665</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.03427738725022926</v>
+        <v>-0.009241472561786616</v>
       </c>
       <c r="C4">
-        <v>-0.01198674790206538</v>
+        <v>0.0008246384409648722</v>
       </c>
       <c r="D4">
-        <v>-0.0002218254218650281</v>
+        <v>-3.142148962447418e-07</v>
       </c>
       <c r="E4">
-        <v>-0.004488116319141477</v>
+        <v>-0.002789293807443249</v>
       </c>
       <c r="F4">
-        <v>0.0001127719863700822</v>
+        <v>4.921552372192317e-05</v>
       </c>
       <c r="G4">
-        <v>-5.495546057735259e-05</v>
+        <v>-1.705677707018634e-05</v>
       </c>
       <c r="H4">
-        <v>0.2160061397521072</v>
+        <v>0.1110216344623169</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.01282906236620086</v>
+        <v>-0.006600357811882961</v>
       </c>
       <c r="C5">
-        <v>-0.01234430210176318</v>
+        <v>-0.003787383070630193</v>
       </c>
       <c r="D5">
-        <v>-3.238977794939118e-07</v>
+        <v>-2.964792182910631e-05</v>
       </c>
       <c r="E5">
-        <v>0.004653038999092113</v>
+        <v>0.003694645024357415</v>
       </c>
       <c r="F5">
-        <v>0.002439317554369228</v>
+        <v>-0.001325839960083424</v>
       </c>
       <c r="G5">
-        <v>-3.964480092720426e-05</v>
+        <v>-2.093970723737406e-05</v>
       </c>
       <c r="H5">
-        <v>0.1264823271551924</v>
+        <v>0.1320504669175651</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.02195295876217981</v>
+        <v>-0.01178179297916595</v>
       </c>
       <c r="C6">
-        <v>-0.03669713742845349</v>
+        <v>-0.009297277178485939</v>
       </c>
       <c r="D6">
-        <v>0.0001595569385502544</v>
+        <v>-1.567222037607884e-06</v>
       </c>
       <c r="E6">
-        <v>-0.002224267527284426</v>
+        <v>-0.000144318998222856</v>
       </c>
       <c r="F6">
-        <v>0.0003329951106546183</v>
+        <v>0.001224243671710943</v>
       </c>
       <c r="G6">
-        <v>-6.883335412633806e-05</v>
+        <v>-2.063736283531499e-05</v>
       </c>
       <c r="H6">
-        <v>0.1902587790468787</v>
+        <v>0.0993542178699246</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.02845331287522228</v>
+        <v>-0.01312445321507365</v>
       </c>
       <c r="C7">
-        <v>-0.01972856542031638</v>
+        <v>-0.00577739311656137</v>
       </c>
       <c r="D7">
-        <v>-0.0001877938714150278</v>
+        <v>-5.27398631736989e-05</v>
       </c>
       <c r="E7">
-        <v>-0.002591646461101549</v>
+        <v>-0.003436397050652303</v>
       </c>
       <c r="F7">
-        <v>0.003947865675236419</v>
+        <v>0.001623870000963673</v>
       </c>
       <c r="G7">
-        <v>-4.722760471100934e-05</v>
+        <v>-1.45555685683811e-05</v>
       </c>
       <c r="H7">
-        <v>0.1442363742243227</v>
+        <v>0.09729428198353719</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.0233821718155735</v>
+        <v>-0.003921110922453244</v>
       </c>
       <c r="C8">
-        <v>-0.00883321090812356</v>
+        <v>-0.01282609256027615</v>
       </c>
       <c r="D8">
-        <v>-4.455131639340489e-05</v>
+        <v>4.719137325873723e-05</v>
       </c>
       <c r="E8">
-        <v>-0.005812397509563971</v>
+        <v>0.008205797157451816</v>
       </c>
       <c r="F8">
-        <v>0.003581925465785266</v>
+        <v>-0.002186625855523244</v>
       </c>
       <c r="G8">
-        <v>-6.726575064369103e-05</v>
+        <v>-1.57588466353305e-05</v>
       </c>
       <c r="H8">
-        <v>0.161222019139187</v>
+        <v>0.129204748568424</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.008984872731124872</v>
+        <v>-0.01077343431650749</v>
       </c>
       <c r="C9">
-        <v>-0.00803212725907492</v>
+        <v>-0.005128064352004335</v>
       </c>
       <c r="D9">
-        <v>6.384576005049076e-05</v>
+        <v>4.392227930341243e-05</v>
       </c>
       <c r="E9">
-        <v>0.002980032117142151</v>
+        <v>0.0005694968561855071</v>
       </c>
       <c r="F9">
-        <v>5.751856860220514e-05</v>
+        <v>0.00191092504323008</v>
       </c>
       <c r="G9">
-        <v>-5.154666148914934e-05</v>
+        <v>-1.897091293721295e-05</v>
       </c>
       <c r="H9">
-        <v>0.1648735351818387</v>
+        <v>0.0885551425819963</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.0226598503336124</v>
+        <v>-0.001194118392523447</v>
       </c>
       <c r="C10">
-        <v>-0.03378330132727538</v>
+        <v>-0.01019751794438881</v>
       </c>
       <c r="D10">
-        <v>2.360544599620839e-05</v>
+        <v>-1.426514932312924e-05</v>
       </c>
       <c r="E10">
-        <v>0.01160422430604044</v>
+        <v>0.001536470617989408</v>
       </c>
       <c r="F10">
-        <v>0.004563127854075127</v>
+        <v>-0.0009022746236225811</v>
       </c>
       <c r="G10">
-        <v>-7.967295012972517e-05</v>
+        <v>-2.302167427449027e-05</v>
       </c>
       <c r="H10">
-        <v>0.1565909516596101</v>
+        <v>0.1262710507918265</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.02662127657286742</v>
+        <v>-0.006593894589137807</v>
       </c>
       <c r="C11">
-        <v>-0.02661410711069104</v>
+        <v>-0.01260137254975455</v>
       </c>
       <c r="D11">
-        <v>-3.708575814609365e-05</v>
+        <v>4.217404474941458e-05</v>
       </c>
       <c r="E11">
-        <v>-0.002271055058522042</v>
+        <v>0.007251054229669505</v>
       </c>
       <c r="F11">
-        <v>-0.003488859091561968</v>
+        <v>-0.0006303100565855358</v>
       </c>
       <c r="G11">
-        <v>-5.345201806218687e-05</v>
+        <v>-2.183073955240525e-05</v>
       </c>
       <c r="H11">
-        <v>0.2353378587655555</v>
+        <v>0.1163324928097335</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.02100833574209356</v>
+        <v>-0.005558757007317381</v>
       </c>
       <c r="C12">
-        <v>-0.01576635136471695</v>
+        <v>-0.004933221658960091</v>
       </c>
       <c r="D12">
-        <v>-0.0001242022979995817</v>
+        <v>1.243087413599594e-05</v>
       </c>
       <c r="E12">
-        <v>-0.006335742774929418</v>
+        <v>-0.001483052899977522</v>
       </c>
       <c r="F12">
-        <v>0.001002990866250684</v>
+        <v>-0.0007620555568940859</v>
       </c>
       <c r="G12">
-        <v>-5.613349805176647e-05</v>
+        <v>-2.080211348934867e-05</v>
       </c>
       <c r="H12">
-        <v>0.1897712875043075</v>
+        <v>0.1216857422364024</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.01597841177451645</v>
+        <v>-0.003444767442832584</v>
       </c>
       <c r="C13">
-        <v>-0.01163947508644939</v>
+        <v>-0.003157648283337268</v>
       </c>
       <c r="D13">
-        <v>5.31058817124848e-05</v>
+        <v>6.589470419602415e-05</v>
       </c>
       <c r="E13">
-        <v>-0.001990121777491166</v>
+        <v>0.001826393338980922</v>
       </c>
       <c r="F13">
-        <v>-0.003701041140690654</v>
+        <v>0.0007321137923465841</v>
       </c>
       <c r="G13">
-        <v>-4.109141973297363e-05</v>
+        <v>-1.608775202376204e-05</v>
       </c>
       <c r="H13">
-        <v>0.2099069353103714</v>
+        <v>0.08891869089193627</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.0249758237815177</v>
+        <v>-0.01161205850340797</v>
       </c>
       <c r="C14">
-        <v>-0.03194989541652474</v>
+        <v>-0.007573499904338671</v>
       </c>
       <c r="D14">
-        <v>8.670928310157247e-05</v>
+        <v>2.115540546474571e-05</v>
       </c>
       <c r="E14">
-        <v>0.01444035500770302</v>
+        <v>-0.001364654751709687</v>
       </c>
       <c r="F14">
-        <v>0.002545813355320302</v>
+        <v>-0.001351603519198152</v>
       </c>
       <c r="G14">
-        <v>-4.416402387523558e-05</v>
+        <v>-1.374246402914722e-05</v>
       </c>
       <c r="H14">
-        <v>0.1365292957599247</v>
+        <v>0.1287265685911076</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.02553538619299832</v>
+        <v>-0.01011185747419786</v>
       </c>
       <c r="C15">
-        <v>0.004559405166387053</v>
+        <v>-0.006971608846109565</v>
       </c>
       <c r="D15">
-        <v>-0.0001514259885651074</v>
+        <v>5.037221070193721e-05</v>
       </c>
       <c r="E15">
-        <v>-0.007524396443882087</v>
+        <v>-0.00157175771517306</v>
       </c>
       <c r="F15">
-        <v>0.0027116305047438</v>
+        <v>0.0001203960844869982</v>
       </c>
       <c r="G15">
-        <v>-4.685433100932133e-05</v>
+        <v>-1.058545509991864e-05</v>
       </c>
       <c r="H15">
-        <v>0.1614893144050131</v>
+        <v>0.09923019409752901</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.003973270327054244</v>
+        <v>-0.01119630373194401</v>
       </c>
       <c r="C16">
-        <v>-0.02859431550033107</v>
+        <v>-0.001734207886582821</v>
       </c>
       <c r="D16">
-        <v>0.0001598478414559719</v>
+        <v>-2.852242414055619e-05</v>
       </c>
       <c r="E16">
-        <v>-0.01144021822157908</v>
+        <v>0.001203771961681026</v>
       </c>
       <c r="F16">
-        <v>-0.007260008805059578</v>
+        <v>0.0006033506659921478</v>
       </c>
       <c r="G16">
-        <v>-4.637941485540245e-05</v>
+        <v>-1.091000815465399e-05</v>
       </c>
       <c r="H16">
-        <v>0.248006552598408</v>
+        <v>0.1003926906964236</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.005470322010386223</v>
+        <v>-0.01200555847175927</v>
       </c>
       <c r="C17">
-        <v>-0.01436023915460444</v>
+        <v>-0.002961686810507997</v>
       </c>
       <c r="D17">
-        <v>-3.97989004257177e-05</v>
+        <v>2.565691999754567e-05</v>
       </c>
       <c r="E17">
-        <v>0.009505651224079703</v>
+        <v>0.0006174860911359048</v>
       </c>
       <c r="F17">
-        <v>0.004344764491695346</v>
+        <v>-0.0005141376618474057</v>
       </c>
       <c r="G17">
-        <v>-4.400281413244256e-05</v>
+        <v>-1.933153786210031e-05</v>
       </c>
       <c r="H17">
-        <v>0.1019961731828913</v>
+        <v>0.1185783565162201</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.03878784749299841</v>
+        <v>-0.01387646929212988</v>
       </c>
       <c r="C18">
-        <v>-0.03186495591075156</v>
+        <v>-0.01019255884014354</v>
       </c>
       <c r="D18">
-        <v>8.55637168203871e-05</v>
+        <v>-2.430744858161846e-05</v>
       </c>
       <c r="E18">
-        <v>-0.006218403727328986</v>
+        <v>0.001914972695904169</v>
       </c>
       <c r="F18">
-        <v>0.002153533765422172</v>
+        <v>-0.001378882642207489</v>
       </c>
       <c r="G18">
-        <v>-5.093524219027571e-05</v>
+        <v>-1.569127954725329e-05</v>
       </c>
       <c r="H18">
-        <v>0.1637194872384614</v>
+        <v>0.1338271610861021</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.02832806722630465</v>
+        <v>-0.01541560074758542</v>
       </c>
       <c r="C19">
-        <v>-0.02553991593063693</v>
+        <v>-0.005973891301249132</v>
       </c>
       <c r="D19">
-        <v>2.015451299417978e-05</v>
+        <v>4.206813881232361e-05</v>
       </c>
       <c r="E19">
-        <v>-0.007339697142369095</v>
+        <v>-0.001005618296342228</v>
       </c>
       <c r="F19">
-        <v>0.001921160321974921</v>
+        <v>0.0006391240524549631</v>
       </c>
       <c r="G19">
-        <v>-4.243712340050864e-05</v>
+        <v>-1.605204896276445e-05</v>
       </c>
       <c r="H19">
-        <v>0.151815882996287</v>
+        <v>0.1038527863357375</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.04646261435456406</v>
+        <v>-0.02326605125404418</v>
       </c>
       <c r="C20">
-        <v>0.0005094084632766629</v>
+        <v>-0.0123992831497129</v>
       </c>
       <c r="D20">
-        <v>-0.0002337672372235244</v>
+        <v>5.485032214727322e-05</v>
       </c>
       <c r="E20">
-        <v>0.008419181687939384</v>
+        <v>0.0008962717322246322</v>
       </c>
       <c r="F20">
-        <v>0.008934007656785368</v>
+        <v>0.002252417616825836</v>
       </c>
       <c r="G20">
-        <v>-8.483254128176398e-05</v>
+        <v>-1.673771322004928e-05</v>
       </c>
       <c r="H20">
-        <v>0.1505894821982834</v>
+        <v>0.08967262381774301</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.00284982211616192</v>
+        <v>-0.01210066208671525</v>
       </c>
       <c r="C21">
-        <v>-0.03345199069918275</v>
+        <v>-0.006977615565496743</v>
       </c>
       <c r="D21">
-        <v>0.0003053397166415668</v>
+        <v>-1.371919954742167e-05</v>
       </c>
       <c r="E21">
-        <v>0.003917807447212915</v>
+        <v>-0.006665268269627718</v>
       </c>
       <c r="F21">
-        <v>0.00107628266161747</v>
+        <v>0.0009311712709614835</v>
       </c>
       <c r="G21">
-        <v>-5.072196802867915e-05</v>
+        <v>-1.905972728160471e-05</v>
       </c>
       <c r="H21">
-        <v>0.1298702164597545</v>
+        <v>0.1056999790483012</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.01274385092476885</v>
+        <v>-0.01340987719599823</v>
       </c>
       <c r="C22">
-        <v>-0.01314770048098561</v>
+        <v>-0.005004486911029782</v>
       </c>
       <c r="D22">
-        <v>-0.000172439112210444</v>
+        <v>1.974933060546328e-05</v>
       </c>
       <c r="E22">
-        <v>-0.001921043094178912</v>
+        <v>-0.002546268083566942</v>
       </c>
       <c r="F22">
-        <v>0.002745199454099617</v>
+        <v>3.703582697479446e-05</v>
       </c>
       <c r="G22">
-        <v>-5.646238954496883e-05</v>
+        <v>-1.383971313384571e-05</v>
       </c>
       <c r="H22">
-        <v>0.1628545667693167</v>
+        <v>0.1100030973979529</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.01846274053253402</v>
+        <v>-0.006690316691019676</v>
       </c>
       <c r="C23">
-        <v>-0.04509459396442092</v>
+        <v>-0.00995477532047755</v>
       </c>
       <c r="D23">
-        <v>0.0003593927052625977</v>
+        <v>8.198850587019135e-05</v>
       </c>
       <c r="E23">
-        <v>0.001584043413667621</v>
+        <v>-0.002645616328788063</v>
       </c>
       <c r="F23">
-        <v>-0.003786874509510172</v>
+        <v>-0.002206250136924909</v>
       </c>
       <c r="G23">
-        <v>-4.266226703382681e-05</v>
+        <v>-1.348682760146256e-05</v>
       </c>
       <c r="H23">
-        <v>0.18721860790697</v>
+        <v>0.1277363721175907</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0004547699661855758</v>
+        <v>-0.01229820289663775</v>
       </c>
       <c r="C24">
-        <v>-0.02511586262586139</v>
+        <v>-0.002558126496959512</v>
       </c>
       <c r="D24">
-        <v>9.53476726860013e-05</v>
+        <v>1.975746334300114e-05</v>
       </c>
       <c r="E24">
-        <v>-0.00735190968756462</v>
+        <v>0.0006401620792000698</v>
       </c>
       <c r="F24">
-        <v>-0.001461934758728984</v>
+        <v>-0.002118272956239562</v>
       </c>
       <c r="G24">
-        <v>-6.174736613414404e-05</v>
+        <v>-1.375077499987578e-05</v>
       </c>
       <c r="H24">
-        <v>0.192032799562864</v>
+        <v>0.1347352285896314</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.0130663777348353</v>
+        <v>-0.01736329519894832</v>
       </c>
       <c r="C25">
-        <v>-0.03901227779702245</v>
+        <v>-0.001525413145638085</v>
       </c>
       <c r="D25">
-        <v>0.0001222209057530668</v>
+        <v>3.225996659603419e-06</v>
       </c>
       <c r="E25">
-        <v>-0.01156683697137173</v>
+        <v>0.001011490214009501</v>
       </c>
       <c r="F25">
-        <v>-0.004140224707775971</v>
+        <v>0.001466335025514253</v>
       </c>
       <c r="G25">
-        <v>-4.784711251063661e-05</v>
+        <v>-8.867176349884355e-06</v>
       </c>
       <c r="H25">
-        <v>0.2228409126369723</v>
+        <v>0.08912707705141086</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.009632292139437854</v>
+        <v>-0.01426682087042177</v>
       </c>
       <c r="C26">
-        <v>-0.05489988708626911</v>
+        <v>-0.00805734693009655</v>
       </c>
       <c r="D26">
-        <v>0.0004460268142917512</v>
+        <v>5.690165524298719e-05</v>
       </c>
       <c r="E26">
-        <v>-0.01157244863571151</v>
+        <v>-0.001947378013028897</v>
       </c>
       <c r="F26">
-        <v>-0.019534598332892</v>
+        <v>0.001570347733819347</v>
       </c>
       <c r="G26">
-        <v>-3.948960514943957e-05</v>
+        <v>-2.290561566599986e-05</v>
       </c>
       <c r="H26">
-        <v>0.3620913834811001</v>
+        <v>0.096376978516933</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.01958996152384583</v>
+        <v>-0.0194312516176853</v>
       </c>
       <c r="C27">
-        <v>-0.01212240911029572</v>
+        <v>-0.007606783802784729</v>
       </c>
       <c r="D27">
-        <v>-0.0001433874548166248</v>
+        <v>1.593447990521657e-05</v>
       </c>
       <c r="E27">
-        <v>0.002854454614533958</v>
+        <v>-0.0001193993072977767</v>
       </c>
       <c r="F27">
-        <v>0.006882651031723214</v>
+        <v>0.001668828397753003</v>
       </c>
       <c r="G27">
-        <v>-6.615665198451916e-05</v>
+        <v>-2.240510528996303e-05</v>
       </c>
       <c r="H27">
-        <v>0.1216723047816895</v>
+        <v>0.1032706441986227</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.009414590607741051</v>
+        <v>-0.01472748536591615</v>
       </c>
       <c r="C28">
-        <v>-0.02195036252905477</v>
+        <v>-0.01212262516524699</v>
       </c>
       <c r="D28">
-        <v>-0.0001940964156889848</v>
+        <v>2.266361616554315e-05</v>
       </c>
       <c r="E28">
-        <v>-0.00824033237035264</v>
+        <v>-0.0008410427853428257</v>
       </c>
       <c r="F28">
-        <v>-0.001704100231134741</v>
+        <v>0.002075910604027209</v>
       </c>
       <c r="G28">
-        <v>-4.881224574115895e-05</v>
+        <v>-1.485153650008289e-05</v>
       </c>
       <c r="H28">
-        <v>0.2108443064598733</v>
+        <v>0.08555073388389206</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.01829189505179646</v>
+        <v>-0.01956503615058505</v>
       </c>
       <c r="C29">
-        <v>-0.01485480207258862</v>
+        <v>-0.01823148703976354</v>
       </c>
       <c r="D29">
-        <v>-0.0001004464230002179</v>
+        <v>-7.678800040165344e-05</v>
       </c>
       <c r="E29">
-        <v>-0.002762748907217866</v>
+        <v>-0.002779288704217661</v>
       </c>
       <c r="F29">
-        <v>-0.0003692594868112235</v>
+        <v>0.001285202877708533</v>
       </c>
       <c r="G29">
-        <v>-3.609406102835538e-05</v>
+        <v>-3.212800802632804e-05</v>
       </c>
       <c r="H29">
-        <v>0.1749753259747913</v>
+        <v>0.128384568797297</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.01508688250606082</v>
+        <v>-0.004605254022317868</v>
       </c>
       <c r="C30">
-        <v>-0.0140867441451632</v>
+        <v>-0.003458949138240536</v>
       </c>
       <c r="D30">
-        <v>3.158353020413994e-05</v>
+        <v>5.857947510123714e-06</v>
       </c>
       <c r="E30">
-        <v>-0.0005921093107068703</v>
+        <v>-0.001578840235347712</v>
       </c>
       <c r="F30">
-        <v>0.004215017722528176</v>
+        <v>5.975346193019153e-05</v>
       </c>
       <c r="G30">
-        <v>-4.895143847415703e-05</v>
+        <v>-1.79178219709869e-05</v>
       </c>
       <c r="H30">
-        <v>0.1187603205759913</v>
+        <v>0.1056498113003963</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.02088119083423548</v>
+        <v>-0.01040176817029057</v>
       </c>
       <c r="C31">
-        <v>-0.02159499954912485</v>
+        <v>-0.006063780948097648</v>
       </c>
       <c r="D31">
-        <v>-0.0001148540405851741</v>
+        <v>5.648367755093859e-05</v>
       </c>
       <c r="E31">
-        <v>-0.002072619160387826</v>
+        <v>0.002788084969900587</v>
       </c>
       <c r="F31">
-        <v>0.004378468484275221</v>
+        <v>0.001277676305929085</v>
       </c>
       <c r="G31">
-        <v>-7.209737919349371e-05</v>
+        <v>-1.87868568068973e-05</v>
       </c>
       <c r="H31">
-        <v>0.1655107719342051</v>
+        <v>0.09099219482427968</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.01246128399020412</v>
+        <v>-0.01529791707794501</v>
       </c>
       <c r="C32">
-        <v>-0.005048082618305938</v>
+        <v>0.0001016548395282261</v>
       </c>
       <c r="D32">
-        <v>-0.0001526310782105777</v>
+        <v>-3.686767524165476e-05</v>
       </c>
       <c r="E32">
-        <v>-0.003563552496412686</v>
+        <v>-0.001937366522999355</v>
       </c>
       <c r="F32">
-        <v>0.001430322736995016</v>
+        <v>0.002175718482637498</v>
       </c>
       <c r="G32">
-        <v>-3.647872757671001e-05</v>
+        <v>-1.690411234015606e-05</v>
       </c>
       <c r="H32">
-        <v>0.1496223845192025</v>
+        <v>0.08937962688824766</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.01387030299055501</v>
+        <v>-0.01099640665519604</v>
       </c>
       <c r="C33">
-        <v>-0.03593532222065136</v>
+        <v>-0.0116993088520517</v>
       </c>
       <c r="D33">
-        <v>-6.918625806353202e-05</v>
+        <v>3.992265985240038e-05</v>
       </c>
       <c r="E33">
-        <v>-0.009732957814458792</v>
+        <v>0.00383572314189852</v>
       </c>
       <c r="F33">
-        <v>-0.007810903846711953</v>
+        <v>-0.0001669606031097341</v>
       </c>
       <c r="G33">
-        <v>-5.703290098307729e-05</v>
+        <v>-2.747323082394034e-05</v>
       </c>
       <c r="H33">
-        <v>0.2928282756704162</v>
+        <v>0.1231266777526529</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.009659997607430634</v>
+        <v>-0.01341540339496448</v>
       </c>
       <c r="C34">
-        <v>0.00216604137354461</v>
+        <v>-0.01007503747441</v>
       </c>
       <c r="D34">
-        <v>-1.484613500404126e-05</v>
+        <v>3.442147031803564e-05</v>
       </c>
       <c r="E34">
-        <v>0.0002830560983370783</v>
+        <v>0.001198288589829025</v>
       </c>
       <c r="F34">
-        <v>0.00212693172720553</v>
+        <v>-0.0009357103935846488</v>
       </c>
       <c r="G34">
-        <v>-3.427468210905812e-05</v>
+        <v>-1.142090550907218e-05</v>
       </c>
       <c r="H34">
-        <v>0.1270296375154086</v>
+        <v>0.1188970109434562</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.002031806937616445</v>
+        <v>-0.02082965843809043</v>
       </c>
       <c r="C35">
-        <v>0.004102802471994443</v>
+        <v>-0.009833265546339367</v>
       </c>
       <c r="D35">
-        <v>-3.167001504053933e-05</v>
+        <v>5.342258797031753e-05</v>
       </c>
       <c r="E35">
-        <v>0.01459034516530758</v>
+        <v>-0.003046733440141051</v>
       </c>
       <c r="F35">
-        <v>0.002475396080745056</v>
+        <v>-0.0006771224330453309</v>
       </c>
       <c r="G35">
-        <v>-5.406793045032572e-05</v>
+        <v>-1.688083823768883e-05</v>
       </c>
       <c r="H35">
-        <v>0.1327617429407303</v>
+        <v>0.1247933584135366</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.0165163460474851</v>
+        <v>-0.01639699867070326</v>
       </c>
       <c r="C36">
-        <v>0.01145947383977556</v>
+        <v>-0.00794896567779445</v>
       </c>
       <c r="D36">
-        <v>-0.0001100252914787749</v>
+        <v>-2.753652789529719e-05</v>
       </c>
       <c r="E36">
-        <v>0.002456784056072386</v>
+        <v>-0.007578811945512347</v>
       </c>
       <c r="F36">
-        <v>0.00383076312549714</v>
+        <v>-0.0007400361331017082</v>
       </c>
       <c r="G36">
-        <v>-5.988367175745317e-05</v>
+        <v>-1.678776846391198e-05</v>
       </c>
       <c r="H36">
-        <v>0.148329351159552</v>
+        <v>0.1308147250422486</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.01746487262982758</v>
+        <v>-0.01318342154361826</v>
       </c>
       <c r="C37">
-        <v>-0.003159357400494377</v>
+        <v>0.00511529557096947</v>
       </c>
       <c r="D37">
-        <v>-0.0001424033030525977</v>
+        <v>-3.157430313352693e-05</v>
       </c>
       <c r="E37">
-        <v>0.00427271144136647</v>
+        <v>8.444702141702232e-06</v>
       </c>
       <c r="F37">
-        <v>0.003489009641810331</v>
+        <v>0.002125275317421422</v>
       </c>
       <c r="G37">
-        <v>-3.749769934694237e-05</v>
+        <v>-1.788469307106111e-05</v>
       </c>
       <c r="H37">
-        <v>0.121302053571308</v>
+        <v>0.09130227521536369</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.02169417818000632</v>
+        <v>-0.01022458894389121</v>
       </c>
       <c r="C38">
-        <v>-0.01976990737665149</v>
+        <v>0.003763595154466981</v>
       </c>
       <c r="D38">
-        <v>9.070864441827208e-05</v>
+        <v>-1.265619945863615e-05</v>
       </c>
       <c r="E38">
-        <v>0.008950914836922327</v>
+        <v>-0.0007881305320098647</v>
       </c>
       <c r="F38">
-        <v>0.002068304272205407</v>
+        <v>0.002266565012196826</v>
       </c>
       <c r="G38">
-        <v>-4.688053696110078e-05</v>
+        <v>-1.65048678935634e-05</v>
       </c>
       <c r="H38">
-        <v>0.1383547162934306</v>
+        <v>0.08483214600523487</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.03833278293032205</v>
+        <v>-0.008568448164376904</v>
       </c>
       <c r="C39">
-        <v>-0.02448731400351648</v>
+        <v>-0.007107535256553164</v>
       </c>
       <c r="D39">
-        <v>-0.0001297095006776247</v>
+        <v>1.190312250595396e-05</v>
       </c>
       <c r="E39">
-        <v>-0.01579083963668353</v>
+        <v>0.002881510089926619</v>
       </c>
       <c r="F39">
-        <v>0.002444236800765049</v>
+        <v>0.001278599047168393</v>
       </c>
       <c r="G39">
-        <v>-6.215411839725438e-05</v>
+        <v>-1.648945770901441e-05</v>
       </c>
       <c r="H39">
-        <v>0.2005085801686197</v>
+        <v>0.09205126422260002</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.02293348326148532</v>
+        <v>-0.007397527092839827</v>
       </c>
       <c r="C40">
-        <v>-0.01463998767150101</v>
+        <v>-0.008749413039922639</v>
       </c>
       <c r="D40">
-        <v>7.644341326534047e-05</v>
+        <v>-2.807841099577164e-05</v>
       </c>
       <c r="E40">
-        <v>0.004444336087384523</v>
+        <v>-0.002226461555093082</v>
       </c>
       <c r="F40">
-        <v>-0.005723947726361494</v>
+        <v>-0.0008168447897792328</v>
       </c>
       <c r="G40">
-        <v>-5.064104195354192e-05</v>
+        <v>-1.212493593975574e-05</v>
       </c>
       <c r="H40">
-        <v>0.2473661030758474</v>
+        <v>0.1226948765440753</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.04234821077920194</v>
+        <v>-0.0141310116613052</v>
       </c>
       <c r="C41">
-        <v>-0.0326672434697069</v>
+        <v>-0.005454000707436536</v>
       </c>
       <c r="D41">
-        <v>-0.0002726164342795573</v>
+        <v>-3.520448714244302e-05</v>
       </c>
       <c r="E41">
-        <v>-0.01738271191536672</v>
+        <v>-0.0006773952475360584</v>
       </c>
       <c r="F41">
-        <v>-0.001979119423947281</v>
+        <v>0.0006260469365253485</v>
       </c>
       <c r="G41">
-        <v>-5.722657149802278e-05</v>
+        <v>-1.325464533193182e-05</v>
       </c>
       <c r="H41">
-        <v>0.2639765199880718</v>
+        <v>0.1088592499984476</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.02504193930038294</v>
+        <v>-0.006309759314427496</v>
       </c>
       <c r="C42">
-        <v>-0.01817018788673478</v>
+        <v>-0.01348810206703208</v>
       </c>
       <c r="D42">
-        <v>-0.0002124143295955025</v>
+        <v>0.0001091378377060379</v>
       </c>
       <c r="E42">
-        <v>-0.0008545949103584416</v>
+        <v>-0.000413061916131871</v>
       </c>
       <c r="F42">
-        <v>0.003511906017816471</v>
+        <v>-0.0007532552505780775</v>
       </c>
       <c r="G42">
-        <v>-4.910209724244985e-05</v>
+        <v>-1.41384142634679e-05</v>
       </c>
       <c r="H42">
-        <v>0.1544019268474222</v>
+        <v>0.1078031753613546</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.06001556840429494</v>
+        <v>-0.01145477258933199</v>
       </c>
       <c r="C43">
-        <v>-0.0203409334339547</v>
+        <v>-0.01259373928112488</v>
       </c>
       <c r="D43">
-        <v>-0.0003157231003132107</v>
+        <v>-2.137766691361457e-05</v>
       </c>
       <c r="E43">
-        <v>0.004741290220289532</v>
+        <v>0.0009480575955930354</v>
       </c>
       <c r="F43">
-        <v>0.007187331561211913</v>
+        <v>-0.001160297928126313</v>
       </c>
       <c r="G43">
-        <v>-5.470581047759075e-05</v>
+        <v>-2.596184277719897e-05</v>
       </c>
       <c r="H43">
-        <v>0.1593700939002036</v>
+        <v>0.1403061669777985</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.0009508436015323368</v>
+        <v>-0.01450314976740915</v>
       </c>
       <c r="C44">
-        <v>-0.02851255502708049</v>
+        <v>-0.005462819423687114</v>
       </c>
       <c r="D44">
-        <v>0.0001162919243312011</v>
+        <v>-8.556665689956453e-05</v>
       </c>
       <c r="E44">
-        <v>-0.004646973306581342</v>
+        <v>-0.003277223159737858</v>
       </c>
       <c r="F44">
-        <v>-0.0007704107208586245</v>
+        <v>0.0009785108106001056</v>
       </c>
       <c r="G44">
-        <v>-6.323311165165713e-05</v>
+        <v>-2.046019456096717e-05</v>
       </c>
       <c r="H44">
-        <v>0.1816426872383039</v>
+        <v>0.1124627538299357</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.0178441600744343</v>
+        <v>-0.009254888095601158</v>
       </c>
       <c r="C45">
-        <v>-0.03794818776075137</v>
+        <v>-0.009718402353010878</v>
       </c>
       <c r="D45">
-        <v>0.0001655453183390517</v>
+        <v>0.0001135272791493249</v>
       </c>
       <c r="E45">
-        <v>-0.008998947247642275</v>
+        <v>0.0002089397639360793</v>
       </c>
       <c r="F45">
-        <v>-0.005527040387958832</v>
+        <v>-0.0001296433559370945</v>
       </c>
       <c r="G45">
-        <v>-4.324925332224195e-05</v>
+        <v>-1.432785274549419e-05</v>
       </c>
       <c r="H45">
-        <v>0.227624155351596</v>
+        <v>0.100376796823358</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.03397773357841007</v>
+        <v>-0.01066806783762377</v>
       </c>
       <c r="C46">
-        <v>-0.01613826610897478</v>
+        <v>-0.005870239192123823</v>
       </c>
       <c r="D46">
-        <v>-0.0002086953764231435</v>
+        <v>-3.780026071591757e-06</v>
       </c>
       <c r="E46">
-        <v>-0.004294326560297088</v>
+        <v>0.0003861541392198853</v>
       </c>
       <c r="F46">
-        <v>0.0006708009259933294</v>
+        <v>9.242521505060377e-05</v>
       </c>
       <c r="G46">
-        <v>-3.492794776124999e-05</v>
+        <v>-1.595659778522039e-05</v>
       </c>
       <c r="H46">
-        <v>0.1808714888280874</v>
+        <v>0.109752873850902</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.02507243449360429</v>
+        <v>-0.008955766566999469</v>
       </c>
       <c r="C47">
-        <v>-0.02834335319147311</v>
+        <v>-0.01173761319851839</v>
       </c>
       <c r="D47">
-        <v>-0.000175682188528762</v>
+        <v>8.407099391543804e-05</v>
       </c>
       <c r="E47">
-        <v>-0.001696095783508517</v>
+        <v>0.001365479701207151</v>
       </c>
       <c r="F47">
-        <v>-0.002823301803190362</v>
+        <v>-0.0003457167316287147</v>
       </c>
       <c r="G47">
-        <v>-4.080306834827352e-05</v>
+        <v>-1.143194118379819e-05</v>
       </c>
       <c r="H47">
-        <v>0.2249212801326821</v>
+        <v>0.1013968752916723</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.02877062029908394</v>
+        <v>-0.00278339145692255</v>
       </c>
       <c r="C48">
-        <v>-0.02915709216255537</v>
+        <v>-0.007940808629255381</v>
       </c>
       <c r="D48">
-        <v>-0.0001642780925997909</v>
+        <v>8.853750165915194e-06</v>
       </c>
       <c r="E48">
-        <v>-0.01438575352011214</v>
+        <v>0.003036673823641034</v>
       </c>
       <c r="F48">
-        <v>-0.001081868519009254</v>
+        <v>-0.0009898848784454992</v>
       </c>
       <c r="G48">
-        <v>-5.911981396474839e-05</v>
+        <v>-2.134396868449308e-05</v>
       </c>
       <c r="H48">
-        <v>0.2402012550806855</v>
+        <v>0.124330901700212</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.01434259504926993</v>
+        <v>-0.009136605448625696</v>
       </c>
       <c r="C49">
-        <v>-0.01527782388643043</v>
+        <v>0.003298969241991074</v>
       </c>
       <c r="D49">
-        <v>-9.864026698476546e-05</v>
+        <v>3.288908758558967e-05</v>
       </c>
       <c r="E49">
-        <v>-0.0009574567150417851</v>
+        <v>0.001338645260283572</v>
       </c>
       <c r="F49">
-        <v>0.001529140409913966</v>
+        <v>0.0004577804537403067</v>
       </c>
       <c r="G49">
-        <v>-4.634516530824602e-05</v>
+        <v>-1.902092864704341e-05</v>
       </c>
       <c r="H49">
-        <v>0.158105883699185</v>
+        <v>0.1016125362024122</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.03451592684966717</v>
+        <v>-0.01279823064058554</v>
       </c>
       <c r="C50">
-        <v>-0.02234731614832321</v>
+        <v>-0.01667463505117987</v>
       </c>
       <c r="D50">
-        <v>-0.0001355441802388867</v>
+        <v>1.926646059832713e-05</v>
       </c>
       <c r="E50">
-        <v>-0.002007132502368489</v>
+        <v>-0.003307554193332903</v>
       </c>
       <c r="F50">
-        <v>-1.346510423588972e-05</v>
+        <v>-0.0005838913353286513</v>
       </c>
       <c r="G50">
-        <v>-3.25804498720064e-05</v>
+        <v>-1.563269149932292e-05</v>
       </c>
       <c r="H50">
-        <v>0.1827714142371965</v>
+        <v>0.1207721389762498</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.02773523054636966</v>
+        <v>-0.007283077035202104</v>
       </c>
       <c r="C51">
-        <v>-0.01948540250177064</v>
+        <v>-0.0144711955400492</v>
       </c>
       <c r="D51">
-        <v>-0.0001138465307773659</v>
+        <v>6.951309455140094e-05</v>
       </c>
       <c r="E51">
-        <v>0.007689157961859039</v>
+        <v>-0.001627291054635605</v>
       </c>
       <c r="F51">
-        <v>0.003212636761030332</v>
+        <v>-0.0008533935815794169</v>
       </c>
       <c r="G51">
-        <v>-6.67765398949454e-05</v>
+        <v>-1.631396365843405e-05</v>
       </c>
       <c r="H51">
-        <v>0.1787301699679567</v>
+        <v>0.1157175755780153</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.04486223795817043</v>
+        <v>-0.0153487221915366</v>
       </c>
       <c r="C52">
-        <v>-0.03834038762952446</v>
+        <v>-0.01032458652639784</v>
       </c>
       <c r="D52">
-        <v>0.0001913381246669414</v>
+        <v>-2.733798737462828e-05</v>
       </c>
       <c r="E52">
-        <v>-0.01066504226737326</v>
+        <v>-0.0004285861038062846</v>
       </c>
       <c r="F52">
-        <v>-0.005538829580620824</v>
+        <v>0.0007570039589886521</v>
       </c>
       <c r="G52">
-        <v>-4.69912599490147e-05</v>
+        <v>-1.797534612382514e-05</v>
       </c>
       <c r="H52">
-        <v>0.2586060234938535</v>
+        <v>0.10916249843887</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.02620093298326051</v>
+        <v>-0.01143781231577908</v>
       </c>
       <c r="C53">
-        <v>-0.02677833656933085</v>
+        <v>-0.01207880316358675</v>
       </c>
       <c r="D53">
-        <v>-0.0001302476352428495</v>
+        <v>4.435789550490788e-05</v>
       </c>
       <c r="E53">
-        <v>-0.02038755479870259</v>
+        <v>-0.001602460319718294</v>
       </c>
       <c r="F53">
-        <v>0.0013847117049231</v>
+        <v>-8.09002343116279e-05</v>
       </c>
       <c r="G53">
-        <v>-7.922679730740348e-05</v>
+        <v>-8.780869064012897e-06</v>
       </c>
       <c r="H53">
-        <v>0.2279902559028667</v>
+        <v>0.1039350186568992</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.03783527569666493</v>
+        <v>-0.01047521726884638</v>
       </c>
       <c r="C54">
-        <v>-0.01197736453708208</v>
+        <v>-0.000273484869271476</v>
       </c>
       <c r="D54">
-        <v>-0.000234163978481056</v>
+        <v>-5.909613888681036e-05</v>
       </c>
       <c r="E54">
-        <v>0.006373557724886916</v>
+        <v>0.0002542713123177553</v>
       </c>
       <c r="F54">
-        <v>0.008858614845112599</v>
+        <v>0.0004759956012181424</v>
       </c>
       <c r="G54">
-        <v>-4.668756203258708e-05</v>
+        <v>-1.890897140810454e-05</v>
       </c>
       <c r="H54">
-        <v>0.09939642232244916</v>
+        <v>0.1155395945291351</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.02093094356947128</v>
+        <v>-0.006718404521668012</v>
       </c>
       <c r="C55">
-        <v>-0.04011449369904407</v>
+        <v>-0.002520701384690369</v>
       </c>
       <c r="D55">
-        <v>0.0002267200264762182</v>
+        <v>3.055105961721533e-05</v>
       </c>
       <c r="E55">
-        <v>0.006843423149343053</v>
+        <v>0.005430553911654326</v>
       </c>
       <c r="F55">
-        <v>-0.004680342677121445</v>
+        <v>7.089953316915957e-05</v>
       </c>
       <c r="G55">
-        <v>-7.22514053319256e-05</v>
+        <v>-1.693493781781586e-05</v>
       </c>
       <c r="H55">
-        <v>0.2537174912000882</v>
+        <v>0.1051764179409745</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.01017807328824609</v>
+        <v>-0.01098244386913248</v>
       </c>
       <c r="C56">
-        <v>-0.02780464756947924</v>
+        <v>-0.01103097673876166</v>
       </c>
       <c r="D56">
-        <v>2.510732326897139e-05</v>
+        <v>4.661992411554386e-05</v>
       </c>
       <c r="E56">
-        <v>0.000397744415361681</v>
+        <v>0.0001614972443922391</v>
       </c>
       <c r="F56">
-        <v>-0.009619525110160235</v>
+        <v>-0.001140506895400997</v>
       </c>
       <c r="G56">
-        <v>-4.181370546212045e-05</v>
+        <v>-1.846053456814096e-05</v>
       </c>
       <c r="H56">
-        <v>0.2852741078534767</v>
+        <v>0.1269548256981674</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.002331359204829107</v>
+        <v>-0.01566771453659652</v>
       </c>
       <c r="C57">
-        <v>-0.002568681661373856</v>
+        <v>-0.003885501846371077</v>
       </c>
       <c r="D57">
-        <v>6.08263166123894e-06</v>
+        <v>2.887892536089739e-06</v>
       </c>
       <c r="E57">
-        <v>0.01000286698869537</v>
+        <v>-0.0007953592458442918</v>
       </c>
       <c r="F57">
-        <v>0.007818840241864678</v>
+        <v>0.001377547266313884</v>
       </c>
       <c r="G57">
-        <v>-7.104293881054101e-05</v>
+        <v>-6.732633793193942e-06</v>
       </c>
       <c r="H57">
-        <v>0.08371309850460243</v>
+        <v>0.08727880713543357</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.0459270371350187</v>
+        <v>-0.01933331158152743</v>
       </c>
       <c r="C58">
-        <v>-0.02619705093523391</v>
+        <v>-0.01299352215769689</v>
       </c>
       <c r="D58">
-        <v>-0.0003477975449868173</v>
+        <v>-4.949231610507605e-05</v>
       </c>
       <c r="E58">
-        <v>-0.01856652128564976</v>
+        <v>-0.004597193346289469</v>
       </c>
       <c r="F58">
-        <v>-0.0005525912598564834</v>
+        <v>0.0009013955756700878</v>
       </c>
       <c r="G58">
-        <v>-7.050684523349128e-05</v>
+        <v>-1.531105796086935e-05</v>
       </c>
       <c r="H58">
-        <v>0.2712236893613265</v>
+        <v>0.1129573621761849</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.02639407980134073</v>
+        <v>-0.01299567150165745</v>
       </c>
       <c r="C59">
-        <v>0.00495301874361666</v>
+        <v>-0.01013014211439002</v>
       </c>
       <c r="D59">
-        <v>-6.648688286292086e-05</v>
+        <v>7.55852013944863e-05</v>
       </c>
       <c r="E59">
-        <v>0.0002860957767152339</v>
+        <v>-0.003027995908833743</v>
       </c>
       <c r="F59">
-        <v>0.001433260756280634</v>
+        <v>0.0007729896355378765</v>
       </c>
       <c r="G59">
-        <v>-4.248322509333603e-05</v>
+        <v>-1.858865972248302e-05</v>
       </c>
       <c r="H59">
-        <v>0.1581094349660015</v>
+        <v>0.1008974280197035</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.01785548902244895</v>
+        <v>-0.009430504682325105</v>
       </c>
       <c r="C60">
-        <v>-0.01332105597979958</v>
+        <v>-0.009505335417056176</v>
       </c>
       <c r="D60">
-        <v>-7.000270314242681e-05</v>
+        <v>9.467789134117916e-05</v>
       </c>
       <c r="E60">
-        <v>-0.009727121408040704</v>
+        <v>-0.0002754287871878092</v>
       </c>
       <c r="F60">
-        <v>0.003033800940453841</v>
+        <v>-8.817914263279216e-05</v>
       </c>
       <c r="G60">
-        <v>-5.407212419291733e-05</v>
+        <v>-1.986716136545293e-05</v>
       </c>
       <c r="H60">
-        <v>0.1499961157616524</v>
+        <v>0.1065056521743907</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.03429600027450918</v>
+        <v>-0.009903812676608423</v>
       </c>
       <c r="C61">
-        <v>-0.03774041364985163</v>
+        <v>-0.0019946775592549</v>
       </c>
       <c r="D61">
-        <v>5.532407024523965e-05</v>
+        <v>9.58972801486555e-05</v>
       </c>
       <c r="E61">
-        <v>-0.005865439479638038</v>
+        <v>-0.003156119918692739</v>
       </c>
       <c r="F61">
-        <v>-0.00455050928796749</v>
+        <v>0.0004895107882555067</v>
       </c>
       <c r="G61">
-        <v>-5.863795097100202e-05</v>
+        <v>-1.687486603163533e-05</v>
       </c>
       <c r="H61">
-        <v>0.2575101295189425</v>
+        <v>0.09559492364029451</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.03495326311802414</v>
+        <v>-0.01393167910851228</v>
       </c>
       <c r="C62">
-        <v>-0.006746366659840943</v>
+        <v>-0.003447642075427912</v>
       </c>
       <c r="D62">
-        <v>-0.0003364461036219861</v>
+        <v>1.692969535248501e-05</v>
       </c>
       <c r="E62">
-        <v>-0.0134887833459689</v>
+        <v>-0.00331850392417176</v>
       </c>
       <c r="F62">
-        <v>0.01050833637326675</v>
+        <v>0.001182929123535854</v>
       </c>
       <c r="G62">
-        <v>-8.132040993888071e-05</v>
+        <v>-1.499690215196193e-05</v>
       </c>
       <c r="H62">
-        <v>0.1309916336034141</v>
+        <v>0.09507772743303337</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.0209934881081795</v>
+        <v>-0.01343650100778423</v>
       </c>
       <c r="C63">
-        <v>-0.01523455163276082</v>
+        <v>-0.01158478936839129</v>
       </c>
       <c r="D63">
-        <v>-7.985998710260233e-05</v>
+        <v>3.281692804817149e-05</v>
       </c>
       <c r="E63">
-        <v>-0.004444770462136288</v>
+        <v>-0.001443921378824445</v>
       </c>
       <c r="F63">
-        <v>-0.0006206115090010636</v>
+        <v>4.05376315252635e-05</v>
       </c>
       <c r="G63">
-        <v>-2.352650922749628e-05</v>
+        <v>-2.093681283447866e-05</v>
       </c>
       <c r="H63">
-        <v>0.1613873581402728</v>
+        <v>0.1168335032372584</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.002287347314779467</v>
+        <v>-0.006470016132159049</v>
       </c>
       <c r="C64">
-        <v>-0.01846085847873306</v>
+        <v>0.001351988285404733</v>
       </c>
       <c r="D64">
-        <v>5.784311402831928e-05</v>
+        <v>1.566638843725552e-05</v>
       </c>
       <c r="E64">
-        <v>0.003776327505123897</v>
+        <v>0.003835685438700873</v>
       </c>
       <c r="F64">
-        <v>0.004091137102246097</v>
+        <v>-0.0009935902347838954</v>
       </c>
       <c r="G64">
-        <v>-5.015538741144199e-05</v>
+        <v>-2.021387742055928e-05</v>
       </c>
       <c r="H64">
-        <v>0.1089971999863363</v>
+        <v>0.1226734816738122</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.02204794098554467</v>
+        <v>-0.009914118320241328</v>
       </c>
       <c r="C65">
-        <v>-0.01692827976896297</v>
+        <v>-0.008455088828495144</v>
       </c>
       <c r="D65">
-        <v>-0.0002732213789224334</v>
+        <v>-1.713010037749725e-05</v>
       </c>
       <c r="E65">
-        <v>0.002239652237711748</v>
+        <v>-0.002239155060010184</v>
       </c>
       <c r="F65">
-        <v>0.009102182345093947</v>
+        <v>0.0001346822229315039</v>
       </c>
       <c r="G65">
-        <v>-6.149953369533325e-05</v>
+        <v>-1.788309680488447e-05</v>
       </c>
       <c r="H65">
-        <v>0.1134693638578137</v>
+        <v>0.1140784954648306</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.03855649319490398</v>
+        <v>-0.01202048738537168</v>
       </c>
       <c r="C66">
-        <v>-0.030829680576073</v>
+        <v>-0.005089624275768153</v>
       </c>
       <c r="D66">
-        <v>-9.902062162719132e-05</v>
+        <v>-9.113725460452967e-06</v>
       </c>
       <c r="E66">
-        <v>-0.01076785333084435</v>
+        <v>0.003513761996437353</v>
       </c>
       <c r="F66">
-        <v>-0.004905162020660693</v>
+        <v>0.001639017481435932</v>
       </c>
       <c r="G66">
-        <v>-5.031259129695679e-05</v>
+        <v>-1.950803499996423e-05</v>
       </c>
       <c r="H66">
-        <v>0.2698530422687802</v>
+        <v>0.09398918442033874</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.02873252814889661</v>
+        <v>-0.0179633450516965</v>
       </c>
       <c r="C67">
-        <v>-0.03496249159161969</v>
+        <v>-0.01343687251923972</v>
       </c>
       <c r="D67">
-        <v>0.0001386989026340281</v>
+        <v>3.762482501007681e-05</v>
       </c>
       <c r="E67">
-        <v>-0.002391444349279626</v>
+        <v>-0.007390491947347796</v>
       </c>
       <c r="F67">
-        <v>-0.005445994147178764</v>
+        <v>-0.0005091758609408476</v>
       </c>
       <c r="G67">
-        <v>-4.744992188578487e-05</v>
+        <v>-1.340105444901188e-05</v>
       </c>
       <c r="H67">
-        <v>0.2432023010482717</v>
+        <v>0.1212312080570376</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.01516178048868977</v>
+        <v>-0.01172247628300302</v>
       </c>
       <c r="C68">
-        <v>0.00468758344552076</v>
+        <v>0.01883208271402865</v>
       </c>
       <c r="D68">
-        <v>-6.66023954645746e-05</v>
+        <v>-0.0001386039481295424</v>
       </c>
       <c r="E68">
-        <v>-0.0005086777783951113</v>
+        <v>0.004583232223105208</v>
       </c>
       <c r="F68">
-        <v>-0.003358413060220289</v>
+        <v>0.002480702907806365</v>
       </c>
       <c r="G68">
-        <v>-4.375904558617136e-05</v>
+        <v>-3.236998018272429e-05</v>
       </c>
       <c r="H68">
-        <v>0.2117242156029428</v>
+        <v>0.1084684537706365</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.02814622042061367</v>
+        <v>-0.008628355943187668</v>
       </c>
       <c r="C69">
-        <v>0.007189380738075613</v>
+        <v>-0.0096635559987336</v>
       </c>
       <c r="D69">
-        <v>-0.0004878505898694746</v>
+        <v>1.051175879606174e-05</v>
       </c>
       <c r="E69">
-        <v>-0.01055133181954902</v>
+        <v>-0.002390032731894164</v>
       </c>
       <c r="F69">
-        <v>0.01163234136690041</v>
+        <v>0.0001271436581928576</v>
       </c>
       <c r="G69">
-        <v>-6.365325063459284e-05</v>
+        <v>-1.804081880314892e-05</v>
       </c>
       <c r="H69">
-        <v>0.1021071142052302</v>
+        <v>0.1089880489942942</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.01426160173469644</v>
+        <v>-0.009827983735517198</v>
       </c>
       <c r="C70">
-        <v>-0.01335626147868757</v>
+        <v>-0.007647842779648337</v>
       </c>
       <c r="D70">
-        <v>-0.0001288505890527297</v>
+        <v>1.689545356495244e-05</v>
       </c>
       <c r="E70">
-        <v>0.00339249375174272</v>
+        <v>0.00423689217785711</v>
       </c>
       <c r="F70">
-        <v>0.005319499033543906</v>
+        <v>-0.0008108284555007398</v>
       </c>
       <c r="G70">
-        <v>-4.531311989315773e-05</v>
+        <v>-1.010565346381456e-05</v>
       </c>
       <c r="H70">
-        <v>0.1101126537201098</v>
+        <v>0.1133852302107698</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.02770864092486431</v>
+        <v>-0.01442936627997823</v>
       </c>
       <c r="C71">
-        <v>-0.02033070030059743</v>
+        <v>-0.01370798809909643</v>
       </c>
       <c r="D71">
-        <v>-0.000191139533778107</v>
+        <v>3.612781011684588e-05</v>
       </c>
       <c r="E71">
-        <v>-0.01165627193097053</v>
+        <v>6.774055546929225e-05</v>
       </c>
       <c r="F71">
-        <v>0.001898440776256885</v>
+        <v>0.0005715914121225927</v>
       </c>
       <c r="G71">
-        <v>-6.411255667512486e-05</v>
+        <v>-1.178992054511033e-05</v>
       </c>
       <c r="H71">
-        <v>0.1966963767471467</v>
+        <v>0.098632857719371</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.01704471969332626</v>
+        <v>-0.01005482760124262</v>
       </c>
       <c r="C72">
-        <v>-0.02149744631202757</v>
+        <v>-0.01721633939358616</v>
       </c>
       <c r="D72">
-        <v>-0.0001882574110658527</v>
+        <v>3.558886060115298e-05</v>
       </c>
       <c r="E72">
-        <v>-0.003101699475347525</v>
+        <v>0.0006209531086185938</v>
       </c>
       <c r="F72">
-        <v>0.002296032426168244</v>
+        <v>0.000173860147302313</v>
       </c>
       <c r="G72">
-        <v>-5.606019083687457e-05</v>
+        <v>-2.27013757242984e-05</v>
       </c>
       <c r="H72">
-        <v>0.1709117327351972</v>
+        <v>0.1130282233293788</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.01493182505185055</v>
+        <v>-0.01645107325508966</v>
       </c>
       <c r="C73">
-        <v>-0.01997503765138196</v>
+        <v>-0.01147687444386595</v>
       </c>
       <c r="D73">
-        <v>-7.233246986811381e-06</v>
+        <v>-4.351720939822019e-05</v>
       </c>
       <c r="E73">
-        <v>-0.001736027562096273</v>
+        <v>-0.00391466154631321</v>
       </c>
       <c r="F73">
-        <v>-0.003712392402192261</v>
+        <v>0.0007013627825303377</v>
       </c>
       <c r="G73">
-        <v>-3.969662528533826e-05</v>
+        <v>-1.961451552041074e-05</v>
       </c>
       <c r="H73">
-        <v>0.2073947605551809</v>
+        <v>0.1158699868077851</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.01397084102355752</v>
+        <v>-0.009166427091443953</v>
       </c>
       <c r="C74">
-        <v>-0.01055263754816302</v>
+        <v>-0.01320791930087587</v>
       </c>
       <c r="D74">
-        <v>-0.0001314119329935155</v>
+        <v>6.672652273467779e-06</v>
       </c>
       <c r="E74">
-        <v>-0.003883735142961239</v>
+        <v>-0.005007124132808856</v>
       </c>
       <c r="F74">
-        <v>0.004168410218921537</v>
+        <v>-0.0005740791108553873</v>
       </c>
       <c r="G74">
-        <v>-6.04657593962063e-05</v>
+        <v>-1.314213041736662e-05</v>
       </c>
       <c r="H74">
-        <v>0.1464312068984917</v>
+        <v>0.1217779164623863</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.02404814872172919</v>
+        <v>-0.01580207386379981</v>
       </c>
       <c r="C75">
-        <v>-0.04127673204097415</v>
+        <v>0.0008934393367503414</v>
       </c>
       <c r="D75">
-        <v>1.780679034621616e-05</v>
+        <v>-9.940508216453933e-06</v>
       </c>
       <c r="E75">
-        <v>-0.01534335835421985</v>
+        <v>-0.001048604000077502</v>
       </c>
       <c r="F75">
-        <v>-0.005896707511472424</v>
+        <v>0.0008990479993271945</v>
       </c>
       <c r="G75">
-        <v>-3.970423193671464e-05</v>
+        <v>-1.586875254148466e-05</v>
       </c>
       <c r="H75">
-        <v>0.2502032030371331</v>
+        <v>0.1026821405349996</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.01751659400729635</v>
+        <v>-0.008327392534009766</v>
       </c>
       <c r="C76">
-        <v>-0.01563299395031086</v>
+        <v>-0.01168290050431717</v>
       </c>
       <c r="D76">
-        <v>-0.0001011018935283528</v>
+        <v>1.523020330786265e-05</v>
       </c>
       <c r="E76">
-        <v>-0.002476427920006768</v>
+        <v>-0.0001164547991526765</v>
       </c>
       <c r="F76">
-        <v>0.005611376716000144</v>
+        <v>-0.0008616029453989049</v>
       </c>
       <c r="G76">
-        <v>-7.325855035016642e-05</v>
+        <v>-2.064923980419063e-05</v>
       </c>
       <c r="H76">
-        <v>0.1479487291994175</v>
+        <v>0.1253467285879238</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.03796459514399562</v>
+        <v>-0.003730329770115096</v>
       </c>
       <c r="C77">
-        <v>-0.02604933466112777</v>
+        <v>-0.01722019172743964</v>
       </c>
       <c r="D77">
-        <v>-0.0001132391736026099</v>
+        <v>8.824306145326335e-05</v>
       </c>
       <c r="E77">
-        <v>-0.01060135498438178</v>
+        <v>-0.003095705536837558</v>
       </c>
       <c r="F77">
-        <v>0.003756046205517676</v>
+        <v>-0.002230732610302884</v>
       </c>
       <c r="G77">
-        <v>-6.385506918008628e-05</v>
+        <v>-1.482113181813695e-05</v>
       </c>
       <c r="H77">
-        <v>0.1798252919429265</v>
+        <v>0.1289890370475183</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.01105971581259105</v>
+        <v>-0.008502545763326819</v>
       </c>
       <c r="C78">
-        <v>-0.01068936072964471</v>
+        <v>-0.01009151185338974</v>
       </c>
       <c r="D78">
-        <v>0.0001187158018128016</v>
+        <v>0.0001129222072922628</v>
       </c>
       <c r="E78">
-        <v>0.006424122185277145</v>
+        <v>-0.00337175266862768</v>
       </c>
       <c r="F78">
-        <v>0.0005700303833812341</v>
+        <v>-7.11491503924697e-05</v>
       </c>
       <c r="G78">
-        <v>-5.395260751864189e-05</v>
+        <v>-1.750026810079155e-05</v>
       </c>
       <c r="H78">
-        <v>0.1433055132164866</v>
+        <v>0.1044765129427692</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.0228640285431334</v>
+        <v>-0.01015016560842567</v>
       </c>
       <c r="C79">
-        <v>-0.03557729023184739</v>
+        <v>-0.005151263209998171</v>
       </c>
       <c r="D79">
-        <v>0.0001859496327883529</v>
+        <v>2.706866220657341e-05</v>
       </c>
       <c r="E79">
-        <v>-0.01438067340749666</v>
+        <v>-0.001746885669654627</v>
       </c>
       <c r="F79">
-        <v>-0.0002120232581348427</v>
+        <v>0.0001035380305715014</v>
       </c>
       <c r="G79">
-        <v>-3.918164276409426e-05</v>
+        <v>-1.555166832138749e-05</v>
       </c>
       <c r="H79">
-        <v>0.1555409276535133</v>
+        <v>0.104069076460546</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.03258552005013371</v>
+        <v>-0.009558227223903742</v>
       </c>
       <c r="C80">
-        <v>-0.003007387486090354</v>
+        <v>-0.0112431280457258</v>
       </c>
       <c r="D80">
-        <v>-0.0003191914538925389</v>
+        <v>3.758006147527192e-05</v>
       </c>
       <c r="E80">
-        <v>-0.003658172633400777</v>
+        <v>0.0006025287727515899</v>
       </c>
       <c r="F80">
-        <v>0.006682456987872307</v>
+        <v>-0.001030645144270719</v>
       </c>
       <c r="G80">
-        <v>-5.076158913548183e-05</v>
+        <v>-1.713545388379414e-05</v>
       </c>
       <c r="H80">
-        <v>0.1342496558711772</v>
+        <v>0.1215943593853679</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.03045755194316309</v>
+        <v>-0.004376735824757829</v>
       </c>
       <c r="C81">
-        <v>0.01209850773161376</v>
+        <v>-0.005192919540084807</v>
       </c>
       <c r="D81">
-        <v>-0.0002051925015505655</v>
+        <v>-9.525779390359977e-05</v>
       </c>
       <c r="E81">
-        <v>0.001582406394466593</v>
+        <v>0.001530084031691997</v>
       </c>
       <c r="F81">
-        <v>0.003705915877389542</v>
+        <v>0.001239093537199934</v>
       </c>
       <c r="G81">
-        <v>-5.426924059190431e-05</v>
+        <v>-2.699139438772855e-05</v>
       </c>
       <c r="H81">
-        <v>0.1646548597467431</v>
+        <v>0.1103381648382185</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.01282805630772089</v>
+        <v>-0.006503095072935715</v>
       </c>
       <c r="C82">
-        <v>-0.008465272035936146</v>
+        <v>-0.0168029132035</v>
       </c>
       <c r="D82">
-        <v>-0.0001754022851310767</v>
+        <v>0.0001076113445938577</v>
       </c>
       <c r="E82">
-        <v>0.01867690959834842</v>
+        <v>-0.003590563987387579</v>
       </c>
       <c r="F82">
-        <v>0.01041202175692568</v>
+        <v>-0.002026527008527778</v>
       </c>
       <c r="G82">
-        <v>-7.461148680792736e-05</v>
+        <v>-1.712536347297425e-05</v>
       </c>
       <c r="H82">
-        <v>0.0824429502169412</v>
+        <v>0.1285737604019044</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.03175453477930143</v>
+        <v>-0.01153738510786203</v>
       </c>
       <c r="C83">
-        <v>-0.05526243361350933</v>
+        <v>-0.008924973872562119</v>
       </c>
       <c r="D83">
-        <v>-0.0002090558258213409</v>
+        <v>-1.875846261166647e-05</v>
       </c>
       <c r="E83">
-        <v>-0.0007464215221420906</v>
+        <v>-0.004772367725847715</v>
       </c>
       <c r="F83">
-        <v>-0.005958213790511835</v>
+        <v>-0.0009446914661458773</v>
       </c>
       <c r="G83">
-        <v>-6.96532797383435e-05</v>
+        <v>-2.388124733958154e-05</v>
       </c>
       <c r="H83">
-        <v>0.3251984847999685</v>
+        <v>0.1344568703283248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.03173964577440956</v>
+        <v>-0.007754002263203545</v>
       </c>
       <c r="C84">
-        <v>-0.03764321396910231</v>
+        <v>-0.01080582705749643</v>
       </c>
       <c r="D84">
-        <v>0.000149736109084823</v>
+        <v>0.0001029323836225697</v>
       </c>
       <c r="E84">
-        <v>-0.004834527486300699</v>
+        <v>-0.002569165549087357</v>
       </c>
       <c r="F84">
-        <v>0.001710740279069424</v>
+        <v>-0.001385105476032113</v>
       </c>
       <c r="G84">
-        <v>-4.834779732760148e-05</v>
+        <v>-1.525862562415622e-05</v>
       </c>
       <c r="H84">
-        <v>0.1624283801243959</v>
+        <v>0.1180080321945039</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.01109239529290745</v>
+        <v>-0.008874430614249272</v>
       </c>
       <c r="C85">
-        <v>-0.01755222997243574</v>
+        <v>-0.008754079041109699</v>
       </c>
       <c r="D85">
-        <v>8.274680415971391e-06</v>
+        <v>6.807998303028933e-05</v>
       </c>
       <c r="E85">
-        <v>0.01158808427417377</v>
+        <v>0.002248666692256346</v>
       </c>
       <c r="F85">
-        <v>-0.001612949432314232</v>
+        <v>-0.0008449409564933053</v>
       </c>
       <c r="G85">
-        <v>-4.621071721584417e-05</v>
+        <v>-1.744959290996658e-05</v>
       </c>
       <c r="H85">
-        <v>0.1787409087574565</v>
+        <v>0.1169861430192685</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.02612468587139425</v>
+        <v>-0.01771207405380354</v>
       </c>
       <c r="C86">
-        <v>-0.004326777211068957</v>
+        <v>0.001120489779749492</v>
       </c>
       <c r="D86">
-        <v>-0.0001324483465348439</v>
+        <v>4.33289132692853e-06</v>
       </c>
       <c r="E86">
-        <v>0.01196048508636652</v>
+        <v>-0.0001397566187593818</v>
       </c>
       <c r="F86">
-        <v>0.01093729001964912</v>
+        <v>0.001625334969961427</v>
       </c>
       <c r="G86">
-        <v>-6.025777520893631e-05</v>
+        <v>-1.631208121041751e-05</v>
       </c>
       <c r="H86">
-        <v>0.07226130493636188</v>
+        <v>0.09658562823283828</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.03224318569787594</v>
+        <v>-0.005765253376627073</v>
       </c>
       <c r="C87">
-        <v>-0.0201984709922525</v>
+        <v>-0.006069265134038247</v>
       </c>
       <c r="D87">
-        <v>-0.0003221798810063968</v>
+        <v>6.644620402357257e-05</v>
       </c>
       <c r="E87">
-        <v>-0.0172512567594308</v>
+        <v>0.0001889460114196384</v>
       </c>
       <c r="F87">
-        <v>0.005458792780220421</v>
+        <v>0.001791290856087149</v>
       </c>
       <c r="G87">
-        <v>-6.997022917347262e-05</v>
+        <v>-1.739313703188919e-05</v>
       </c>
       <c r="H87">
-        <v>0.1817449331669106</v>
+        <v>0.08017498501373313</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.04259357616273234</v>
+        <v>-0.005945853559101356</v>
       </c>
       <c r="C88">
-        <v>-0.01371000722919805</v>
+        <v>-0.009750024172396017</v>
       </c>
       <c r="D88">
-        <v>-0.0002024392563848393</v>
+        <v>2.076192258665533e-05</v>
       </c>
       <c r="E88">
-        <v>-0.005582488664614138</v>
+        <v>-5.3942454014827e-06</v>
       </c>
       <c r="F88">
-        <v>-0.001542564284414333</v>
+        <v>-0.0006814200622198066</v>
       </c>
       <c r="G88">
-        <v>-5.104069583033033e-05</v>
+        <v>-2.427714183827402e-05</v>
       </c>
       <c r="H88">
-        <v>0.2363186544225596</v>
+        <v>0.1231740854771999</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.01572497673091817</v>
+        <v>-0.007355614952052784</v>
       </c>
       <c r="C89">
-        <v>-0.03344199159813782</v>
+        <v>-0.004295265455960657</v>
       </c>
       <c r="D89">
-        <v>0.0001365697986218561</v>
+        <v>3.8504054600556e-05</v>
       </c>
       <c r="E89">
-        <v>-0.0009934792777245016</v>
+        <v>-0.004423609682321014</v>
       </c>
       <c r="F89">
-        <v>-0.000414494290628147</v>
+        <v>-0.0004686201025316227</v>
       </c>
       <c r="G89">
-        <v>-4.299060342748464e-05</v>
+        <v>-1.181644536616265e-05</v>
       </c>
       <c r="H89">
-        <v>0.1652563854222203</v>
+        <v>0.1088226096826688</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.01932189709593096</v>
+        <v>-0.007019882764041908</v>
       </c>
       <c r="C90">
-        <v>-0.0296629742327721</v>
+        <v>-0.01539297294469133</v>
       </c>
       <c r="D90">
-        <v>-0.0001204052084464277</v>
+        <v>7.888139655995463e-05</v>
       </c>
       <c r="E90">
-        <v>-0.01436222913049702</v>
+        <v>0.003419069397433513</v>
       </c>
       <c r="F90">
-        <v>-0.003367526679163236</v>
+        <v>0.000518107027864579</v>
       </c>
       <c r="G90">
-        <v>-4.479974699938657e-05</v>
+        <v>-2.743018890556133e-05</v>
       </c>
       <c r="H90">
-        <v>0.2322411345158883</v>
+        <v>0.1070871783863253</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.01683322244750439</v>
+        <v>-0.01355352915250761</v>
       </c>
       <c r="C91">
-        <v>-0.01198852315334157</v>
+        <v>-0.006249277000009166</v>
       </c>
       <c r="D91">
-        <v>0.0002556161424392842</v>
+        <v>4.954066318175581e-05</v>
       </c>
       <c r="E91">
-        <v>-0.001985930777544873</v>
+        <v>-0.002852481782745851</v>
       </c>
       <c r="F91">
-        <v>-0.004058148104183312</v>
+        <v>0.0002731888092347241</v>
       </c>
       <c r="G91">
-        <v>-3.322977640522686e-05</v>
+        <v>-1.587148732404406e-05</v>
       </c>
       <c r="H91">
-        <v>0.1796005782090507</v>
+        <v>0.1047514235702243</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.001203290311493055</v>
+        <v>-0.01480287112209385</v>
       </c>
       <c r="C92">
-        <v>-0.0288093837986677</v>
+        <v>-0.001611300784053024</v>
       </c>
       <c r="D92">
-        <v>-1.165777585279206e-06</v>
+        <v>4.430280937804457e-05</v>
       </c>
       <c r="E92">
-        <v>-0.004951594993954631</v>
+        <v>-0.002078659084461407</v>
       </c>
       <c r="F92">
-        <v>0.002928318914542002</v>
+        <v>0.002567647171349448</v>
       </c>
       <c r="G92">
-        <v>-7.754860542529097e-05</v>
+        <v>-1.905670096385369e-05</v>
       </c>
       <c r="H92">
-        <v>0.1677915927458742</v>
+        <v>0.0798871678260934</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.02457936289611296</v>
+        <v>-0.00664556269656841</v>
       </c>
       <c r="C93">
-        <v>-0.01099232104112026</v>
+        <v>-0.00706895482535407</v>
       </c>
       <c r="D93">
-        <v>-0.000282279597167807</v>
+        <v>0.0001032028042161232</v>
       </c>
       <c r="E93">
-        <v>0.0062469790751805</v>
+        <v>-0.001593605500584641</v>
       </c>
       <c r="F93">
-        <v>0.006717682017501525</v>
+        <v>-0.002504705304932863</v>
       </c>
       <c r="G93">
-        <v>-5.380889322919092e-05</v>
+        <v>-1.07239068952242e-05</v>
       </c>
       <c r="H93">
-        <v>0.1257420901880971</v>
+        <v>0.1261372420911321</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.007038315038525305</v>
+        <v>-0.01719812611731595</v>
       </c>
       <c r="C94">
-        <v>-0.01087361771659407</v>
+        <v>-0.01177959897061482</v>
       </c>
       <c r="D94">
-        <v>-0.0001163627669717069</v>
+        <v>-3.71597711715461e-05</v>
       </c>
       <c r="E94">
-        <v>-0.005237898577959657</v>
+        <v>0.002221209975294007</v>
       </c>
       <c r="F94">
-        <v>0.00187970359466693</v>
+        <v>-0.0003891075639603142</v>
       </c>
       <c r="G94">
-        <v>-5.471001800980884e-05</v>
+        <v>-1.105479945655272e-05</v>
       </c>
       <c r="H94">
-        <v>0.1639351234013479</v>
+        <v>0.1210665746005741</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.01194787461000188</v>
+        <v>-0.01774995499836596</v>
       </c>
       <c r="C95">
-        <v>-0.006309938826247284</v>
+        <v>-0.01170185926714916</v>
       </c>
       <c r="D95">
-        <v>2.516519522169539e-05</v>
+        <v>4.961210776260616e-05</v>
       </c>
       <c r="E95">
-        <v>0.003543398614600984</v>
+        <v>-0.002660318260291103</v>
       </c>
       <c r="F95">
-        <v>0.002328253109505734</v>
+        <v>-0.001036638987210143</v>
       </c>
       <c r="G95">
-        <v>-2.571478531945532e-05</v>
+        <v>-9.522731864968347e-06</v>
       </c>
       <c r="H95">
-        <v>0.1043740758564697</v>
+        <v>0.1201250915652933</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.03181138161731548</v>
+        <v>-0.009448078216639805</v>
       </c>
       <c r="C96">
-        <v>0.02516680274673772</v>
+        <v>-0.0101313612189337</v>
       </c>
       <c r="D96">
-        <v>1.997468338646889e-05</v>
+        <v>9.978890706761659e-05</v>
       </c>
       <c r="E96">
-        <v>-0.01506824353964147</v>
+        <v>-0.0006660279396914284</v>
       </c>
       <c r="F96">
-        <v>0.004857123774185166</v>
+        <v>-5.820227831958812e-05</v>
       </c>
       <c r="G96">
-        <v>-6.003755792978904e-05</v>
+        <v>-1.921815286377341e-05</v>
       </c>
       <c r="H96">
-        <v>0.1459355105478706</v>
+        <v>0.1061561915060503</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.04832743927859885</v>
+        <v>-0.01295424413182267</v>
       </c>
       <c r="C97">
-        <v>-0.02390330683469696</v>
+        <v>-0.009673878420892321</v>
       </c>
       <c r="D97">
-        <v>-6.551541475664431e-05</v>
+        <v>4.55721010029158e-05</v>
       </c>
       <c r="E97">
-        <v>0.02975483164979645</v>
+        <v>0.001319053695390218</v>
       </c>
       <c r="F97">
-        <v>0.003425810150750806</v>
+        <v>0.0007686905737393985</v>
       </c>
       <c r="G97">
-        <v>-4.761066065845299e-05</v>
+        <v>-2.45141567946064e-05</v>
       </c>
       <c r="H97">
-        <v>0.153786559782054</v>
+        <v>0.1074710111205946</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.02765599118104285</v>
+        <v>-0.01132395445219944</v>
       </c>
       <c r="C98">
-        <v>-0.02335330308285118</v>
+        <v>-0.005422972879385852</v>
       </c>
       <c r="D98">
-        <v>-0.0001099173510206254</v>
+        <v>-4.690861582370596e-05</v>
       </c>
       <c r="E98">
-        <v>-0.006768224197752845</v>
+        <v>-0.0003340835195856096</v>
       </c>
       <c r="F98">
-        <v>0.005250182143845454</v>
+        <v>0.0004333732745817935</v>
       </c>
       <c r="G98">
-        <v>-3.883667695829931e-05</v>
+        <v>-1.954069577500839e-05</v>
       </c>
       <c r="H98">
-        <v>0.1192967255198337</v>
+        <v>0.11488356941106</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.03664569912519487</v>
+        <v>0.001046595901659108</v>
       </c>
       <c r="C99">
-        <v>-0.01757543446478242</v>
+        <v>-0.01119390457141323</v>
       </c>
       <c r="D99">
-        <v>-0.0002575372618697158</v>
+        <v>0.0001116219589791893</v>
       </c>
       <c r="E99">
-        <v>-0.0132744153045094</v>
+        <v>0.0006306263087022951</v>
       </c>
       <c r="F99">
-        <v>0.0008984802148536844</v>
+        <v>-0.004661209647263225</v>
       </c>
       <c r="G99">
-        <v>-4.690822207918823e-05</v>
+        <v>-2.236220410470035e-05</v>
       </c>
       <c r="H99">
-        <v>0.2015277292984405</v>
+        <v>0.1589290616800402</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.01505192929860241</v>
+        <v>-0.01972105586311984</v>
       </c>
       <c r="C100">
-        <v>-0.02191811134533875</v>
+        <v>-0.006949063917069551</v>
       </c>
       <c r="D100">
-        <v>8.114383019352061e-05</v>
+        <v>-8.880540565672716e-06</v>
       </c>
       <c r="E100">
-        <v>-0.009581754939700621</v>
+        <v>-0.0009471983862104905</v>
       </c>
       <c r="F100">
-        <v>-0.003594996531870058</v>
+        <v>0.002556569929704377</v>
       </c>
       <c r="G100">
-        <v>-4.70615829686672e-05</v>
+        <v>-2.132654541034032e-05</v>
       </c>
       <c r="H100">
-        <v>0.2101160620434101</v>
+        <v>0.09276600731752961</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.008614664373616979</v>
+        <v>-0.01390668184896531</v>
       </c>
       <c r="C101">
-        <v>-0.01356846282519563</v>
+        <v>-0.01146580658478447</v>
       </c>
       <c r="D101">
-        <v>-8.294299055250601e-07</v>
+        <v>7.152087084114479e-05</v>
       </c>
       <c r="E101">
-        <v>-0.008943082446948095</v>
+        <v>-0.001989092444603567</v>
       </c>
       <c r="F101">
-        <v>-0.0001003442853196752</v>
+        <v>0.001085085965517236</v>
       </c>
       <c r="G101">
-        <v>-3.802068584049726e-05</v>
+        <v>-1.202471120000345e-05</v>
       </c>
       <c r="H101">
-        <v>0.1555210235119025</v>
+        <v>0.08939752424228919</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.0033871686623586</v>
+        <v>-0.008205461453385451</v>
       </c>
       <c r="C102">
-        <v>-0.003529592586597873</v>
+        <v>-0.004703610190129933</v>
       </c>
       <c r="D102">
-        <v>3.689064462114094e-05</v>
+        <v>1.598078190560532e-05</v>
       </c>
       <c r="E102">
-        <v>0.0001472075668459694</v>
+        <v>2.008651468476952e-05</v>
       </c>
       <c r="F102">
-        <v>0.006545343781052402</v>
+        <v>0.001103521994160378</v>
       </c>
       <c r="G102">
-        <v>-5.070780443877549e-05</v>
+        <v>-1.599311649794358e-05</v>
       </c>
       <c r="H102">
-        <v>0.0854717771574635</v>
+        <v>0.09439110830879682</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.007309750038391433</v>
+        <v>-0.006555176787423167</v>
       </c>
       <c r="C103">
-        <v>-0.02436746818249568</v>
+        <v>-0.007909310260499833</v>
       </c>
       <c r="D103">
-        <v>-9.026518194310749e-05</v>
+        <v>6.394496973657585e-05</v>
       </c>
       <c r="E103">
-        <v>0.002255057725256665</v>
+        <v>-0.004959310537129079</v>
       </c>
       <c r="F103">
-        <v>0.001967179855191951</v>
+        <v>-0.0007231124768851038</v>
       </c>
       <c r="G103">
-        <v>-5.717115928116114e-05</v>
+        <v>-1.716922992284244e-05</v>
       </c>
       <c r="H103">
-        <v>0.1566673989654716</v>
+        <v>0.1146929856857175</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.02590669889278968</v>
+        <v>-0.003471651769711137</v>
       </c>
       <c r="C104">
-        <v>-0.02779634418588967</v>
+        <v>-0.006285737688404918</v>
       </c>
       <c r="D104">
-        <v>-7.651979752508229e-05</v>
+        <v>9.85623986036368e-05</v>
       </c>
       <c r="E104">
-        <v>-0.004460494537515916</v>
+        <v>-0.001091985974271993</v>
       </c>
       <c r="F104">
-        <v>-0.001598250415423841</v>
+        <v>-0.001113150752091845</v>
       </c>
       <c r="G104">
-        <v>-4.916527737057977e-05</v>
+        <v>-2.584329209939112e-05</v>
       </c>
       <c r="H104">
-        <v>0.2174157054127973</v>
+        <v>0.1217417801211233</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.01558014400401035</v>
+        <v>-0.01723603561118713</v>
       </c>
       <c r="C105">
-        <v>-0.01383862508400573</v>
+        <v>-0.008088313904842243</v>
       </c>
       <c r="D105">
-        <v>0.0001582787196557232</v>
+        <v>-7.003156738972054e-05</v>
       </c>
       <c r="E105">
-        <v>-0.0004550387806347284</v>
+        <v>-0.0009929232712131073</v>
       </c>
       <c r="F105">
-        <v>-0.003392219729729213</v>
+        <v>-0.0001545311690954921</v>
       </c>
       <c r="G105">
-        <v>-3.160103728750968e-05</v>
+        <v>-1.328886970038288e-05</v>
       </c>
       <c r="H105">
-        <v>0.1799289472869829</v>
+        <v>0.1214806534658065</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.01105850101574711</v>
+        <v>-0.01432158787186616</v>
       </c>
       <c r="C106">
-        <v>-0.01825613595825285</v>
+        <v>0.004564362147627688</v>
       </c>
       <c r="D106">
-        <v>6.751174271462958e-05</v>
+        <v>3.051022823795027e-06</v>
       </c>
       <c r="E106">
-        <v>-0.0005376153488776542</v>
+        <v>0.00767822265532056</v>
       </c>
       <c r="F106">
-        <v>-0.001758810757825329</v>
+        <v>0.001227417096113905</v>
       </c>
       <c r="G106">
-        <v>-4.402733618857539e-05</v>
+        <v>-2.896433202544887e-05</v>
       </c>
       <c r="H106">
-        <v>0.1907852633471308</v>
+        <v>0.1077748504266848</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.003878835345773527</v>
+        <v>-0.01852129941865195</v>
       </c>
       <c r="C107">
-        <v>-0.01732941696310163</v>
+        <v>-0.005378564001168791</v>
       </c>
       <c r="D107">
-        <v>-8.058624685910097e-05</v>
+        <v>-5.730239696759739e-06</v>
       </c>
       <c r="E107">
-        <v>-0.001897351711590722</v>
+        <v>0.0003549036590520943</v>
       </c>
       <c r="F107">
-        <v>0.003676540194279927</v>
+        <v>-0.001647059113936961</v>
       </c>
       <c r="G107">
-        <v>-7.871636886739531e-05</v>
+        <v>-1.490916492591281e-05</v>
       </c>
       <c r="H107">
-        <v>0.1586932290932623</v>
+        <v>0.1434904284622554</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.01389505640899328</v>
+        <v>-0.01386564285894789</v>
       </c>
       <c r="C108">
-        <v>0.001240686124669101</v>
+        <v>-0.007710950277485838</v>
       </c>
       <c r="D108">
-        <v>-1.326056012603964e-05</v>
+        <v>7.076930684253799e-05</v>
       </c>
       <c r="E108">
-        <v>-0.006747319345755856</v>
+        <v>0.001421583654633712</v>
       </c>
       <c r="F108">
-        <v>0.0004787752761225051</v>
+        <v>-0.001775495898366525</v>
       </c>
       <c r="G108">
-        <v>-3.913053262423302e-05</v>
+        <v>-5.941508180466982e-06</v>
       </c>
       <c r="H108">
-        <v>0.1544102483017377</v>
+        <v>0.1193205626156401</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.02107792481650731</v>
+        <v>-0.01002593303200828</v>
       </c>
       <c r="C109">
-        <v>-0.02159147870553428</v>
+        <v>-0.01481788089873193</v>
       </c>
       <c r="D109">
-        <v>0.0002194428506436515</v>
+        <v>8.413810610540404e-05</v>
       </c>
       <c r="E109">
-        <v>0.006274191946754812</v>
+        <v>0.003245644877239162</v>
       </c>
       <c r="F109">
-        <v>-0.001753820229322482</v>
+        <v>0.0007395834954808812</v>
       </c>
       <c r="G109">
-        <v>-2.890839792105255e-05</v>
+        <v>-2.002685425891744e-05</v>
       </c>
       <c r="H109">
-        <v>0.150861425034471</v>
+        <v>0.1002423407798132</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.03895520644909886</v>
+        <v>-0.004380649062700508</v>
       </c>
       <c r="C110">
-        <v>-0.04637292089016008</v>
+        <v>-0.001814098436724317</v>
       </c>
       <c r="D110">
-        <v>-9.715912281152875e-05</v>
+        <v>4.459734721076653e-05</v>
       </c>
       <c r="E110">
-        <v>-0.01582927878831852</v>
+        <v>0.002253660137816915</v>
       </c>
       <c r="F110">
-        <v>-0.002243561594587083</v>
+        <v>-0.0006548648234782314</v>
       </c>
       <c r="G110">
-        <v>-6.65773098555138e-05</v>
+        <v>-1.785300371897948e-05</v>
       </c>
       <c r="H110">
-        <v>0.2601123411673918</v>
+        <v>0.1112983882559506</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.03308234099669273</v>
+        <v>-0.01729695607004425</v>
       </c>
       <c r="C111">
-        <v>-0.01559771195012791</v>
+        <v>-0.0005581903306998825</v>
       </c>
       <c r="D111">
-        <v>-0.0001749277836957452</v>
+        <v>-2.486947871641545e-05</v>
       </c>
       <c r="E111">
-        <v>-0.000186390590710489</v>
+        <v>0.0007220912418137507</v>
       </c>
       <c r="F111">
-        <v>0.007303471556929278</v>
+        <v>0.001245557602681114</v>
       </c>
       <c r="G111">
-        <v>-4.118187413930696e-05</v>
+        <v>-1.477275219138899e-05</v>
       </c>
       <c r="H111">
-        <v>0.1026605247303667</v>
+        <v>0.1001407244781533</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.03124726329710838</v>
+        <v>-0.01127693310698346</v>
       </c>
       <c r="C112">
-        <v>-0.01273708921152847</v>
+        <v>-0.01005161914450885</v>
       </c>
       <c r="D112">
-        <v>4.134730332268828e-05</v>
+        <v>2.699185616065429e-05</v>
       </c>
       <c r="E112">
-        <v>0.004295894587538387</v>
+        <v>0.0006643040625787383</v>
       </c>
       <c r="F112">
-        <v>0.0006590787190197489</v>
+        <v>0.001291077614087253</v>
       </c>
       <c r="G112">
-        <v>-4.029470724407067e-05</v>
+        <v>-1.629841150912579e-05</v>
       </c>
       <c r="H112">
-        <v>0.1573334183486279</v>
+        <v>0.09537461850934348</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.02438613296153275</v>
+        <v>-0.00821314281153647</v>
       </c>
       <c r="C113">
-        <v>-0.01099321685209667</v>
+        <v>-0.01058509270375841</v>
       </c>
       <c r="D113">
-        <v>-0.0003909555574988244</v>
+        <v>5.505968560830163e-05</v>
       </c>
       <c r="E113">
-        <v>-0.00975918778954557</v>
+        <v>-0.006504762460612566</v>
       </c>
       <c r="F113">
-        <v>0.006243264203241264</v>
+        <v>0.0003354088335916881</v>
       </c>
       <c r="G113">
-        <v>-5.348903049603384e-05</v>
+        <v>-2.498240243344586e-05</v>
       </c>
       <c r="H113">
-        <v>0.1419805824091983</v>
+        <v>0.1136903219432422</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.0276515287215227</v>
+        <v>-0.01076873370798935</v>
       </c>
       <c r="C114">
-        <v>-0.03411104496585786</v>
+        <v>-0.004803331711864016</v>
       </c>
       <c r="D114">
-        <v>0.0001290881104422826</v>
+        <v>6.48107853037989e-05</v>
       </c>
       <c r="E114">
-        <v>-0.015669996801063</v>
+        <v>-0.001702093235426839</v>
       </c>
       <c r="F114">
-        <v>-0.006810299763428963</v>
+        <v>0.0007878131112963674</v>
       </c>
       <c r="G114">
-        <v>-5.034562137776708e-05</v>
+        <v>-1.587092026052943e-05</v>
       </c>
       <c r="H114">
-        <v>0.2651626858521778</v>
+        <v>0.09738786245029631</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.02015447743472394</v>
+        <v>-0.01094815698577028</v>
       </c>
       <c r="C115">
-        <v>0.008533524373204319</v>
+        <v>-0.006309535825501684</v>
       </c>
       <c r="D115">
-        <v>-0.000453084336440528</v>
+        <v>-2.167773511055603e-06</v>
       </c>
       <c r="E115">
-        <v>-0.01327101238416943</v>
+        <v>0.00294395300440152</v>
       </c>
       <c r="F115">
-        <v>0.008627045025487315</v>
+        <v>0.0008427441737436585</v>
       </c>
       <c r="G115">
-        <v>-6.587472847876378e-05</v>
+        <v>-1.513346068276128e-05</v>
       </c>
       <c r="H115">
-        <v>0.1289498460190481</v>
+        <v>0.1000494619951655</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.01293065843193179</v>
+        <v>-0.01264295835166065</v>
       </c>
       <c r="C116">
-        <v>-0.0139445544221748</v>
+        <v>-0.0039652450131985</v>
       </c>
       <c r="D116">
-        <v>4.478626831368881e-06</v>
+        <v>-1.468200976201212e-05</v>
       </c>
       <c r="E116">
-        <v>0.002880516836609226</v>
+        <v>0.002847989744956925</v>
       </c>
       <c r="F116">
-        <v>-0.0005695407761370031</v>
+        <v>0.002269698848313872</v>
       </c>
       <c r="G116">
-        <v>-2.871597014825333e-05</v>
+        <v>-1.385990052176509e-05</v>
       </c>
       <c r="H116">
-        <v>0.1486494933723737</v>
+        <v>0.08028109577562864</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.02345460375555412</v>
+        <v>-0.01106210034906327</v>
       </c>
       <c r="C117">
-        <v>-0.01246579221900798</v>
+        <v>-0.006892073289257209</v>
       </c>
       <c r="D117">
-        <v>7.871481078982306e-05</v>
+        <v>2.696085870377939e-05</v>
       </c>
       <c r="E117">
-        <v>0.00890883850709917</v>
+        <v>-0.002668353200819151</v>
       </c>
       <c r="F117">
-        <v>0.002638872584540857</v>
+        <v>-0.00127899143504792</v>
       </c>
       <c r="G117">
-        <v>-3.690330962855493e-05</v>
+        <v>-1.867965882326892e-05</v>
       </c>
       <c r="H117">
-        <v>0.1201602202636814</v>
+        <v>0.1317052062013402</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.04533624062381495</v>
+        <v>-0.006719736785265567</v>
       </c>
       <c r="C118">
-        <v>-0.03262104286995697</v>
+        <v>-0.004700380258851259</v>
       </c>
       <c r="D118">
-        <v>-0.0001505448981885307</v>
+        <v>4.041959355367178e-05</v>
       </c>
       <c r="E118">
-        <v>-0.006687033270522294</v>
+        <v>0.007342906558986131</v>
       </c>
       <c r="F118">
-        <v>0.001680109938871033</v>
+        <v>0.0004762915003913367</v>
       </c>
       <c r="G118">
-        <v>-5.301823115316153e-05</v>
+        <v>-1.592204994001728e-05</v>
       </c>
       <c r="H118">
-        <v>0.2011464274485446</v>
+        <v>0.09659495476381595</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.02560506269725052</v>
+        <v>-0.01524098348699326</v>
       </c>
       <c r="C119">
-        <v>-0.02521666809658681</v>
+        <v>-0.01070942466212385</v>
       </c>
       <c r="D119">
-        <v>0.0002159828380046509</v>
+        <v>2.591572820634036e-05</v>
       </c>
       <c r="E119">
-        <v>-0.01040736096980518</v>
+        <v>-0.004769458226394727</v>
       </c>
       <c r="F119">
-        <v>0.0001763924037918498</v>
+        <v>-0.0013875355550359</v>
       </c>
       <c r="G119">
-        <v>-3.941076892685568e-05</v>
+        <v>-1.726939634049353e-05</v>
       </c>
       <c r="H119">
-        <v>0.1515160439358811</v>
+        <v>0.1333050733314599</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.01348084362013203</v>
+        <v>-0.01595406488767781</v>
       </c>
       <c r="C120">
-        <v>-0.03095583248625705</v>
+        <v>-0.01446822421071163</v>
       </c>
       <c r="D120">
-        <v>-0.0001425690799761735</v>
+        <v>8.452856891472973e-05</v>
       </c>
       <c r="E120">
-        <v>-0.0136477940190924</v>
+        <v>-0.004670329213719224</v>
       </c>
       <c r="F120">
-        <v>-0.00175665688325363</v>
+        <v>0.001486665104973536</v>
       </c>
       <c r="G120">
-        <v>-6.69483257582401e-05</v>
+        <v>-1.119804237571116e-05</v>
       </c>
       <c r="H120">
-        <v>0.2461664148370885</v>
+        <v>0.09079238231615264</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.003831547773969634</v>
+        <v>-0.01565526599294469</v>
       </c>
       <c r="C121">
-        <v>-0.01055890555459869</v>
+        <v>-0.000890766377201856</v>
       </c>
       <c r="D121">
-        <v>6.460836899348564e-06</v>
+        <v>-1.20456219118053e-05</v>
       </c>
       <c r="E121">
-        <v>-0.01067238268112423</v>
+        <v>-0.0030402464830461</v>
       </c>
       <c r="F121">
-        <v>-0.006695054382023951</v>
+        <v>0.001331759111781366</v>
       </c>
       <c r="G121">
-        <v>-3.911316029424763e-05</v>
+        <v>-2.049779047941093e-05</v>
       </c>
       <c r="H121">
-        <v>0.2406802568337147</v>
+        <v>0.1048437853134912</v>
       </c>
     </row>
   </sheetData>

--- a/FOMC2_coef.xlsx
+++ b/FOMC2_coef.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.01761687507666351</v>
+        <v>-0.003158882057329527</v>
       </c>
       <c r="C2">
-        <v>-0.007341911878220161</v>
+        <v>0.001543119514311586</v>
       </c>
       <c r="D2">
-        <v>-2.823709549003542e-05</v>
+        <v>-5.213936916652721e-05</v>
       </c>
       <c r="E2">
-        <v>-0.002831595429974784</v>
+        <v>0.0008533242269399346</v>
       </c>
       <c r="F2">
-        <v>-0.0001671016630846069</v>
+        <v>3.346022046212048e-05</v>
       </c>
       <c r="G2">
-        <v>-2.010018564365356e-05</v>
+        <v>1.612791707775505e-06</v>
       </c>
       <c r="H2">
-        <v>0.1260239357169935</v>
+        <v>0.06081867359640211</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.004090716579114785</v>
+        <v>-0.0003655039726284119</v>
       </c>
       <c r="C3">
-        <v>-0.01634645326484934</v>
+        <v>-0.001206479848707845</v>
       </c>
       <c r="D3">
-        <v>0.000103145057766563</v>
+        <v>1.550248472530531e-05</v>
       </c>
       <c r="E3">
-        <v>-0.0003765146344975184</v>
+        <v>0.000560432469390252</v>
       </c>
       <c r="F3">
-        <v>-0.0006471658822306495</v>
+        <v>-1.299744555908984e-05</v>
       </c>
       <c r="G3">
-        <v>-1.25207019219476e-05</v>
+        <v>-6.505756680774938e-07</v>
       </c>
       <c r="H3">
-        <v>0.1043414446217665</v>
+        <v>0.03949997639137</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.009241472561786616</v>
+        <v>0.0009691180900569876</v>
       </c>
       <c r="C4">
-        <v>0.0008246384409648722</v>
+        <v>0.0004407901743213403</v>
       </c>
       <c r="D4">
-        <v>-3.142148962447418e-07</v>
+        <v>-9.232364222984095e-06</v>
       </c>
       <c r="E4">
-        <v>-0.002789293807443249</v>
+        <v>0.00152054295446806</v>
       </c>
       <c r="F4">
-        <v>4.921552372192317e-05</v>
+        <v>-0.0002125773096322351</v>
       </c>
       <c r="G4">
-        <v>-1.705677707018634e-05</v>
+        <v>-2.316959988419176e-07</v>
       </c>
       <c r="H4">
-        <v>0.1110216344623169</v>
+        <v>0.04826670476593346</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.006600357811882961</v>
+        <v>0.001554304755126699</v>
       </c>
       <c r="C5">
-        <v>-0.003787383070630193</v>
+        <v>-0.002200921420860676</v>
       </c>
       <c r="D5">
-        <v>-2.964792182910631e-05</v>
+        <v>1.194794479412539e-05</v>
       </c>
       <c r="E5">
-        <v>0.003694645024357415</v>
+        <v>0.0007672258990933309</v>
       </c>
       <c r="F5">
-        <v>-0.001325839960083424</v>
+        <v>-0.0003331600822092707</v>
       </c>
       <c r="G5">
-        <v>-2.093970723737406e-05</v>
+        <v>1.579484316456546e-06</v>
       </c>
       <c r="H5">
-        <v>0.1320504669175651</v>
+        <v>0.04494259688073496</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.01178179297916595</v>
+        <v>0.0008539213376525857</v>
       </c>
       <c r="C6">
-        <v>-0.009297277178485939</v>
+        <v>-0.0001669874343411905</v>
       </c>
       <c r="D6">
-        <v>-1.567222037607884e-06</v>
+        <v>2.957238263634818e-05</v>
       </c>
       <c r="E6">
-        <v>-0.000144318998222856</v>
+        <v>-0.0004511140330319859</v>
       </c>
       <c r="F6">
-        <v>0.001224243671710943</v>
+        <v>-0.0001078603408289826</v>
       </c>
       <c r="G6">
-        <v>-2.063736283531499e-05</v>
+        <v>-6.25935143443597e-07</v>
       </c>
       <c r="H6">
-        <v>0.0993542178699246</v>
+        <v>0.0327214926471299</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.01312445321507365</v>
+        <v>0.0004963043404388953</v>
       </c>
       <c r="C7">
-        <v>-0.00577739311656137</v>
+        <v>0.006301131627940413</v>
       </c>
       <c r="D7">
-        <v>-5.27398631736989e-05</v>
+        <v>-2.229050863590751e-06</v>
       </c>
       <c r="E7">
-        <v>-0.003436397050652303</v>
+        <v>-0.001231819063675359</v>
       </c>
       <c r="F7">
-        <v>0.001623870000963673</v>
+        <v>-0.0007401974865370908</v>
       </c>
       <c r="G7">
-        <v>-1.45555685683811e-05</v>
+        <v>-1.229341035611999e-06</v>
       </c>
       <c r="H7">
-        <v>0.09729428198353719</v>
+        <v>0.09035403434570072</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.003921110922453244</v>
+        <v>0.001697102965032734</v>
       </c>
       <c r="C8">
-        <v>-0.01282609256027615</v>
+        <v>-0.002481249175733244</v>
       </c>
       <c r="D8">
-        <v>4.719137325873723e-05</v>
+        <v>4.795662025616673e-06</v>
       </c>
       <c r="E8">
-        <v>0.008205797157451816</v>
+        <v>-0.0009756964916038356</v>
       </c>
       <c r="F8">
-        <v>-0.002186625855523244</v>
+        <v>-0.0003676474360539311</v>
       </c>
       <c r="G8">
-        <v>-1.57588466353305e-05</v>
+        <v>1.206397334682811e-07</v>
       </c>
       <c r="H8">
-        <v>0.129204748568424</v>
+        <v>0.04652827267388158</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.01077343431650749</v>
+        <v>0.001347997634461463</v>
       </c>
       <c r="C9">
-        <v>-0.005128064352004335</v>
+        <v>-0.002643687192711681</v>
       </c>
       <c r="D9">
-        <v>4.392227930341243e-05</v>
+        <v>2.423169725739533e-05</v>
       </c>
       <c r="E9">
-        <v>0.0005694968561855071</v>
+        <v>0.0007051138725777326</v>
       </c>
       <c r="F9">
-        <v>0.00191092504323008</v>
+        <v>0.0001961074407994768</v>
       </c>
       <c r="G9">
-        <v>-1.897091293721295e-05</v>
+        <v>-1.618090617670405e-06</v>
       </c>
       <c r="H9">
-        <v>0.0885551425819963</v>
+        <v>0.08075692288846029</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.001194118392523447</v>
+        <v>0.0002192956480437992</v>
       </c>
       <c r="C10">
-        <v>-0.01019751794438881</v>
+        <v>0.001339871642341508</v>
       </c>
       <c r="D10">
-        <v>-1.426514932312924e-05</v>
+        <v>4.341979505434988e-06</v>
       </c>
       <c r="E10">
-        <v>0.001536470617989408</v>
+        <v>0.001231526015920147</v>
       </c>
       <c r="F10">
-        <v>-0.0009022746236225811</v>
+        <v>0.0002091195682888007</v>
       </c>
       <c r="G10">
-        <v>-2.302167427449027e-05</v>
+        <v>-7.936865324631076e-08</v>
       </c>
       <c r="H10">
-        <v>0.1262710507918265</v>
+        <v>0.03364351927478867</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.006593894589137807</v>
+        <v>0.0001877606997958692</v>
       </c>
       <c r="C11">
-        <v>-0.01260137254975455</v>
+        <v>-4.466840598695823e-05</v>
       </c>
       <c r="D11">
-        <v>4.217404474941458e-05</v>
+        <v>3.04497162732309e-08</v>
       </c>
       <c r="E11">
-        <v>0.007251054229669505</v>
+        <v>0.0001486200573167611</v>
       </c>
       <c r="F11">
-        <v>-0.0006303100565855358</v>
+        <v>-7.929058423708691e-05</v>
       </c>
       <c r="G11">
-        <v>-2.183073955240525e-05</v>
+        <v>2.20523372333219e-07</v>
       </c>
       <c r="H11">
-        <v>0.1163324928097335</v>
+        <v>0.02816007349827956</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.005558757007317381</v>
+        <v>-0.002530696420868989</v>
       </c>
       <c r="C12">
-        <v>-0.004933221658960091</v>
+        <v>-0.003940994576265133</v>
       </c>
       <c r="D12">
-        <v>1.243087413599594e-05</v>
+        <v>-1.72045019373103e-05</v>
       </c>
       <c r="E12">
-        <v>-0.001483052899977522</v>
+        <v>-0.0003762325517220264</v>
       </c>
       <c r="F12">
-        <v>-0.0007620555568940859</v>
+        <v>2.597494261715925e-05</v>
       </c>
       <c r="G12">
-        <v>-2.080211348934867e-05</v>
+        <v>2.170202348307658e-07</v>
       </c>
       <c r="H12">
-        <v>0.1216857422364024</v>
+        <v>0.08462535831790861</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.003444767442832584</v>
+        <v>-0.000127441357849205</v>
       </c>
       <c r="C13">
-        <v>-0.003157648283337268</v>
+        <v>0.0001804345023188384</v>
       </c>
       <c r="D13">
-        <v>6.589470419602415e-05</v>
+        <v>-3.583065278659236e-07</v>
       </c>
       <c r="E13">
-        <v>0.001826393338980922</v>
+        <v>-2.693215207770841e-05</v>
       </c>
       <c r="F13">
-        <v>0.0007321137923465841</v>
+        <v>4.022027776516828e-06</v>
       </c>
       <c r="G13">
-        <v>-1.608775202376204e-05</v>
+        <v>5.460981004026555e-07</v>
       </c>
       <c r="H13">
-        <v>0.08891869089193627</v>
+        <v>0.02737266027528742</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01161205850340797</v>
+        <v>-0.0004424383912378727</v>
       </c>
       <c r="C14">
-        <v>-0.007573499904338671</v>
+        <v>0.0005148304548021031</v>
       </c>
       <c r="D14">
-        <v>2.115540546474571e-05</v>
+        <v>-8.63904962784178e-06</v>
       </c>
       <c r="E14">
-        <v>-0.001364654751709687</v>
+        <v>-0.0002235931785925099</v>
       </c>
       <c r="F14">
-        <v>-0.001351603519198152</v>
+        <v>-4.756267720464871e-05</v>
       </c>
       <c r="G14">
-        <v>-1.374246402914722e-05</v>
+        <v>-1.476674867584953e-07</v>
       </c>
       <c r="H14">
-        <v>0.1287265685911076</v>
+        <v>0.03336582025359368</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.01011185747419786</v>
+        <v>0.0005448452643674389</v>
       </c>
       <c r="C15">
-        <v>-0.006971608846109565</v>
+        <v>0.003802099936425085</v>
       </c>
       <c r="D15">
-        <v>5.037221070193721e-05</v>
+        <v>-5.259179588811209e-06</v>
       </c>
       <c r="E15">
-        <v>-0.00157175771517306</v>
+        <v>0.0003879582090639197</v>
       </c>
       <c r="F15">
-        <v>0.0001203960844869982</v>
+        <v>0.0009054996386583192</v>
       </c>
       <c r="G15">
-        <v>-1.058545509991864e-05</v>
+        <v>-6.333649437372208e-07</v>
       </c>
       <c r="H15">
-        <v>0.09923019409752901</v>
+        <v>0.05315123398914008</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.01119630373194401</v>
+        <v>0.0003146779712892888</v>
       </c>
       <c r="C16">
-        <v>-0.001734207886582821</v>
+        <v>-0.001114046137687139</v>
       </c>
       <c r="D16">
-        <v>-2.852242414055619e-05</v>
+        <v>-5.429249426689243e-06</v>
       </c>
       <c r="E16">
-        <v>0.001203771961681026</v>
+        <v>-0.0005225891202444988</v>
       </c>
       <c r="F16">
-        <v>0.0006033506659921478</v>
+        <v>0.000175292947862462</v>
       </c>
       <c r="G16">
-        <v>-1.091000815465399e-05</v>
+        <v>3.886374796580483e-07</v>
       </c>
       <c r="H16">
-        <v>0.1003926906964236</v>
+        <v>0.03736126921140817</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.01200555847175927</v>
+        <v>-8.011694892670791e-05</v>
       </c>
       <c r="C17">
-        <v>-0.002961686810507997</v>
+        <v>-0.0001783132105104331</v>
       </c>
       <c r="D17">
-        <v>2.565691999754567e-05</v>
+        <v>1.720147651787336e-06</v>
       </c>
       <c r="E17">
-        <v>0.0006174860911359048</v>
+        <v>-7.326669597045032e-05</v>
       </c>
       <c r="F17">
-        <v>-0.0005141376618474057</v>
+        <v>-2.867622907955358e-05</v>
       </c>
       <c r="G17">
-        <v>-1.933153786210031e-05</v>
+        <v>1.466855701648487e-07</v>
       </c>
       <c r="H17">
-        <v>0.1185783565162201</v>
+        <v>0.02749941006419079</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.01387646929212988</v>
+        <v>-0.0003338109480387581</v>
       </c>
       <c r="C18">
-        <v>-0.01019255884014354</v>
+        <v>-0.004464924988003488</v>
       </c>
       <c r="D18">
-        <v>-2.430744858161846e-05</v>
+        <v>5.659231864489017e-06</v>
       </c>
       <c r="E18">
-        <v>0.001914972695904169</v>
+        <v>0.0009441922128867811</v>
       </c>
       <c r="F18">
-        <v>-0.001378882642207489</v>
+        <v>0.0003800712116202709</v>
       </c>
       <c r="G18">
-        <v>-1.569127954725329e-05</v>
+        <v>2.643951878814826e-07</v>
       </c>
       <c r="H18">
-        <v>0.1338271610861021</v>
+        <v>0.06333699696599636</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.01541560074758542</v>
+        <v>9.177913329685419e-05</v>
       </c>
       <c r="C19">
-        <v>-0.005973891301249132</v>
+        <v>-0.0005739207308804515</v>
       </c>
       <c r="D19">
-        <v>4.206813881232361e-05</v>
+        <v>-7.732064889885755e-06</v>
       </c>
       <c r="E19">
-        <v>-0.001005618296342228</v>
+        <v>-8.678906757121629e-05</v>
       </c>
       <c r="F19">
-        <v>0.0006391240524549631</v>
+        <v>-4.495999485765856e-05</v>
       </c>
       <c r="G19">
-        <v>-1.605204896276445e-05</v>
+        <v>1.918810285580734e-07</v>
       </c>
       <c r="H19">
-        <v>0.1038527863357375</v>
+        <v>0.03110609322417565</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.02326605125404418</v>
+        <v>-0.001972857989753036</v>
       </c>
       <c r="C20">
-        <v>-0.0123992831497129</v>
+        <v>-0.0009515847852492191</v>
       </c>
       <c r="D20">
-        <v>5.485032214727322e-05</v>
+        <v>-5.104583807512516e-06</v>
       </c>
       <c r="E20">
-        <v>0.0008962717322246322</v>
+        <v>-1.209010704045915e-05</v>
       </c>
       <c r="F20">
-        <v>0.002252417616825836</v>
+        <v>-0.0006055830039136845</v>
       </c>
       <c r="G20">
-        <v>-1.673771322004928e-05</v>
+        <v>3.207946627091996e-06</v>
       </c>
       <c r="H20">
-        <v>0.08967262381774301</v>
+        <v>0.05925864899815959</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.01210066208671525</v>
+        <v>-0.0004222479734623513</v>
       </c>
       <c r="C21">
-        <v>-0.006977615565496743</v>
+        <v>-0.007240808972205919</v>
       </c>
       <c r="D21">
-        <v>-1.371919954742167e-05</v>
+        <v>5.986952633436333e-05</v>
       </c>
       <c r="E21">
-        <v>-0.006665268269627718</v>
+        <v>-0.00378661094047409</v>
       </c>
       <c r="F21">
-        <v>0.0009311712709614835</v>
+        <v>-0.001243493990037043</v>
       </c>
       <c r="G21">
-        <v>-1.905972728160471e-05</v>
+        <v>-2.499227896281238e-06</v>
       </c>
       <c r="H21">
-        <v>0.1056999790483012</v>
+        <v>0.1036650986220973</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.01340987719599823</v>
+        <v>-0.00223100160513477</v>
       </c>
       <c r="C22">
-        <v>-0.005004486911029782</v>
+        <v>0.007405298537956979</v>
       </c>
       <c r="D22">
-        <v>1.974933060546328e-05</v>
+        <v>-5.675654319493035e-05</v>
       </c>
       <c r="E22">
-        <v>-0.002546268083566942</v>
+        <v>0.00178847059595786</v>
       </c>
       <c r="F22">
-        <v>3.703582697479446e-05</v>
+        <v>0.001019321091139666</v>
       </c>
       <c r="G22">
-        <v>-1.383971313384571e-05</v>
+        <v>2.987198374442425e-06</v>
       </c>
       <c r="H22">
-        <v>0.1100030973979529</v>
+        <v>0.07373370074044035</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.006690316691019676</v>
+        <v>-0.000440726944498762</v>
       </c>
       <c r="C23">
-        <v>-0.00995477532047755</v>
+        <v>-0.003574461137096558</v>
       </c>
       <c r="D23">
-        <v>8.198850587019135e-05</v>
+        <v>4.641220143216511e-05</v>
       </c>
       <c r="E23">
-        <v>-0.002645616328788063</v>
+        <v>-0.001827072720386569</v>
       </c>
       <c r="F23">
-        <v>-0.002206250136924909</v>
+        <v>-0.0009448212138268172</v>
       </c>
       <c r="G23">
-        <v>-1.348682760146256e-05</v>
+        <v>-5.17850316748625e-07</v>
       </c>
       <c r="H23">
-        <v>0.1277363721175907</v>
+        <v>0.08835518906827887</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.01229820289663775</v>
+        <v>0.0008081679787266581</v>
       </c>
       <c r="C24">
-        <v>-0.002558126496959512</v>
+        <v>0.0002258080739471406</v>
       </c>
       <c r="D24">
-        <v>1.975746334300114e-05</v>
+        <v>4.840649866465362e-06</v>
       </c>
       <c r="E24">
-        <v>0.0006401620792000698</v>
+        <v>-0.0002032512866734122</v>
       </c>
       <c r="F24">
-        <v>-0.002118272956239562</v>
+        <v>-8.873021971622853e-05</v>
       </c>
       <c r="G24">
-        <v>-1.375077499987578e-05</v>
+        <v>1.055880088839359e-06</v>
       </c>
       <c r="H24">
-        <v>0.1347352285896314</v>
+        <v>0.0370466341701023</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.01736329519894832</v>
+        <v>3.681216741840184e-05</v>
       </c>
       <c r="C25">
-        <v>-0.001525413145638085</v>
+        <v>0.0001848197315141649</v>
       </c>
       <c r="D25">
-        <v>3.225996659603419e-06</v>
+        <v>-1.531776048496219e-06</v>
       </c>
       <c r="E25">
-        <v>0.001011490214009501</v>
+        <v>1.579688069928628e-05</v>
       </c>
       <c r="F25">
-        <v>0.001466335025514253</v>
+        <v>-1.504730738289265e-05</v>
       </c>
       <c r="G25">
-        <v>-8.867176349884355e-06</v>
+        <v>-2.062287581405028e-07</v>
       </c>
       <c r="H25">
-        <v>0.08912707705141086</v>
+        <v>0.02760055025302702</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.01426682087042177</v>
+        <v>-0.004067253967563723</v>
       </c>
       <c r="C26">
-        <v>-0.00805734693009655</v>
+        <v>0.000229246557341886</v>
       </c>
       <c r="D26">
-        <v>5.690165524298719e-05</v>
+        <v>-2.422877468995841e-05</v>
       </c>
       <c r="E26">
-        <v>-0.001947378013028897</v>
+        <v>-0.0009346191564138656</v>
       </c>
       <c r="F26">
-        <v>0.001570347733819347</v>
+        <v>-0.002406416286718778</v>
       </c>
       <c r="G26">
-        <v>-2.290561566599986e-05</v>
+        <v>2.946302253508499e-06</v>
       </c>
       <c r="H26">
-        <v>0.096376978516933</v>
+        <v>0.1141875834999894</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.0194312516176853</v>
+        <v>0.0002519495376223611</v>
       </c>
       <c r="C27">
-        <v>-0.007606783802784729</v>
+        <v>2.289702908218677e-05</v>
       </c>
       <c r="D27">
-        <v>1.593447990521657e-05</v>
+        <v>1.866171524817093e-06</v>
       </c>
       <c r="E27">
-        <v>-0.0001193993072977767</v>
+        <v>0.000203500115634192</v>
       </c>
       <c r="F27">
-        <v>0.001668828397753003</v>
+        <v>-2.935214759979975e-05</v>
       </c>
       <c r="G27">
-        <v>-2.240510528996303e-05</v>
+        <v>-5.895401693801153e-08</v>
       </c>
       <c r="H27">
-        <v>0.1032706441986227</v>
+        <v>0.02781364477345271</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.01472748536591615</v>
+        <v>2.65473621663655e-05</v>
       </c>
       <c r="C28">
-        <v>-0.01212262516524699</v>
+        <v>0.0001107390866352052</v>
       </c>
       <c r="D28">
-        <v>2.266361616554315e-05</v>
+        <v>1.250563957655621e-06</v>
       </c>
       <c r="E28">
-        <v>-0.0008410427853428257</v>
+        <v>0.0001478254319575191</v>
       </c>
       <c r="F28">
-        <v>0.002075910604027209</v>
+        <v>-3.320288501298832e-05</v>
       </c>
       <c r="G28">
-        <v>-1.485153650008289e-05</v>
+        <v>3.392709971755266e-07</v>
       </c>
       <c r="H28">
-        <v>0.08555073388389206</v>
+        <v>0.02798905364547903</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.01956503615058505</v>
+        <v>9.106649572602826e-05</v>
       </c>
       <c r="C29">
-        <v>-0.01823148703976354</v>
+        <v>2.549283174365356e-05</v>
       </c>
       <c r="D29">
-        <v>-7.678800040165344e-05</v>
+        <v>-1.846158261319236e-06</v>
       </c>
       <c r="E29">
-        <v>-0.002779288704217661</v>
+        <v>2.455373924899196e-05</v>
       </c>
       <c r="F29">
-        <v>0.001285202877708533</v>
+        <v>-9.948130680644115e-06</v>
       </c>
       <c r="G29">
-        <v>-3.212800802632804e-05</v>
+        <v>1.296817334987104e-07</v>
       </c>
       <c r="H29">
-        <v>0.128384568797297</v>
+        <v>0.02753947884865685</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.004605254022317868</v>
+        <v>-0.001549430703273479</v>
       </c>
       <c r="C30">
-        <v>-0.003458949138240536</v>
+        <v>2.437899351070684e-05</v>
       </c>
       <c r="D30">
-        <v>5.857947510123714e-06</v>
+        <v>-3.003606909098405e-07</v>
       </c>
       <c r="E30">
-        <v>-0.001578840235347712</v>
+        <v>-0.001522330398936025</v>
       </c>
       <c r="F30">
-        <v>5.975346193019153e-05</v>
+        <v>0.0007275935358954648</v>
       </c>
       <c r="G30">
-        <v>-1.79178219709869e-05</v>
+        <v>-1.505311138534212e-06</v>
       </c>
       <c r="H30">
-        <v>0.1056498113003963</v>
+        <v>0.0464160224293698</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.01040176817029057</v>
+        <v>0.0001550842654306239</v>
       </c>
       <c r="C31">
-        <v>-0.006063780948097648</v>
+        <v>2.915001476729148e-06</v>
       </c>
       <c r="D31">
-        <v>5.648367755093859e-05</v>
+        <v>7.81601499858633e-07</v>
       </c>
       <c r="E31">
-        <v>0.002788084969900587</v>
+        <v>0.0001174664207056822</v>
       </c>
       <c r="F31">
-        <v>0.001277676305929085</v>
+        <v>-5.125038959093259e-05</v>
       </c>
       <c r="G31">
-        <v>-1.87868568068973e-05</v>
+        <v>1.336571536734052e-07</v>
       </c>
       <c r="H31">
-        <v>0.09099219482427968</v>
+        <v>0.02740432996024308</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.01529791707794501</v>
+        <v>-0.0007418370560402909</v>
       </c>
       <c r="C32">
-        <v>0.0001016548395282261</v>
+        <v>0.0006785580243912643</v>
       </c>
       <c r="D32">
-        <v>-3.686767524165476e-05</v>
+        <v>-2.893697657250107e-05</v>
       </c>
       <c r="E32">
-        <v>-0.001937366522999355</v>
+        <v>-0.002754168677728729</v>
       </c>
       <c r="F32">
-        <v>0.002175718482637498</v>
+        <v>-0.000302178533555996</v>
       </c>
       <c r="G32">
-        <v>-1.690411234015606e-05</v>
+        <v>8.517631575069163e-08</v>
       </c>
       <c r="H32">
-        <v>0.08937962688824766</v>
+        <v>0.08479138333129727</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.01099640665519604</v>
+        <v>6.185256490301872e-05</v>
       </c>
       <c r="C33">
-        <v>-0.0116993088520517</v>
+        <v>0.0005072548055705254</v>
       </c>
       <c r="D33">
-        <v>3.992265985240038e-05</v>
+        <v>-1.222470594430086e-06</v>
       </c>
       <c r="E33">
-        <v>0.00383572314189852</v>
+        <v>-3.239089703290995e-05</v>
       </c>
       <c r="F33">
-        <v>-0.0001669606031097341</v>
+        <v>4.738864091036822e-05</v>
       </c>
       <c r="G33">
-        <v>-2.747323082394034e-05</v>
+        <v>-1.681946104180806e-07</v>
       </c>
       <c r="H33">
-        <v>0.1231266777526529</v>
+        <v>0.02673252408079042</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.01341540339496448</v>
+        <v>2.44501068818884e-05</v>
       </c>
       <c r="C34">
-        <v>-0.01007503747441</v>
+        <v>-7.707093828948088e-05</v>
       </c>
       <c r="D34">
-        <v>3.442147031803564e-05</v>
+        <v>-1.262055393920151e-06</v>
       </c>
       <c r="E34">
-        <v>0.001198288589829025</v>
+        <v>0.0007398284268783986</v>
       </c>
       <c r="F34">
-        <v>-0.0009357103935846488</v>
+        <v>-1.325669620921605e-05</v>
       </c>
       <c r="G34">
-        <v>-1.142090550907218e-05</v>
+        <v>2.627842278060234e-07</v>
       </c>
       <c r="H34">
-        <v>0.1188970109434562</v>
+        <v>0.02979663881999031</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02082965843809043</v>
+        <v>0.0002300133320039151</v>
       </c>
       <c r="C35">
-        <v>-0.009833265546339367</v>
+        <v>0.002528323725319919</v>
       </c>
       <c r="D35">
-        <v>5.342258797031753e-05</v>
+        <v>-4.776741001586872e-06</v>
       </c>
       <c r="E35">
-        <v>-0.003046733440141051</v>
+        <v>0.0001975997320129361</v>
       </c>
       <c r="F35">
-        <v>-0.0006771224330453309</v>
+        <v>-0.0001031276425918719</v>
       </c>
       <c r="G35">
-        <v>-1.688083823768883e-05</v>
+        <v>3.290178762654759e-06</v>
       </c>
       <c r="H35">
-        <v>0.1247933584135366</v>
+        <v>0.04807543850512332</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.01639699867070326</v>
+        <v>-0.002417727288084657</v>
       </c>
       <c r="C36">
-        <v>-0.00794896567779445</v>
+        <v>-0.003601213134807688</v>
       </c>
       <c r="D36">
-        <v>-2.753652789529719e-05</v>
+        <v>-7.237723232531027e-06</v>
       </c>
       <c r="E36">
-        <v>-0.007578811945512347</v>
+        <v>0.001255456479577109</v>
       </c>
       <c r="F36">
-        <v>-0.0007400361331017082</v>
+        <v>0.000524209361366077</v>
       </c>
       <c r="G36">
-        <v>-1.678776846391198e-05</v>
+        <v>7.60827950769224e-08</v>
       </c>
       <c r="H36">
-        <v>0.1308147250422486</v>
+        <v>0.05389370335314959</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.01318342154361826</v>
+        <v>-2.634509311813266e-05</v>
       </c>
       <c r="C37">
-        <v>0.00511529557096947</v>
+        <v>0.0003224091829580162</v>
       </c>
       <c r="D37">
-        <v>-3.157430313352693e-05</v>
+        <v>-1.49941310285326e-06</v>
       </c>
       <c r="E37">
-        <v>8.444702141702232e-06</v>
+        <v>8.76375545490575e-05</v>
       </c>
       <c r="F37">
-        <v>0.002125275317421422</v>
+        <v>1.052522864407101e-05</v>
       </c>
       <c r="G37">
-        <v>-1.788469307106111e-05</v>
+        <v>2.111490331024808e-07</v>
       </c>
       <c r="H37">
-        <v>0.09130227521536369</v>
+        <v>0.02718409918705019</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.01022458894389121</v>
+        <v>0.001305438527565849</v>
       </c>
       <c r="C38">
-        <v>0.003763595154466981</v>
+        <v>-0.001761887507196744</v>
       </c>
       <c r="D38">
-        <v>-1.265619945863615e-05</v>
+        <v>-1.467523432546597e-05</v>
       </c>
       <c r="E38">
-        <v>-0.0007881305320098647</v>
+        <v>0.001803606942229717</v>
       </c>
       <c r="F38">
-        <v>0.002266565012196826</v>
+        <v>-0.001413472500329462</v>
       </c>
       <c r="G38">
-        <v>-1.65048678935634e-05</v>
+        <v>-5.802342634677919e-06</v>
       </c>
       <c r="H38">
-        <v>0.08483214600523487</v>
+        <v>0.09485698380988175</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.008568448164376904</v>
+        <v>-0.0006031488939519068</v>
       </c>
       <c r="C39">
-        <v>-0.007107535256553164</v>
+        <v>-0.001102620796440744</v>
       </c>
       <c r="D39">
-        <v>1.190312250595396e-05</v>
+        <v>-1.974579459495752e-05</v>
       </c>
       <c r="E39">
-        <v>0.002881510089926619</v>
+        <v>-0.003220890892102604</v>
       </c>
       <c r="F39">
-        <v>0.001278599047168393</v>
+        <v>-0.0007377020378459129</v>
       </c>
       <c r="G39">
-        <v>-1.648945770901441e-05</v>
+        <v>3.101203434360148e-06</v>
       </c>
       <c r="H39">
-        <v>0.09205126422260002</v>
+        <v>0.06859393323219223</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.007397527092839827</v>
+        <v>-0.000778804567112633</v>
       </c>
       <c r="C40">
-        <v>-0.008749413039922639</v>
+        <v>0.0005298885358343054</v>
       </c>
       <c r="D40">
-        <v>-2.807841099577164e-05</v>
+        <v>-8.742762949016247e-06</v>
       </c>
       <c r="E40">
-        <v>-0.002226461555093082</v>
+        <v>0.0002129217785063892</v>
       </c>
       <c r="F40">
-        <v>-0.0008168447897792328</v>
+        <v>-4.957446914380148e-05</v>
       </c>
       <c r="G40">
-        <v>-1.212493593975574e-05</v>
+        <v>7.679845398253932e-07</v>
       </c>
       <c r="H40">
-        <v>0.1226948765440753</v>
+        <v>0.03772519683897092</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.0141310116613052</v>
+        <v>0.001219988711775446</v>
       </c>
       <c r="C41">
-        <v>-0.005454000707436536</v>
+        <v>0.002502144770322358</v>
       </c>
       <c r="D41">
-        <v>-3.520448714244302e-05</v>
+        <v>-4.391164997912417e-06</v>
       </c>
       <c r="E41">
-        <v>-0.0006773952475360584</v>
+        <v>0.0001677146881055719</v>
       </c>
       <c r="F41">
-        <v>0.0006260469365253485</v>
+        <v>-0.0003298611596222276</v>
       </c>
       <c r="G41">
-        <v>-1.325464533193182e-05</v>
+        <v>-6.701330606902732e-07</v>
       </c>
       <c r="H41">
-        <v>0.1088592499984476</v>
+        <v>0.0680408323304894</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.006309759314427496</v>
+        <v>0.0002909140047696107</v>
       </c>
       <c r="C42">
-        <v>-0.01348810206703208</v>
+        <v>0.001516521814058975</v>
       </c>
       <c r="D42">
-        <v>0.0001091378377060379</v>
+        <v>2.673538939569401e-06</v>
       </c>
       <c r="E42">
-        <v>-0.000413061916131871</v>
+        <v>-0.001323492129425397</v>
       </c>
       <c r="F42">
-        <v>-0.0007532552505780775</v>
+        <v>0.000902708737085949</v>
       </c>
       <c r="G42">
-        <v>-1.41384142634679e-05</v>
+        <v>-4.201135030854643e-08</v>
       </c>
       <c r="H42">
-        <v>0.1078031753613546</v>
+        <v>0.04244359449807925</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.01145477258933199</v>
+        <v>-0.004231788673305596</v>
       </c>
       <c r="C43">
-        <v>-0.01259373928112488</v>
+        <v>0.01305235358747606</v>
       </c>
       <c r="D43">
-        <v>-2.137766691361457e-05</v>
+        <v>-3.506089972969727e-05</v>
       </c>
       <c r="E43">
-        <v>0.0009480575955930354</v>
+        <v>0.005789090419463655</v>
       </c>
       <c r="F43">
-        <v>-0.001160297928126313</v>
+        <v>0.00132435482192071</v>
       </c>
       <c r="G43">
-        <v>-2.596184277719897e-05</v>
+        <v>5.035739216501657e-06</v>
       </c>
       <c r="H43">
-        <v>0.1403061669777985</v>
+        <v>0.07358754634419004</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.01450314976740915</v>
+        <v>0.00217587979285856</v>
       </c>
       <c r="C44">
-        <v>-0.005462819423687114</v>
+        <v>0.002438573564973364</v>
       </c>
       <c r="D44">
-        <v>-8.556665689956453e-05</v>
+        <v>6.435713405436038e-05</v>
       </c>
       <c r="E44">
-        <v>-0.003277223159737858</v>
+        <v>0.0009523726251478778</v>
       </c>
       <c r="F44">
-        <v>0.0009785108106001056</v>
+        <v>-0.0004247571968776408</v>
       </c>
       <c r="G44">
-        <v>-2.046019456096717e-05</v>
+        <v>2.52860385813466e-07</v>
       </c>
       <c r="H44">
-        <v>0.1124627538299357</v>
+        <v>0.07424059254022423</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.009254888095601158</v>
+        <v>0.001146164533197274</v>
       </c>
       <c r="C45">
-        <v>-0.009718402353010878</v>
+        <v>-0.001050093104681288</v>
       </c>
       <c r="D45">
-        <v>0.0001135272791493249</v>
+        <v>4.511788839389619e-05</v>
       </c>
       <c r="E45">
-        <v>0.0002089397639360793</v>
+        <v>0.0004352930831398177</v>
       </c>
       <c r="F45">
-        <v>-0.0001296433559370945</v>
+        <v>-0.001146684003120874</v>
       </c>
       <c r="G45">
-        <v>-1.432785274549419e-05</v>
+        <v>3.20128769650596e-07</v>
       </c>
       <c r="H45">
-        <v>0.100376796823358</v>
+        <v>0.08570597594362153</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.01066806783762377</v>
+        <v>0.001123793415097676</v>
       </c>
       <c r="C46">
-        <v>-0.005870239192123823</v>
+        <v>0.0008640641076798157</v>
       </c>
       <c r="D46">
-        <v>-3.780026071591757e-06</v>
+        <v>-1.242885268893447e-05</v>
       </c>
       <c r="E46">
-        <v>0.0003861541392198853</v>
+        <v>-0.0008664390029955171</v>
       </c>
       <c r="F46">
-        <v>9.242521505060377e-05</v>
+        <v>-9.588327619680192e-05</v>
       </c>
       <c r="G46">
-        <v>-1.595659778522039e-05</v>
+        <v>-7.09609835740473e-07</v>
       </c>
       <c r="H46">
-        <v>0.109752873850902</v>
+        <v>0.03875832736833398</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.008955766566999469</v>
+        <v>-0.0001893576498948231</v>
       </c>
       <c r="C47">
-        <v>-0.01173761319851839</v>
+        <v>-0.0001068425039740194</v>
       </c>
       <c r="D47">
-        <v>8.407099391543804e-05</v>
+        <v>-1.23606602182922e-06</v>
       </c>
       <c r="E47">
-        <v>0.001365479701207151</v>
+        <v>0.0001581380358160502</v>
       </c>
       <c r="F47">
-        <v>-0.0003457167316287147</v>
+        <v>-9.598451827251894e-05</v>
       </c>
       <c r="G47">
-        <v>-1.143194118379819e-05</v>
+        <v>4.972159227907212e-07</v>
       </c>
       <c r="H47">
-        <v>0.1013968752916723</v>
+        <v>0.02905912184769117</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.00278339145692255</v>
+        <v>-0.004068213211576409</v>
       </c>
       <c r="C48">
-        <v>-0.007940808629255381</v>
+        <v>0.006464479052647983</v>
       </c>
       <c r="D48">
-        <v>8.853750165915194e-06</v>
+        <v>-2.879437548353642e-05</v>
       </c>
       <c r="E48">
-        <v>0.003036673823641034</v>
+        <v>-0.004827695243593</v>
       </c>
       <c r="F48">
-        <v>-0.0009898848784454992</v>
+        <v>0.001735804178165327</v>
       </c>
       <c r="G48">
-        <v>-2.134396868449308e-05</v>
+        <v>5.030229905809421e-06</v>
       </c>
       <c r="H48">
-        <v>0.124330901700212</v>
+        <v>0.06617651647923861</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.009136605448625696</v>
+        <v>-3.049851503257508e-05</v>
       </c>
       <c r="C49">
-        <v>0.003298969241991074</v>
+        <v>-2.599928167851847e-05</v>
       </c>
       <c r="D49">
-        <v>3.288908758558967e-05</v>
+        <v>-6.993334607312529e-07</v>
       </c>
       <c r="E49">
-        <v>0.001338645260283572</v>
+        <v>6.931974052572926e-06</v>
       </c>
       <c r="F49">
-        <v>0.0004577804537403067</v>
+        <v>1.631293039564322e-05</v>
       </c>
       <c r="G49">
-        <v>-1.902092864704341e-05</v>
+        <v>-1.624991809216585e-07</v>
       </c>
       <c r="H49">
-        <v>0.1016125362024122</v>
+        <v>0.02731701665316822</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.01279823064058554</v>
+        <v>0.0007519910121681584</v>
       </c>
       <c r="C50">
-        <v>-0.01667463505117987</v>
+        <v>0.001132758336098284</v>
       </c>
       <c r="D50">
-        <v>1.926646059832713e-05</v>
+        <v>1.498408102264039e-06</v>
       </c>
       <c r="E50">
-        <v>-0.003307554193332903</v>
+        <v>0.0005368339090410616</v>
       </c>
       <c r="F50">
-        <v>-0.0005838913353286513</v>
+        <v>-0.0001344294792794181</v>
       </c>
       <c r="G50">
-        <v>-1.563269149932292e-05</v>
+        <v>-7.090899618129791e-07</v>
       </c>
       <c r="H50">
-        <v>0.1207721389762498</v>
+        <v>0.04477442183024824</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.007283077035202104</v>
+        <v>-0.0007897742948207512</v>
       </c>
       <c r="C51">
-        <v>-0.0144711955400492</v>
+        <v>0.0001723057930543652</v>
       </c>
       <c r="D51">
-        <v>6.951309455140094e-05</v>
+        <v>-2.474237412827234e-05</v>
       </c>
       <c r="E51">
-        <v>-0.001627291054635605</v>
+        <v>0.002988178147246896</v>
       </c>
       <c r="F51">
-        <v>-0.0008533935815794169</v>
+        <v>0.000200890121142981</v>
       </c>
       <c r="G51">
-        <v>-1.631396365843405e-05</v>
+        <v>-7.505404688899797e-07</v>
       </c>
       <c r="H51">
-        <v>0.1157175755780153</v>
+        <v>0.05558796671949331</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.0153487221915366</v>
+        <v>-0.0008248914385933933</v>
       </c>
       <c r="C52">
-        <v>-0.01032458652639784</v>
+        <v>-0.0009772248466968639</v>
       </c>
       <c r="D52">
-        <v>-2.733798737462828e-05</v>
+        <v>-8.260980465272694e-06</v>
       </c>
       <c r="E52">
-        <v>-0.0004285861038062846</v>
+        <v>-0.0002910567543077912</v>
       </c>
       <c r="F52">
-        <v>0.0007570039589886521</v>
+        <v>0.0001192971778534506</v>
       </c>
       <c r="G52">
-        <v>-1.797534612382514e-05</v>
+        <v>-9.573748348925893e-07</v>
       </c>
       <c r="H52">
-        <v>0.10916249843887</v>
+        <v>0.03971924352917668</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.01143781231577908</v>
+        <v>-0.0002512883282459986</v>
       </c>
       <c r="C53">
-        <v>-0.01207880316358675</v>
+        <v>0.0003561657262726392</v>
       </c>
       <c r="D53">
-        <v>4.435789550490788e-05</v>
+        <v>3.174491526662881e-07</v>
       </c>
       <c r="E53">
-        <v>-0.001602460319718294</v>
+        <v>-7.840525108105886e-05</v>
       </c>
       <c r="F53">
-        <v>-8.09002343116279e-05</v>
+        <v>-0.0001047925646814711</v>
       </c>
       <c r="G53">
-        <v>-8.780869064012897e-06</v>
+        <v>3.824447043318534e-07</v>
       </c>
       <c r="H53">
-        <v>0.1039350186568992</v>
+        <v>0.02939715643628839</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.01047521726884638</v>
+        <v>0.002209541698924253</v>
       </c>
       <c r="C54">
-        <v>-0.000273484869271476</v>
+        <v>-0.003067986914665764</v>
       </c>
       <c r="D54">
-        <v>-5.909613888681036e-05</v>
+        <v>-1.290133383953339e-05</v>
       </c>
       <c r="E54">
-        <v>0.0002542713123177553</v>
+        <v>-0.001341180152334698</v>
       </c>
       <c r="F54">
-        <v>0.0004759956012181424</v>
+        <v>0.001446996325967071</v>
       </c>
       <c r="G54">
-        <v>-1.890897140810454e-05</v>
+        <v>-2.055052514321865e-06</v>
       </c>
       <c r="H54">
-        <v>0.1155395945291351</v>
+        <v>0.07193813812866044</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.006718404521668012</v>
+        <v>-0.001175997025608764</v>
       </c>
       <c r="C55">
-        <v>-0.002520701384690369</v>
+        <v>-4.437183087715405e-05</v>
       </c>
       <c r="D55">
-        <v>3.055105961721533e-05</v>
+        <v>-2.97483897368179e-05</v>
       </c>
       <c r="E55">
-        <v>0.005430553911654326</v>
+        <v>-0.004040999462731801</v>
       </c>
       <c r="F55">
-        <v>7.089953316915957e-05</v>
+        <v>0.0002731825818648813</v>
       </c>
       <c r="G55">
-        <v>-1.693493781781586e-05</v>
+        <v>1.959387362615874e-06</v>
       </c>
       <c r="H55">
-        <v>0.1051764179409745</v>
+        <v>0.05758243518049706</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.01098244386913248</v>
+        <v>0.004392546306923212</v>
       </c>
       <c r="C56">
-        <v>-0.01103097673876166</v>
+        <v>0.007379043563900985</v>
       </c>
       <c r="D56">
-        <v>4.661992411554386e-05</v>
+        <v>2.228307316411217e-05</v>
       </c>
       <c r="E56">
-        <v>0.0001614972443922391</v>
+        <v>0.0003573600849186079</v>
       </c>
       <c r="F56">
-        <v>-0.001140506895400997</v>
+        <v>0.0007058004224389717</v>
       </c>
       <c r="G56">
-        <v>-1.846053456814096e-05</v>
+        <v>4.800299971758036e-06</v>
       </c>
       <c r="H56">
-        <v>0.1269548256981674</v>
+        <v>0.06261144815958056</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.01566771453659652</v>
+        <v>-0.00615872187356406</v>
       </c>
       <c r="C57">
-        <v>-0.003885501846371077</v>
+        <v>-0.002374348951856337</v>
       </c>
       <c r="D57">
-        <v>2.887892536089739e-06</v>
+        <v>-7.420302526960162e-05</v>
       </c>
       <c r="E57">
-        <v>-0.0007953592458442918</v>
+        <v>-0.006536100436499132</v>
       </c>
       <c r="F57">
-        <v>0.001377547266313884</v>
+        <v>0.001339821155594258</v>
       </c>
       <c r="G57">
-        <v>-6.732633793193942e-06</v>
+        <v>-6.344967819171968e-06</v>
       </c>
       <c r="H57">
-        <v>0.08727880713543357</v>
+        <v>0.07884939191359625</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.01933331158152743</v>
+        <v>-9.69774261332418e-05</v>
       </c>
       <c r="C58">
-        <v>-0.01299352215769689</v>
+        <v>-5.0979224742945e-05</v>
       </c>
       <c r="D58">
-        <v>-4.949231610507605e-05</v>
+        <v>-3.837700912129039e-07</v>
       </c>
       <c r="E58">
-        <v>-0.004597193346289469</v>
+        <v>3.829097317965477e-05</v>
       </c>
       <c r="F58">
-        <v>0.0009013955756700878</v>
+        <v>8.581141592491867e-05</v>
       </c>
       <c r="G58">
-        <v>-1.531105796086935e-05</v>
+        <v>3.084467269750456e-07</v>
       </c>
       <c r="H58">
-        <v>0.1129573621761849</v>
+        <v>0.02646552988381632</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.01299567150165745</v>
+        <v>0.001402314534414273</v>
       </c>
       <c r="C59">
-        <v>-0.01013014211439002</v>
+        <v>0.002972318614806926</v>
       </c>
       <c r="D59">
-        <v>7.55852013944863e-05</v>
+        <v>-1.60787968752752e-05</v>
       </c>
       <c r="E59">
-        <v>-0.003027995908833743</v>
+        <v>0.003014068753135334</v>
       </c>
       <c r="F59">
-        <v>0.0007729896355378765</v>
+        <v>-0.0005189581723747608</v>
       </c>
       <c r="G59">
-        <v>-1.858865972248302e-05</v>
+        <v>-1.289477090718664e-06</v>
       </c>
       <c r="H59">
-        <v>0.1008974280197035</v>
+        <v>0.06992954609712519</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.009430504682325105</v>
+        <v>-0.001219545262570813</v>
       </c>
       <c r="C60">
-        <v>-0.009505335417056176</v>
+        <v>0.0006245863783869729</v>
       </c>
       <c r="D60">
-        <v>9.467789134117916e-05</v>
+        <v>4.764825950099442e-06</v>
       </c>
       <c r="E60">
-        <v>-0.0002754287871878092</v>
+        <v>0.0002819658055970425</v>
       </c>
       <c r="F60">
-        <v>-8.817914263279216e-05</v>
+        <v>0.0003725630995728239</v>
       </c>
       <c r="G60">
-        <v>-1.986716136545293e-05</v>
+        <v>1.732702839867337e-06</v>
       </c>
       <c r="H60">
-        <v>0.1065056521743907</v>
+        <v>0.02917541416895433</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.009903812676608423</v>
+        <v>0.003035859615415043</v>
       </c>
       <c r="C61">
-        <v>-0.0019946775592549</v>
+        <v>-0.005910533455746994</v>
       </c>
       <c r="D61">
-        <v>9.58972801486555e-05</v>
+        <v>9.34856549442398e-05</v>
       </c>
       <c r="E61">
-        <v>-0.003156119918692739</v>
+        <v>-0.001271697050546569</v>
       </c>
       <c r="F61">
-        <v>0.0004895107882555067</v>
+        <v>-0.001155885219807533</v>
       </c>
       <c r="G61">
-        <v>-1.687486603163533e-05</v>
+        <v>5.257511233401856e-06</v>
       </c>
       <c r="H61">
-        <v>0.09559492364029451</v>
+        <v>0.09949292221737463</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.01393167910851228</v>
+        <v>-0.0009792894922479741</v>
       </c>
       <c r="C62">
-        <v>-0.003447642075427912</v>
+        <v>-0.0007345321813253258</v>
       </c>
       <c r="D62">
-        <v>1.692969535248501e-05</v>
+        <v>-3.785509780921268e-06</v>
       </c>
       <c r="E62">
-        <v>-0.00331850392417176</v>
+        <v>-0.0005491715759781031</v>
       </c>
       <c r="F62">
-        <v>0.001182929123535854</v>
+        <v>0.0006970982059813567</v>
       </c>
       <c r="G62">
-        <v>-1.499690215196193e-05</v>
+        <v>4.036391614272869e-07</v>
       </c>
       <c r="H62">
-        <v>0.09507772743303337</v>
+        <v>0.0377123215558256</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.01343650100778423</v>
+        <v>-0.003357665416050744</v>
       </c>
       <c r="C63">
-        <v>-0.01158478936839129</v>
+        <v>-0.005814109521838906</v>
       </c>
       <c r="D63">
-        <v>3.281692804817149e-05</v>
+        <v>9.069445025725286e-06</v>
       </c>
       <c r="E63">
-        <v>-0.001443921378824445</v>
+        <v>0.001887942865045275</v>
       </c>
       <c r="F63">
-        <v>4.05376315252635e-05</v>
+        <v>-4.899156919524451e-05</v>
       </c>
       <c r="G63">
-        <v>-2.093681283447866e-05</v>
+        <v>1.118800301595318e-06</v>
       </c>
       <c r="H63">
-        <v>0.1168335032372584</v>
+        <v>0.07425631626563226</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.006470016132159049</v>
+        <v>-0.0004339056024915793</v>
       </c>
       <c r="C64">
-        <v>0.001351988285404733</v>
+        <v>-0.003005933804563285</v>
       </c>
       <c r="D64">
-        <v>1.566638843725552e-05</v>
+        <v>5.511254038030524e-06</v>
       </c>
       <c r="E64">
-        <v>0.003835685438700873</v>
+        <v>0.0007463397495810833</v>
       </c>
       <c r="F64">
-        <v>-0.0009935902347838954</v>
+        <v>-0.0001980415088227267</v>
       </c>
       <c r="G64">
-        <v>-2.021387742055928e-05</v>
+        <v>-8.304558062464696e-07</v>
       </c>
       <c r="H64">
-        <v>0.1226734816738122</v>
+        <v>0.04633405182384627</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.009914118320241328</v>
+        <v>0.00443263328037985</v>
       </c>
       <c r="C65">
-        <v>-0.008455088828495144</v>
+        <v>-0.0006891982147149869</v>
       </c>
       <c r="D65">
-        <v>-1.713010037749725e-05</v>
+        <v>8.713714717598114e-05</v>
       </c>
       <c r="E65">
-        <v>-0.002239155060010184</v>
+        <v>-0.00468260157470457</v>
       </c>
       <c r="F65">
-        <v>0.0001346822229315039</v>
+        <v>-0.002791358274462116</v>
       </c>
       <c r="G65">
-        <v>-1.788309680488447e-05</v>
+        <v>5.585237448509377e-06</v>
       </c>
       <c r="H65">
-        <v>0.1140784954648306</v>
+        <v>0.09553579506253077</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.01202048738537168</v>
+        <v>-0.0004545998209881112</v>
       </c>
       <c r="C66">
-        <v>-0.005089624275768153</v>
+        <v>0.0003550469799070429</v>
       </c>
       <c r="D66">
-        <v>-9.113725460452967e-06</v>
+        <v>-2.478631615341062e-07</v>
       </c>
       <c r="E66">
-        <v>0.003513761996437353</v>
+        <v>-0.0001001427026110016</v>
       </c>
       <c r="F66">
-        <v>0.001639017481435932</v>
+        <v>0.000129655923422567</v>
       </c>
       <c r="G66">
-        <v>-1.950803499996423e-05</v>
+        <v>6.314911822147717e-07</v>
       </c>
       <c r="H66">
-        <v>0.09398918442033874</v>
+        <v>0.02756271570464558</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.0179633450516965</v>
+        <v>0.0002614768623381307</v>
       </c>
       <c r="C67">
-        <v>-0.01343687251923972</v>
+        <v>-0.0001538081990661588</v>
       </c>
       <c r="D67">
-        <v>3.762482501007681e-05</v>
+        <v>1.437440258333137e-06</v>
       </c>
       <c r="E67">
-        <v>-0.007390491947347796</v>
+        <v>0.0003834036424672158</v>
       </c>
       <c r="F67">
-        <v>-0.0005091758609408476</v>
+        <v>-5.692866088780784e-05</v>
       </c>
       <c r="G67">
-        <v>-1.340105444901188e-05</v>
+        <v>6.971597233519222e-07</v>
       </c>
       <c r="H67">
-        <v>0.1212312080570376</v>
+        <v>0.02787832735340496</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.01172247628300302</v>
+        <v>0.001430226391137166</v>
       </c>
       <c r="C68">
-        <v>0.01883208271402865</v>
+        <v>-0.003483709236721383</v>
       </c>
       <c r="D68">
-        <v>-0.0001386039481295424</v>
+        <v>2.002062354354179e-05</v>
       </c>
       <c r="E68">
-        <v>0.004583232223105208</v>
+        <v>-0.002149271075143754</v>
       </c>
       <c r="F68">
-        <v>0.002480702907806365</v>
+        <v>-0.0009488741308262951</v>
       </c>
       <c r="G68">
-        <v>-3.236998018272429e-05</v>
+        <v>-6.57852494544587e-07</v>
       </c>
       <c r="H68">
-        <v>0.1084684537706365</v>
+        <v>0.06818095555371741</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.008628355943187668</v>
+        <v>-0.0001513346425050664</v>
       </c>
       <c r="C69">
-        <v>-0.0096635559987336</v>
+        <v>3.764127194548928e-05</v>
       </c>
       <c r="D69">
-        <v>1.051175879606174e-05</v>
+        <v>2.567101258080574e-07</v>
       </c>
       <c r="E69">
-        <v>-0.002390032731894164</v>
+        <v>-0.0002350027072408264</v>
       </c>
       <c r="F69">
-        <v>0.0001271436581928576</v>
+        <v>4.5358382211732e-05</v>
       </c>
       <c r="G69">
-        <v>-1.804081880314892e-05</v>
+        <v>3.613053008531559e-07</v>
       </c>
       <c r="H69">
-        <v>0.1089880489942942</v>
+        <v>0.02742137922098887</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.009827983735517198</v>
+        <v>-7.89707067687692e-05</v>
       </c>
       <c r="C70">
-        <v>-0.007647842779648337</v>
+        <v>0.0006556820554140195</v>
       </c>
       <c r="D70">
-        <v>1.689545356495244e-05</v>
+        <v>-1.128129790400533e-05</v>
       </c>
       <c r="E70">
-        <v>0.00423689217785711</v>
+        <v>0.0002667137029430874</v>
       </c>
       <c r="F70">
-        <v>-0.0008108284555007398</v>
+        <v>-0.0004784215191376003</v>
       </c>
       <c r="G70">
-        <v>-1.010565346381456e-05</v>
+        <v>1.36076334332262e-06</v>
       </c>
       <c r="H70">
-        <v>0.1133852302107698</v>
+        <v>0.04218355931167896</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.01442936627997823</v>
+        <v>-0.006680246748853005</v>
       </c>
       <c r="C71">
-        <v>-0.01370798809909643</v>
+        <v>0.01717690565302483</v>
       </c>
       <c r="D71">
-        <v>3.612781011684588e-05</v>
+        <v>-4.85783005581179e-05</v>
       </c>
       <c r="E71">
-        <v>6.774055546929225e-05</v>
+        <v>-0.001595863637245364</v>
       </c>
       <c r="F71">
-        <v>0.0005715914121225927</v>
+        <v>0.001446647580881267</v>
       </c>
       <c r="G71">
-        <v>-1.178992054511033e-05</v>
+        <v>-4.181877279850503e-06</v>
       </c>
       <c r="H71">
-        <v>0.098632857719371</v>
+        <v>0.07835078878565525</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.01005482760124262</v>
+        <v>0.001192451596945685</v>
       </c>
       <c r="C72">
-        <v>-0.01721633939358616</v>
+        <v>0.0004325729389474027</v>
       </c>
       <c r="D72">
-        <v>3.558886060115298e-05</v>
+        <v>1.254925645967271e-05</v>
       </c>
       <c r="E72">
-        <v>0.0006209531086185938</v>
+        <v>1.690623482402884e-05</v>
       </c>
       <c r="F72">
-        <v>0.000173860147302313</v>
+        <v>-0.0001205328986954045</v>
       </c>
       <c r="G72">
-        <v>-2.27013757242984e-05</v>
+        <v>-5.01316209768023e-08</v>
       </c>
       <c r="H72">
-        <v>0.1130282233293788</v>
+        <v>0.04450670406249603</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.01645107325508966</v>
+        <v>0.0004687585490036764</v>
       </c>
       <c r="C73">
-        <v>-0.01147687444386595</v>
+        <v>-0.0005206497621124116</v>
       </c>
       <c r="D73">
-        <v>-4.351720939822019e-05</v>
+        <v>-9.801821871081909e-07</v>
       </c>
       <c r="E73">
-        <v>-0.00391466154631321</v>
+        <v>-0.001682185681915555</v>
       </c>
       <c r="F73">
-        <v>0.0007013627825303377</v>
+        <v>-0.0008896980154785742</v>
       </c>
       <c r="G73">
-        <v>-1.961451552041074e-05</v>
+        <v>1.917118250260778e-07</v>
       </c>
       <c r="H73">
-        <v>0.1158699868077851</v>
+        <v>0.0846827229910848</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.009166427091443953</v>
+        <v>0.002405942382156736</v>
       </c>
       <c r="C74">
-        <v>-0.01320791930087587</v>
+        <v>-0.002630916973330506</v>
       </c>
       <c r="D74">
-        <v>6.672652273467779e-06</v>
+        <v>2.849633703888806e-05</v>
       </c>
       <c r="E74">
-        <v>-0.005007124132808856</v>
+        <v>-0.001946489849355748</v>
       </c>
       <c r="F74">
-        <v>-0.0005740791108553873</v>
+        <v>-0.001007690907241038</v>
       </c>
       <c r="G74">
-        <v>-1.314213041736662e-05</v>
+        <v>3.993281074612545e-06</v>
       </c>
       <c r="H74">
-        <v>0.1217779164623863</v>
+        <v>0.06923646097795558</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.01580207386379981</v>
+        <v>0.002174363677718181</v>
       </c>
       <c r="C75">
-        <v>0.0008934393367503414</v>
+        <v>-0.0006770815290646124</v>
       </c>
       <c r="D75">
-        <v>-9.940508216453933e-06</v>
+        <v>1.709851916405497e-05</v>
       </c>
       <c r="E75">
-        <v>-0.001048604000077502</v>
+        <v>0.001523364335745195</v>
       </c>
       <c r="F75">
-        <v>0.0008990479993271945</v>
+        <v>0.0001795639828088746</v>
       </c>
       <c r="G75">
-        <v>-1.586875254148466e-05</v>
+        <v>4.197704027657792e-07</v>
       </c>
       <c r="H75">
-        <v>0.1026821405349996</v>
+        <v>0.04730945912829414</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.008327392534009766</v>
+        <v>-0.001521002996008475</v>
       </c>
       <c r="C76">
-        <v>-0.01168290050431717</v>
+        <v>-0.001389759149104253</v>
       </c>
       <c r="D76">
-        <v>1.523020330786265e-05</v>
+        <v>7.924745728708852e-06</v>
       </c>
       <c r="E76">
-        <v>-0.0001164547991526765</v>
+        <v>-0.002274187890543442</v>
       </c>
       <c r="F76">
-        <v>-0.0008616029453989049</v>
+        <v>-0.0009972391925158726</v>
       </c>
       <c r="G76">
-        <v>-2.064923980419063e-05</v>
+        <v>1.444256195626454e-06</v>
       </c>
       <c r="H76">
-        <v>0.1253467285879238</v>
+        <v>0.08129499485073094</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.003730329770115096</v>
+        <v>-0.004319887531848812</v>
       </c>
       <c r="C77">
-        <v>-0.01722019172743964</v>
+        <v>-0.005518090545555526</v>
       </c>
       <c r="D77">
-        <v>8.824306145326335e-05</v>
+        <v>-3.451771310049343e-05</v>
       </c>
       <c r="E77">
-        <v>-0.003095705536837558</v>
+        <v>0.0003720815511995962</v>
       </c>
       <c r="F77">
-        <v>-0.002230732610302884</v>
+        <v>0.001991530084912819</v>
       </c>
       <c r="G77">
-        <v>-1.482113181813695e-05</v>
+        <v>2.932444382924748e-06</v>
       </c>
       <c r="H77">
-        <v>0.1289890370475183</v>
+        <v>0.05256936563025808</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.008502545763326819</v>
+        <v>-0.003423388754463106</v>
       </c>
       <c r="C78">
-        <v>-0.01009151185338974</v>
+        <v>-0.0008729576546872252</v>
       </c>
       <c r="D78">
-        <v>0.0001129222072922628</v>
+        <v>-4.599362316711565e-05</v>
       </c>
       <c r="E78">
-        <v>-0.00337175266862768</v>
+        <v>-0.0008755694562923022</v>
       </c>
       <c r="F78">
-        <v>-7.11491503924697e-05</v>
+        <v>-0.0009833971817788791</v>
       </c>
       <c r="G78">
-        <v>-1.750026810079155e-05</v>
+        <v>1.284662375658819e-07</v>
       </c>
       <c r="H78">
-        <v>0.1044765129427692</v>
+        <v>0.113524490349127</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.01015016560842567</v>
+        <v>0.00118085510279355</v>
       </c>
       <c r="C79">
-        <v>-0.005151263209998171</v>
+        <v>-0.005028208545087678</v>
       </c>
       <c r="D79">
-        <v>2.706866220657341e-05</v>
+        <v>-2.910893942510681e-05</v>
       </c>
       <c r="E79">
-        <v>-0.001746885669654627</v>
+        <v>0.002372287282853575</v>
       </c>
       <c r="F79">
-        <v>0.0001035380305715014</v>
+        <v>-0.001660444926772351</v>
       </c>
       <c r="G79">
-        <v>-1.555166832138749e-05</v>
+        <v>-4.266413308682745e-07</v>
       </c>
       <c r="H79">
-        <v>0.104069076460546</v>
+        <v>0.1084614952474338</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.009558227223903742</v>
+        <v>-0.001821677549522125</v>
       </c>
       <c r="C80">
-        <v>-0.0112431280457258</v>
+        <v>-0.001211861422958414</v>
       </c>
       <c r="D80">
-        <v>3.758006147527192e-05</v>
+        <v>-1.36821419591795e-05</v>
       </c>
       <c r="E80">
-        <v>0.0006025287727515899</v>
+        <v>-0.002328225974600827</v>
       </c>
       <c r="F80">
-        <v>-0.001030645144270719</v>
+        <v>0.0007730267662902146</v>
       </c>
       <c r="G80">
-        <v>-1.713545388379414e-05</v>
+        <v>2.375603300043833e-07</v>
       </c>
       <c r="H80">
-        <v>0.1215943593853679</v>
+        <v>0.07783250081576334</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.004376735824757829</v>
+        <v>-0.000561009912206316</v>
       </c>
       <c r="C81">
-        <v>-0.005192919540084807</v>
+        <v>-0.006720200039307718</v>
       </c>
       <c r="D81">
-        <v>-9.525779390359977e-05</v>
+        <v>7.692564896577536e-05</v>
       </c>
       <c r="E81">
-        <v>0.001530084031691997</v>
+        <v>-0.002576514757399159</v>
       </c>
       <c r="F81">
-        <v>0.001239093537199934</v>
+        <v>-0.000745081936014738</v>
       </c>
       <c r="G81">
-        <v>-2.699139438772855e-05</v>
+        <v>2.234197146670461e-06</v>
       </c>
       <c r="H81">
-        <v>0.1103381648382185</v>
+        <v>0.0802872585810034</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.006503095072935715</v>
+        <v>0.001986198657686321</v>
       </c>
       <c r="C82">
-        <v>-0.0168029132035</v>
+        <v>0.001633424558205769</v>
       </c>
       <c r="D82">
-        <v>0.0001076113445938577</v>
+        <v>3.010753190441796e-05</v>
       </c>
       <c r="E82">
-        <v>-0.003590563987387579</v>
+        <v>-0.0001658317440755702</v>
       </c>
       <c r="F82">
-        <v>-0.002026527008527778</v>
+        <v>3.481071993104395e-05</v>
       </c>
       <c r="G82">
-        <v>-1.712536347297425e-05</v>
+        <v>-6.475133640497339e-07</v>
       </c>
       <c r="H82">
-        <v>0.1285737604019044</v>
+        <v>0.0757658938771482</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.01153738510786203</v>
+        <v>-0.0007684628209228515</v>
       </c>
       <c r="C83">
-        <v>-0.008924973872562119</v>
+        <v>-0.0001916180117282461</v>
       </c>
       <c r="D83">
-        <v>-1.875846261166647e-05</v>
+        <v>-1.634820977019863e-05</v>
       </c>
       <c r="E83">
-        <v>-0.004772367725847715</v>
+        <v>-0.0004098380965795803</v>
       </c>
       <c r="F83">
-        <v>-0.0009446914661458773</v>
+        <v>0.0008585373455339952</v>
       </c>
       <c r="G83">
-        <v>-2.388124733958154e-05</v>
+        <v>-1.766822332955345e-06</v>
       </c>
       <c r="H83">
-        <v>0.1344568703283248</v>
+        <v>0.04787261290800481</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.007754002263203545</v>
+        <v>0.0002293976037116424</v>
       </c>
       <c r="C84">
-        <v>-0.01080582705749643</v>
+        <v>0.00265501259871766</v>
       </c>
       <c r="D84">
-        <v>0.0001029323836225697</v>
+        <v>-5.168594899523935e-05</v>
       </c>
       <c r="E84">
-        <v>-0.002569165549087357</v>
+        <v>-0.002544704085196012</v>
       </c>
       <c r="F84">
-        <v>-0.001385105476032113</v>
+        <v>-0.0004539182677085945</v>
       </c>
       <c r="G84">
-        <v>-1.525862562415622e-05</v>
+        <v>4.792725177278058e-07</v>
       </c>
       <c r="H84">
-        <v>0.1180080321945039</v>
+        <v>0.0965525084778365</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.008874430614249272</v>
+        <v>0.004813856315700401</v>
       </c>
       <c r="C85">
-        <v>-0.008754079041109699</v>
+        <v>0.00386578096239103</v>
       </c>
       <c r="D85">
-        <v>6.807998303028933e-05</v>
+        <v>8.848902306613467e-05</v>
       </c>
       <c r="E85">
-        <v>0.002248666692256346</v>
+        <v>-0.002367518996087559</v>
       </c>
       <c r="F85">
-        <v>-0.0008449409564933053</v>
+        <v>-0.0006189997888166235</v>
       </c>
       <c r="G85">
-        <v>-1.744959290996658e-05</v>
+        <v>6.037615177608901e-06</v>
       </c>
       <c r="H85">
-        <v>0.1169861430192685</v>
+        <v>0.08222194868258509</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.01771207405380354</v>
+        <v>0.0001173087182927144</v>
       </c>
       <c r="C86">
-        <v>0.001120489779749492</v>
+        <v>0.001484241858884795</v>
       </c>
       <c r="D86">
-        <v>4.33289132692853e-06</v>
+        <v>-2.372854002961013e-05</v>
       </c>
       <c r="E86">
-        <v>-0.0001397566187593818</v>
+        <v>-0.0002423510464788642</v>
       </c>
       <c r="F86">
-        <v>0.001625334969961427</v>
+        <v>0.001062802588769222</v>
       </c>
       <c r="G86">
-        <v>-1.631208121041751e-05</v>
+        <v>3.393351817179882e-07</v>
       </c>
       <c r="H86">
-        <v>0.09658562823283828</v>
+        <v>0.06512175174038078</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.005765253376627073</v>
+        <v>-0.006047815290170469</v>
       </c>
       <c r="C87">
-        <v>-0.006069265134038247</v>
+        <v>-0.005496193255408151</v>
       </c>
       <c r="D87">
-        <v>6.644620402357257e-05</v>
+        <v>-2.461803324045789e-05</v>
       </c>
       <c r="E87">
-        <v>0.0001889460114196384</v>
+        <v>-0.005071436275542185</v>
       </c>
       <c r="F87">
-        <v>0.001791290856087149</v>
+        <v>0.00108821848211632</v>
       </c>
       <c r="G87">
-        <v>-1.739313703188919e-05</v>
+        <v>4.31395142479333e-06</v>
       </c>
       <c r="H87">
-        <v>0.08017498501373313</v>
+        <v>0.06274299227798731</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.005945853559101356</v>
+        <v>-0.001393863549440254</v>
       </c>
       <c r="C88">
-        <v>-0.009750024172396017</v>
+        <v>-7.271108318709571e-05</v>
       </c>
       <c r="D88">
-        <v>2.076192258665533e-05</v>
+        <v>-1.882658058621039e-05</v>
       </c>
       <c r="E88">
-        <v>-5.3942454014827e-06</v>
+        <v>0.0008107728844646764</v>
       </c>
       <c r="F88">
-        <v>-0.0006814200622198066</v>
+        <v>0.0006003288863833945</v>
       </c>
       <c r="G88">
-        <v>-2.427714183827402e-05</v>
+        <v>-1.020433299737394e-06</v>
       </c>
       <c r="H88">
-        <v>0.1231740854771999</v>
+        <v>0.04283922750754036</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.007355614952052784</v>
+        <v>-0.0004377415164238262</v>
       </c>
       <c r="C89">
-        <v>-0.004295265455960657</v>
+        <v>-0.000311067022856687</v>
       </c>
       <c r="D89">
-        <v>3.8504054600556e-05</v>
+        <v>-8.40836512426775e-07</v>
       </c>
       <c r="E89">
-        <v>-0.004423609682321014</v>
+        <v>0.0001233958569874863</v>
       </c>
       <c r="F89">
-        <v>-0.0004686201025316227</v>
+        <v>-1.017502908279175e-05</v>
       </c>
       <c r="G89">
-        <v>-1.181644536616265e-05</v>
+        <v>9.429265061446164e-07</v>
       </c>
       <c r="H89">
-        <v>0.1088226096826688</v>
+        <v>0.03007815020912007</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.007019882764041908</v>
+        <v>-0.002097138832468675</v>
       </c>
       <c r="C90">
-        <v>-0.01539297294469133</v>
+        <v>0.009247399151375315</v>
       </c>
       <c r="D90">
-        <v>7.888139655995463e-05</v>
+        <v>-3.605978254620157e-05</v>
       </c>
       <c r="E90">
-        <v>0.003419069397433513</v>
+        <v>0.001524075180518746</v>
       </c>
       <c r="F90">
-        <v>0.000518107027864579</v>
+        <v>0.002528048688354931</v>
       </c>
       <c r="G90">
-        <v>-2.743018890556133e-05</v>
+        <v>-2.761397247481057e-07</v>
       </c>
       <c r="H90">
-        <v>0.1070871783863253</v>
+        <v>0.05874880328124898</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.01355352915250761</v>
+        <v>-0.0005410440185885036</v>
       </c>
       <c r="C91">
-        <v>-0.006249277000009166</v>
+        <v>0.001568823046676412</v>
       </c>
       <c r="D91">
-        <v>4.954066318175581e-05</v>
+        <v>-1.189211946184258e-05</v>
       </c>
       <c r="E91">
-        <v>-0.002852481782745851</v>
+        <v>0.0001473896199544675</v>
       </c>
       <c r="F91">
-        <v>0.0002731888092347241</v>
+        <v>0.0001085413702806494</v>
       </c>
       <c r="G91">
-        <v>-1.587148732404406e-05</v>
+        <v>6.81322404132194e-07</v>
       </c>
       <c r="H91">
-        <v>0.1047514235702243</v>
+        <v>0.03103294728454241</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.01480287112209385</v>
+        <v>0.002044061796416549</v>
       </c>
       <c r="C92">
-        <v>-0.001611300784053024</v>
+        <v>-0.0004068518902240804</v>
       </c>
       <c r="D92">
-        <v>4.430280937804457e-05</v>
+        <v>7.355808997765378e-06</v>
       </c>
       <c r="E92">
-        <v>-0.002078659084461407</v>
+        <v>0.004192370309877264</v>
       </c>
       <c r="F92">
-        <v>0.002567647171349448</v>
+        <v>-0.0006503037470606102</v>
       </c>
       <c r="G92">
-        <v>-1.905670096385369e-05</v>
+        <v>-9.027821082547146e-07</v>
       </c>
       <c r="H92">
-        <v>0.0798871678260934</v>
+        <v>0.08787055916135697</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.00664556269656841</v>
+        <v>-0.0002535428663665942</v>
       </c>
       <c r="C93">
-        <v>-0.00706895482535407</v>
+        <v>0.0004865240465111687</v>
       </c>
       <c r="D93">
-        <v>0.0001032028042161232</v>
+        <v>-4.637205409783284e-06</v>
       </c>
       <c r="E93">
-        <v>-0.001593605500584641</v>
+        <v>-0.0002776523512399397</v>
       </c>
       <c r="F93">
-        <v>-0.002504705304932863</v>
+        <v>-8.778896273787561e-05</v>
       </c>
       <c r="G93">
-        <v>-1.07239068952242e-05</v>
+        <v>7.702034945133428e-07</v>
       </c>
       <c r="H93">
-        <v>0.1261372420911321</v>
+        <v>0.0298420979385803</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.01719812611731595</v>
+        <v>0.006746262481674196</v>
       </c>
       <c r="C94">
-        <v>-0.01177959897061482</v>
+        <v>0.004808541640597589</v>
       </c>
       <c r="D94">
-        <v>-3.71597711715461e-05</v>
+        <v>4.05351829457916e-05</v>
       </c>
       <c r="E94">
-        <v>0.002221209975294007</v>
+        <v>9.522205106533843e-05</v>
       </c>
       <c r="F94">
-        <v>-0.0003891075639603142</v>
+        <v>0.0004887391620342039</v>
       </c>
       <c r="G94">
-        <v>-1.105479945655272e-05</v>
+        <v>-3.680934395612984e-06</v>
       </c>
       <c r="H94">
-        <v>0.1210665746005741</v>
+        <v>0.0643118003348781</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.01774995499836596</v>
+        <v>0.000185763190141337</v>
       </c>
       <c r="C95">
-        <v>-0.01170185926714916</v>
+        <v>-6.383643118342301e-05</v>
       </c>
       <c r="D95">
-        <v>4.961210776260616e-05</v>
+        <v>-1.059285843066271e-06</v>
       </c>
       <c r="E95">
-        <v>-0.002660318260291103</v>
+        <v>0.0002782414416452016</v>
       </c>
       <c r="F95">
-        <v>-0.001036638987210143</v>
+        <v>-6.785764300688078e-05</v>
       </c>
       <c r="G95">
-        <v>-9.522731864968347e-06</v>
+        <v>5.914762266072459e-07</v>
       </c>
       <c r="H95">
-        <v>0.1201250915652933</v>
+        <v>0.02827218543874153</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.009448078216639805</v>
+        <v>0.001309748958647247</v>
       </c>
       <c r="C96">
-        <v>-0.0101313612189337</v>
+        <v>-0.002060901873278988</v>
       </c>
       <c r="D96">
-        <v>9.978890706761659e-05</v>
+        <v>-6.4548890033522e-06</v>
       </c>
       <c r="E96">
-        <v>-0.0006660279396914284</v>
+        <v>-0.0003157172142192882</v>
       </c>
       <c r="F96">
-        <v>-5.820227831958812e-05</v>
+        <v>-0.000685491961751356</v>
       </c>
       <c r="G96">
-        <v>-1.921815286377341e-05</v>
+        <v>-3.355709385605558e-06</v>
       </c>
       <c r="H96">
-        <v>0.1061561915060503</v>
+        <v>0.06002845224813276</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.01295424413182267</v>
+        <v>0.0008648114318422382</v>
       </c>
       <c r="C97">
-        <v>-0.009673878420892321</v>
+        <v>0.0007092204482208854</v>
       </c>
       <c r="D97">
-        <v>4.55721010029158e-05</v>
+        <v>1.807508949581169e-05</v>
       </c>
       <c r="E97">
-        <v>0.001319053695390218</v>
+        <v>0.0004041578158054809</v>
       </c>
       <c r="F97">
-        <v>0.0007686905737393985</v>
+        <v>-0.0004142733201409222</v>
       </c>
       <c r="G97">
-        <v>-2.45141567946064e-05</v>
+        <v>-4.243736320599049e-07</v>
       </c>
       <c r="H97">
-        <v>0.1074710111205946</v>
+        <v>0.05220647105283362</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.01132395445219944</v>
+        <v>0.001922250990951244</v>
       </c>
       <c r="C98">
-        <v>-0.005422972879385852</v>
+        <v>0.008423024756106238</v>
       </c>
       <c r="D98">
-        <v>-4.690861582370596e-05</v>
+        <v>-1.709583496076306e-05</v>
       </c>
       <c r="E98">
-        <v>-0.0003340835195856096</v>
+        <v>0.002728810737215974</v>
       </c>
       <c r="F98">
-        <v>0.0004333732745817935</v>
+        <v>0.0006464464490048983</v>
       </c>
       <c r="G98">
-        <v>-1.954069577500839e-05</v>
+        <v>-1.808652244966323e-06</v>
       </c>
       <c r="H98">
-        <v>0.11488356941106</v>
+        <v>0.07344159974147199</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.001046595901659108</v>
+        <v>-0.0005088832317463798</v>
       </c>
       <c r="C99">
-        <v>-0.01119390457141323</v>
+        <v>-0.001070241690584345</v>
       </c>
       <c r="D99">
-        <v>0.0001116219589791893</v>
+        <v>-9.338848485605265e-06</v>
       </c>
       <c r="E99">
-        <v>0.0006306263087022951</v>
+        <v>0.0008729931399147767</v>
       </c>
       <c r="F99">
-        <v>-0.004661209647263225</v>
+        <v>-0.0001016218309509501</v>
       </c>
       <c r="G99">
-        <v>-2.236220410470035e-05</v>
+        <v>6.952741139816855e-07</v>
       </c>
       <c r="H99">
-        <v>0.1589290616800402</v>
+        <v>0.04074727184200906</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.01972105586311984</v>
+        <v>0.001129505374572019</v>
       </c>
       <c r="C100">
-        <v>-0.006949063917069551</v>
+        <v>-0.00144643112649914</v>
       </c>
       <c r="D100">
-        <v>-8.880540565672716e-06</v>
+        <v>1.521393303406143e-05</v>
       </c>
       <c r="E100">
-        <v>-0.0009471983862104905</v>
+        <v>-8.688321343729849e-05</v>
       </c>
       <c r="F100">
-        <v>0.002556569929704377</v>
+        <v>-0.0004349929485829436</v>
       </c>
       <c r="G100">
-        <v>-2.132654541034032e-05</v>
+        <v>1.382389183587448e-06</v>
       </c>
       <c r="H100">
-        <v>0.09276600731752961</v>
+        <v>0.044243976820605</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.01390668184896531</v>
+        <v>0.0001499880265818177</v>
       </c>
       <c r="C101">
-        <v>-0.01146580658478447</v>
+        <v>0.003307564881420214</v>
       </c>
       <c r="D101">
-        <v>7.152087084114479e-05</v>
+        <v>-8.065185003254996e-06</v>
       </c>
       <c r="E101">
-        <v>-0.001989092444603567</v>
+        <v>-0.0002103111240635211</v>
       </c>
       <c r="F101">
-        <v>0.001085085965517236</v>
+        <v>-0.0005437141773553384</v>
       </c>
       <c r="G101">
-        <v>-1.202471120000345e-05</v>
+        <v>9.274563789068775e-07</v>
       </c>
       <c r="H101">
-        <v>0.08939752424228919</v>
+        <v>0.09001893309060555</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3026,25 +3026,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.008205461453385451</v>
+        <v>-0.001380760709237689</v>
       </c>
       <c r="C102">
-        <v>-0.004703610190129933</v>
+        <v>0.002563129042977344</v>
       </c>
       <c r="D102">
-        <v>1.598078190560532e-05</v>
+        <v>-3.422310724575512e-05</v>
       </c>
       <c r="E102">
-        <v>2.008651468476952e-05</v>
+        <v>0.0003720002246059007</v>
       </c>
       <c r="F102">
-        <v>0.001103521994160378</v>
+        <v>0.0001166725496534241</v>
       </c>
       <c r="G102">
-        <v>-1.599311649794358e-05</v>
+        <v>-1.045249043679711e-06</v>
       </c>
       <c r="H102">
-        <v>0.09439110830879682</v>
+        <v>0.07522071040519934</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3052,25 +3052,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.006555176787423167</v>
+        <v>0.0006700278796115781</v>
       </c>
       <c r="C103">
-        <v>-0.007909310260499833</v>
+        <v>-0.004726471838867871</v>
       </c>
       <c r="D103">
-        <v>6.394496973657585e-05</v>
+        <v>-1.775985906676563e-05</v>
       </c>
       <c r="E103">
-        <v>-0.004959310537129079</v>
+        <v>0.000284434249160477</v>
       </c>
       <c r="F103">
-        <v>-0.0007231124768851038</v>
+        <v>-1.550517930759901e-05</v>
       </c>
       <c r="G103">
-        <v>-1.716922992284244e-05</v>
+        <v>-3.437949928994704e-06</v>
       </c>
       <c r="H103">
-        <v>0.1146929856857175</v>
+        <v>0.09525717419588883</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3078,25 +3078,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.003471651769711137</v>
+        <v>0.004098033237019395</v>
       </c>
       <c r="C104">
-        <v>-0.006285737688404918</v>
+        <v>0.01274083524824985</v>
       </c>
       <c r="D104">
-        <v>9.85623986036368e-05</v>
+        <v>-2.203621659242619e-05</v>
       </c>
       <c r="E104">
-        <v>-0.001091985974271993</v>
+        <v>0.002857729042027447</v>
       </c>
       <c r="F104">
-        <v>-0.001113150752091845</v>
+        <v>0.002011026757467034</v>
       </c>
       <c r="G104">
-        <v>-2.584329209939112e-05</v>
+        <v>1.132914143585072e-06</v>
       </c>
       <c r="H104">
-        <v>0.1217417801211233</v>
+        <v>0.05311916813534429</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.01723603561118713</v>
+        <v>0.001836936174395667</v>
       </c>
       <c r="C105">
-        <v>-0.008088313904842243</v>
+        <v>0.0003548138867890834</v>
       </c>
       <c r="D105">
-        <v>-7.003156738972054e-05</v>
+        <v>2.164762378076108e-05</v>
       </c>
       <c r="E105">
-        <v>-0.0009929232712131073</v>
+        <v>0.0005342556899474368</v>
       </c>
       <c r="F105">
-        <v>-0.0001545311690954921</v>
+        <v>-0.00016852747711137</v>
       </c>
       <c r="G105">
-        <v>-1.328886970038288e-05</v>
+        <v>-1.469960939007467e-06</v>
       </c>
       <c r="H105">
-        <v>0.1214806534658065</v>
+        <v>0.08751588305108739</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3130,25 +3130,25 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.01432158787186616</v>
+        <v>0.0003647512946238665</v>
       </c>
       <c r="C106">
-        <v>0.004564362147627688</v>
+        <v>0.0009143471798732801</v>
       </c>
       <c r="D106">
-        <v>3.051022823795027e-06</v>
+        <v>-1.720178146080752e-05</v>
       </c>
       <c r="E106">
-        <v>0.00767822265532056</v>
+        <v>-0.0003369685741539223</v>
       </c>
       <c r="F106">
-        <v>0.001227417096113905</v>
+        <v>-0.0003377368461818916</v>
       </c>
       <c r="G106">
-        <v>-2.896433202544887e-05</v>
+        <v>-5.5178348400084e-07</v>
       </c>
       <c r="H106">
-        <v>0.1077748504266848</v>
+        <v>0.05136158487831993</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3156,25 +3156,25 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.01852129941865195</v>
+        <v>0.000588609033373301</v>
       </c>
       <c r="C107">
-        <v>-0.005378564001168791</v>
+        <v>-0.001552732962687716</v>
       </c>
       <c r="D107">
-        <v>-5.730239696759739e-06</v>
+        <v>-2.845469597027102e-06</v>
       </c>
       <c r="E107">
-        <v>0.0003549036590520943</v>
+        <v>-0.001205818438572457</v>
       </c>
       <c r="F107">
-        <v>-0.001647059113936961</v>
+        <v>-0.0004108285399860623</v>
       </c>
       <c r="G107">
-        <v>-1.490916492591281e-05</v>
+        <v>8.532999544756736e-07</v>
       </c>
       <c r="H107">
-        <v>0.1434904284622554</v>
+        <v>0.05106888838533677</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3182,25 +3182,25 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.01386564285894789</v>
+        <v>-0.0004819991783951497</v>
       </c>
       <c r="C108">
-        <v>-0.007710950277485838</v>
+        <v>-0.003718033359758365</v>
       </c>
       <c r="D108">
-        <v>7.076930684253799e-05</v>
+        <v>5.516329071329011e-05</v>
       </c>
       <c r="E108">
-        <v>0.001421583654633712</v>
+        <v>-0.0002242805109547372</v>
       </c>
       <c r="F108">
-        <v>-0.001775495898366525</v>
+        <v>-0.0005933910810704661</v>
       </c>
       <c r="G108">
-        <v>-5.941508180466982e-06</v>
+        <v>3.138525142961109e-06</v>
       </c>
       <c r="H108">
-        <v>0.1193205626156401</v>
+        <v>0.08783372666267081</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3208,25 +3208,25 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.01002593303200828</v>
+        <v>5.399841050672234e-05</v>
       </c>
       <c r="C109">
-        <v>-0.01481788089873193</v>
+        <v>0.0005068381435578396</v>
       </c>
       <c r="D109">
-        <v>8.413810610540404e-05</v>
+        <v>-5.139372152502606e-06</v>
       </c>
       <c r="E109">
-        <v>0.003245644877239162</v>
+        <v>-0.000180486187225732</v>
       </c>
       <c r="F109">
-        <v>0.0007395834954808812</v>
+        <v>-4.141513441394687e-05</v>
       </c>
       <c r="G109">
-        <v>-2.002685425891744e-05</v>
+        <v>-4.255978841019025e-07</v>
       </c>
       <c r="H109">
-        <v>0.1002423407798132</v>
+        <v>0.03833291766680891</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3234,25 +3234,25 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.004380649062700508</v>
+        <v>-0.0003033290554874677</v>
       </c>
       <c r="C110">
-        <v>-0.001814098436724317</v>
+        <v>0.001735595962223982</v>
       </c>
       <c r="D110">
-        <v>4.459734721076653e-05</v>
+        <v>-2.285931479092765e-05</v>
       </c>
       <c r="E110">
-        <v>0.002253660137816915</v>
+        <v>-0.0001549750587925697</v>
       </c>
       <c r="F110">
-        <v>-0.0006548648234782314</v>
+        <v>-0.0003361082747331812</v>
       </c>
       <c r="G110">
-        <v>-1.785300371897948e-05</v>
+        <v>2.034336241171626e-06</v>
       </c>
       <c r="H110">
-        <v>0.1112983882559506</v>
+        <v>0.05732650589749381</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3260,25 +3260,25 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.01729695607004425</v>
+        <v>8.813235910520769e-05</v>
       </c>
       <c r="C111">
-        <v>-0.0005581903306998825</v>
+        <v>0.0005122501237779795</v>
       </c>
       <c r="D111">
-        <v>-2.486947871641545e-05</v>
+        <v>4.109862426330197e-07</v>
       </c>
       <c r="E111">
-        <v>0.0007220912418137507</v>
+        <v>0.0001843002078871607</v>
       </c>
       <c r="F111">
-        <v>0.001245557602681114</v>
+        <v>-4.448552402144747e-06</v>
       </c>
       <c r="G111">
-        <v>-1.477275219138899e-05</v>
+        <v>4.37915523579107e-07</v>
       </c>
       <c r="H111">
-        <v>0.1001407244781533</v>
+        <v>0.02773553397900537</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3286,25 +3286,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.01127693310698346</v>
+        <v>5.260714788990007e-05</v>
       </c>
       <c r="C112">
-        <v>-0.01005161914450885</v>
+        <v>0.0004708644854222361</v>
       </c>
       <c r="D112">
-        <v>2.699185616065429e-05</v>
+        <v>-4.169536030406016e-07</v>
       </c>
       <c r="E112">
-        <v>0.0006643040625787383</v>
+        <v>-0.0001702277223367202</v>
       </c>
       <c r="F112">
-        <v>0.001291077614087253</v>
+        <v>3.786000094039123e-06</v>
       </c>
       <c r="G112">
-        <v>-1.629841150912579e-05</v>
+        <v>6.224434036217385e-09</v>
       </c>
       <c r="H112">
-        <v>0.09537461850934348</v>
+        <v>0.02762305491157777</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3312,25 +3312,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.00821314281153647</v>
+        <v>0.007782122105819348</v>
       </c>
       <c r="C113">
-        <v>-0.01058509270375841</v>
+        <v>-0.001735100052670933</v>
       </c>
       <c r="D113">
-        <v>5.505968560830163e-05</v>
+        <v>4.893733806510862e-05</v>
       </c>
       <c r="E113">
-        <v>-0.006504762460612566</v>
+        <v>-0.001778864886362086</v>
       </c>
       <c r="F113">
-        <v>0.0003354088335916881</v>
+        <v>-0.002423685663635768</v>
       </c>
       <c r="G113">
-        <v>-2.498240243344586e-05</v>
+        <v>5.562056293659215e-07</v>
       </c>
       <c r="H113">
-        <v>0.1136903219432422</v>
+        <v>0.09065686610533458</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3338,25 +3338,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.01076873370798935</v>
+        <v>0.0006788746110796611</v>
       </c>
       <c r="C114">
-        <v>-0.004803331711864016</v>
+        <v>-0.001101980312413169</v>
       </c>
       <c r="D114">
-        <v>6.48107853037989e-05</v>
+        <v>-2.0145229238053e-05</v>
       </c>
       <c r="E114">
-        <v>-0.001702093235426839</v>
+        <v>-0.0001215317930619991</v>
       </c>
       <c r="F114">
-        <v>0.0007878131112963674</v>
+        <v>0.0008282700368392734</v>
       </c>
       <c r="G114">
-        <v>-1.587092026052943e-05</v>
+        <v>-1.560596712963634e-06</v>
       </c>
       <c r="H114">
-        <v>0.09738786245029631</v>
+        <v>0.04176499856911144</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3364,25 +3364,25 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.01094815698577028</v>
+        <v>-0.002432760179598871</v>
       </c>
       <c r="C115">
-        <v>-0.006309535825501684</v>
+        <v>-0.001793917987020793</v>
       </c>
       <c r="D115">
-        <v>-2.167773511055603e-06</v>
+        <v>-9.324304004581519e-05</v>
       </c>
       <c r="E115">
-        <v>0.00294395300440152</v>
+        <v>0.001459042396359495</v>
       </c>
       <c r="F115">
-        <v>0.0008427441737436585</v>
+        <v>0.0007242660990316296</v>
       </c>
       <c r="G115">
-        <v>-1.513346068276128e-05</v>
+        <v>5.634642676736223e-07</v>
       </c>
       <c r="H115">
-        <v>0.1000494619951655</v>
+        <v>0.08577405963582091</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3390,25 +3390,25 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.01264295835166065</v>
+        <v>-0.004802482871054226</v>
       </c>
       <c r="C116">
-        <v>-0.0039652450131985</v>
+        <v>0.002762662394469523</v>
       </c>
       <c r="D116">
-        <v>-1.468200976201212e-05</v>
+        <v>-1.259332220918997e-05</v>
       </c>
       <c r="E116">
-        <v>0.002847989744956925</v>
+        <v>0.000167467951035935</v>
       </c>
       <c r="F116">
-        <v>0.002269698848313872</v>
+        <v>-0.002257590461301901</v>
       </c>
       <c r="G116">
-        <v>-1.385990052176509e-05</v>
+        <v>3.357212556238159e-06</v>
       </c>
       <c r="H116">
-        <v>0.08028109577562864</v>
+        <v>0.1185457300714945</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3416,25 +3416,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.01106210034906327</v>
+        <v>-0.0001492781243789248</v>
       </c>
       <c r="C117">
-        <v>-0.006892073289257209</v>
+        <v>-0.0006082608735390274</v>
       </c>
       <c r="D117">
-        <v>2.696085870377939e-05</v>
+        <v>-3.667438269654896e-06</v>
       </c>
       <c r="E117">
-        <v>-0.002668353200819151</v>
+        <v>-0.0003771286849069723</v>
       </c>
       <c r="F117">
-        <v>-0.00127899143504792</v>
+        <v>-0.0001403233537685284</v>
       </c>
       <c r="G117">
-        <v>-1.867965882326892e-05</v>
+        <v>9.897427382710027e-07</v>
       </c>
       <c r="H117">
-        <v>0.1317052062013402</v>
+        <v>0.03331965435883914</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3442,25 +3442,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.006719736785265567</v>
+        <v>-0.0004781846690484724</v>
       </c>
       <c r="C118">
-        <v>-0.004700380258851259</v>
+        <v>0.0003297995703946152</v>
       </c>
       <c r="D118">
-        <v>4.041959355367178e-05</v>
+        <v>-1.84392291836827e-06</v>
       </c>
       <c r="E118">
-        <v>0.007342906558986131</v>
+        <v>0.0002720562810472546</v>
       </c>
       <c r="F118">
-        <v>0.0004762915003913367</v>
+        <v>-0.0002764945932153235</v>
       </c>
       <c r="G118">
-        <v>-1.592204994001728e-05</v>
+        <v>1.00398616253899e-06</v>
       </c>
       <c r="H118">
-        <v>0.09659495476381595</v>
+        <v>0.03425478479288177</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3468,25 +3468,25 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.01524098348699326</v>
+        <v>-0.001350418118069732</v>
       </c>
       <c r="C119">
-        <v>-0.01070942466212385</v>
+        <v>-0.00278154794035786</v>
       </c>
       <c r="D119">
-        <v>2.591572820634036e-05</v>
+        <v>6.57306906576564e-06</v>
       </c>
       <c r="E119">
-        <v>-0.004769458226394727</v>
+        <v>-0.001265811564718736</v>
       </c>
       <c r="F119">
-        <v>-0.0013875355550359</v>
+        <v>0.0009801151543514174</v>
       </c>
       <c r="G119">
-        <v>-1.726939634049353e-05</v>
+        <v>-1.647354003306759e-06</v>
       </c>
       <c r="H119">
-        <v>0.1333050733314599</v>
+        <v>0.03755707241271599</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3494,25 +3494,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.01595406488767781</v>
+        <v>0.0001680535606896818</v>
       </c>
       <c r="C120">
-        <v>-0.01446822421071163</v>
+        <v>-4.619193036702789e-05</v>
       </c>
       <c r="D120">
-        <v>8.452856891472973e-05</v>
+        <v>-2.29766514570969e-07</v>
       </c>
       <c r="E120">
-        <v>-0.004670329213719224</v>
+        <v>0.0002595860908006613</v>
       </c>
       <c r="F120">
-        <v>0.001486665104973536</v>
+        <v>-8.122079254079952e-05</v>
       </c>
       <c r="G120">
-        <v>-1.119804237571116e-05</v>
+        <v>2.877326162954309e-07</v>
       </c>
       <c r="H120">
-        <v>0.09079238231615264</v>
+        <v>0.02854254108850024</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3520,25 +3520,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.01565526599294469</v>
+        <v>0.0001859553416181177</v>
       </c>
       <c r="C121">
-        <v>-0.000890766377201856</v>
+        <v>-6.85759897610719e-06</v>
       </c>
       <c r="D121">
-        <v>-1.20456219118053e-05</v>
+        <v>2.492085721778609e-06</v>
       </c>
       <c r="E121">
-        <v>-0.0030402464830461</v>
+        <v>-0.0001215361555116368</v>
       </c>
       <c r="F121">
-        <v>0.001331759111781366</v>
+        <v>-9.850475578712539e-05</v>
       </c>
       <c r="G121">
-        <v>-2.049779047941093e-05</v>
+        <v>2.268238761986565e-07</v>
       </c>
       <c r="H121">
-        <v>0.1048437853134912</v>
+        <v>0.02826729122072099</v>
       </c>
     </row>
   </sheetData>
